--- a/intermediateTables/鱼单价工具.xlsx
+++ b/intermediateTables/鱼单价工具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5280" yWindow="765" windowWidth="41685" windowHeight="20190" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5430" yWindow="225" windowWidth="35295" windowHeight="20580" tabRatio="600" firstSheet="1" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置任务list" sheetId="1" state="visible" r:id="rId1"/>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" saveData="0" refreshOnLoad="1" refreshedBy="宋甫" refreshedDate="45772.49022199074" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="12">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" saveData="0" refreshOnLoad="1" refreshedBy="宋甫" refreshedDate="45784.75822685185" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="12">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:O13" sheet="切到多套"/>
   </cacheSource>
@@ -3521,10 +3521,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -3569,238 +3569,238 @@
     <row r="2">
       <c r="A2" s="51" t="inlineStr">
         <is>
-          <t>Tench</t>
+          <t>Alewife</t>
         </is>
       </c>
       <c r="B2" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C2" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="51" t="n">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="51" t="inlineStr">
         <is>
-          <t>Tench</t>
+          <t>Alewife</t>
         </is>
       </c>
       <c r="B3" s="51" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C3" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="51" t="n">
-        <v>270</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="51" t="inlineStr">
         <is>
-          <t>Tench</t>
+          <t>Common_Shiner</t>
         </is>
       </c>
       <c r="B4" s="51" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C4" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="51" t="n">
-        <v>135</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="51" t="inlineStr">
         <is>
-          <t>Tench</t>
+          <t>Common_Shiner</t>
         </is>
       </c>
       <c r="B5" s="51" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C5" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="51" t="n">
-        <v>54</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="51" t="inlineStr">
         <is>
-          <t>Golden_Bream</t>
+          <t>Green_Sunfish</t>
         </is>
       </c>
       <c r="B6" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C6" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="51" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="51" t="inlineStr">
         <is>
-          <t>Golden_Bream</t>
+          <t>Green_Sunfish</t>
         </is>
       </c>
       <c r="B7" s="51" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C7" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="51" t="n">
-        <v>270</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="51" t="inlineStr">
         <is>
-          <t>Golden_Bream</t>
+          <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
       <c r="B8" s="51" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C8" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" s="51" t="n">
-        <v>135</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="51" t="inlineStr">
         <is>
-          <t>Golden_Bream</t>
+          <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
       <c r="B9" s="51" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C9" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="51" t="n">
-        <v>54</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="51" t="inlineStr">
         <is>
-          <t>Green_Sunfish</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B10" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C10" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="51" t="n">
-        <v>685</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="51" t="inlineStr">
         <is>
-          <t>Green_Sunfish</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B11" s="51" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C11" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="51" t="n">
-        <v>342</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="51" t="inlineStr">
         <is>
-          <t>Green_Sunfish</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B12" s="51" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C12" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="51" t="n">
-        <v>171</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="51" t="inlineStr">
         <is>
-          <t>Black_Crappie</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B13" s="51" t="inlineStr">
@@ -3815,13 +3815,13 @@
         <v>2</v>
       </c>
       <c r="E13" s="51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="51" t="inlineStr">
         <is>
-          <t>Black_Crappie</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B14" s="51" t="inlineStr">
@@ -3836,18 +3836,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="51" t="inlineStr">
         <is>
-          <t>White_Crappie</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B15" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C15" s="51" t="n">
@@ -3857,207 +3857,207 @@
         <v>2</v>
       </c>
       <c r="E15" s="51" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="51" t="inlineStr">
         <is>
-          <t>White_Crappie</t>
+          <t>Yaqui_Sucker</t>
         </is>
       </c>
       <c r="B16" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C16" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="51" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="51" t="inlineStr">
         <is>
-          <t>Redspotted_Sunfish</t>
+          <t>Yaqui_Sucker</t>
         </is>
       </c>
       <c r="B17" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C17" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="51" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="51" t="inlineStr">
         <is>
-          <t>Redspotted_Sunfish</t>
+          <t>Yaqui_Sucker</t>
         </is>
       </c>
       <c r="B18" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C18" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="51" t="n">
-        <v>500</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="51" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Yaqui_Sucker</t>
         </is>
       </c>
       <c r="B19" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C19" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="51" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="51" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Buffalofish</t>
         </is>
       </c>
       <c r="B20" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C20" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="51" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="51" t="inlineStr">
         <is>
-          <t>Channel_Catfish</t>
+          <t>Buffalofish</t>
         </is>
       </c>
       <c r="B21" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C21" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="51" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="51" t="inlineStr">
         <is>
-          <t>Channel_Catfish</t>
+          <t>Buffalofish</t>
         </is>
       </c>
       <c r="B22" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C22" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="51" t="n">
-        <v>500</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="51" t="inlineStr">
         <is>
-          <t>Pumpkinseed_Sunfish</t>
+          <t>Buffalofish</t>
         </is>
       </c>
       <c r="B23" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C23" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="51" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="51" t="inlineStr">
         <is>
-          <t>Pumpkinseed_Sunfish</t>
+          <t>Bigmouth_Buffalo</t>
         </is>
       </c>
       <c r="B24" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C24" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="51" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="51" t="inlineStr">
         <is>
-          <t>Buffalofish</t>
+          <t>Bigmouth_Buffalo</t>
         </is>
       </c>
       <c r="B25" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C25" s="51" t="n">
@@ -4067,18 +4067,18 @@
         <v>3</v>
       </c>
       <c r="E25" s="51" t="n">
-        <v>500</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="51" t="inlineStr">
         <is>
-          <t>Buffalofish</t>
+          <t>Bigmouth_Buffalo</t>
         </is>
       </c>
       <c r="B26" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C26" s="51" t="n">
@@ -4088,265 +4088,265 @@
         <v>3</v>
       </c>
       <c r="E26" s="51" t="n">
-        <v>500</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="51" t="inlineStr">
         <is>
-          <t>Redear_Sunfish</t>
+          <t>Bigmouth_Buffalo</t>
         </is>
       </c>
       <c r="B27" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C27" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="51" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="51" t="inlineStr">
         <is>
-          <t>Redear_Sunfish</t>
+          <t>Tench</t>
         </is>
       </c>
       <c r="B28" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C28" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="51" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="51" t="inlineStr">
         <is>
-          <t>Bluegill_Sunfish</t>
+          <t>Tench</t>
         </is>
       </c>
       <c r="B29" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C29" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="51" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="51" t="inlineStr">
         <is>
-          <t>Bluegill_Sunfish</t>
+          <t>Tench</t>
         </is>
       </c>
       <c r="B30" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C30" s="51" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E30" s="51" t="n">
-        <v>500</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="51" t="inlineStr">
         <is>
-          <t>White_Channel_Catfish</t>
+          <t>Tench</t>
         </is>
       </c>
       <c r="B31" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C31" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" s="51" t="n">
-        <v>540</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="51" t="inlineStr">
         <is>
-          <t>White_Channel_Catfish</t>
+          <t>Tench</t>
         </is>
       </c>
       <c r="B32" s="51" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Apex</t>
         </is>
       </c>
       <c r="C32" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" s="51" t="n">
-        <v>270</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="51" t="inlineStr">
         <is>
-          <t>White_Channel_Catfish</t>
+          <t>Channel_Catfish</t>
         </is>
       </c>
       <c r="B33" s="51" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C33" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="51" t="n">
-        <v>135</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="51" t="inlineStr">
         <is>
-          <t>White_Channel_Catfish</t>
+          <t>Channel_Catfish</t>
         </is>
       </c>
       <c r="B34" s="51" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C34" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="51" t="n">
-        <v>54</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="51" t="inlineStr">
         <is>
-          <t>Striped_Bass</t>
+          <t>Channel_Catfish</t>
         </is>
       </c>
       <c r="B35" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C35" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="51" t="n">
-        <v>540</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="51" t="inlineStr">
         <is>
-          <t>Striped_Bass</t>
+          <t>Channel_Catfish</t>
         </is>
       </c>
       <c r="B36" s="51" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C36" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36" s="51" t="n">
-        <v>270</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="51" t="inlineStr">
         <is>
-          <t>Striped_Bass</t>
+          <t>Channel_Catfish</t>
         </is>
       </c>
       <c r="B37" s="51" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Apex</t>
         </is>
       </c>
       <c r="C37" s="51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" s="51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="51" t="n">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="51" t="inlineStr">
         <is>
-          <t>Striped_Bass</t>
+          <t>Common_Shiner</t>
         </is>
       </c>
       <c r="B38" s="51" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C38" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D38" s="51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E38" s="51" t="n">
-        <v>54</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="51" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>Common_Shiner</t>
         </is>
       </c>
       <c r="B39" s="51" t="inlineStr">
@@ -4358,28 +4358,28 @@
         <v>2</v>
       </c>
       <c r="D39" s="51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" s="51" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="51" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B40" s="51" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C40" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="51" t="n">
         <v>400</v>
@@ -4388,75 +4388,75 @@
     <row r="41">
       <c r="A41" s="51" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B41" s="51" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C41" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D41" s="51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="51" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="51" t="inlineStr">
         <is>
-          <t>Muskellunge</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B42" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C42" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42" s="51" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="51" t="inlineStr">
         <is>
-          <t>Muskellunge</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B43" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C43" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" s="51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="51" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B44" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C44" s="51" t="n">
@@ -4466,18 +4466,18 @@
         <v>2</v>
       </c>
       <c r="E44" s="51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="51" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B45" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C45" s="51" t="n">
@@ -4487,13 +4487,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="51" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="51" t="inlineStr">
         <is>
-          <t>Channel_Catfish</t>
+          <t>American_Shad</t>
         </is>
       </c>
       <c r="B46" s="51" t="inlineStr">
@@ -4514,7 +4514,7 @@
     <row r="47">
       <c r="A47" s="51" t="inlineStr">
         <is>
-          <t>Channel_Catfish</t>
+          <t>American_Shad</t>
         </is>
       </c>
       <c r="B47" s="51" t="inlineStr">
@@ -4535,7 +4535,7 @@
     <row r="48">
       <c r="A48" s="51" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Rock_Bass</t>
         </is>
       </c>
       <c r="B48" s="51" t="inlineStr">
@@ -4556,7 +4556,7 @@
     <row r="49">
       <c r="A49" s="51" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Rock_Bass</t>
         </is>
       </c>
       <c r="B49" s="51" t="inlineStr">
@@ -4577,7 +4577,7 @@
     <row r="50">
       <c r="A50" s="51" t="inlineStr">
         <is>
-          <t>Black_Crappie</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B50" s="51" t="inlineStr">
@@ -4598,7 +4598,7 @@
     <row r="51">
       <c r="A51" s="51" t="inlineStr">
         <is>
-          <t>Black_Crappie</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B51" s="51" t="inlineStr">
@@ -4631,10 +4631,10 @@
         <v>2</v>
       </c>
       <c r="D52" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
@@ -4652,52 +4652,493 @@
         <v>2</v>
       </c>
       <c r="D53" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="51" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="51" t="inlineStr">
         <is>
-          <t>Rock_Bass</t>
+          <t>Yellow_Perch</t>
         </is>
       </c>
       <c r="B54" s="51" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C54" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="51" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="51" t="inlineStr">
         <is>
-          <t>Rock_Bass</t>
+          <t>Redfin_Pickerel</t>
         </is>
       </c>
       <c r="B55" s="51" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C55" s="51" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="51" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="51" t="inlineStr">
+        <is>
+          <t>Redfin_Pickerel</t>
+        </is>
+      </c>
+      <c r="B56" s="51" t="inlineStr">
+        <is>
+          <t>_Common</t>
+        </is>
+      </c>
+      <c r="C56" s="51" t="n">
         <v>2</v>
       </c>
-      <c r="E55" s="51" t="n">
-        <v>500</v>
+      <c r="D56" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" s="51" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="51" t="inlineStr">
+        <is>
+          <t>Redfin_Pickerel</t>
+        </is>
+      </c>
+      <c r="B57" s="51" t="inlineStr">
+        <is>
+          <t>_Trophy</t>
+        </is>
+      </c>
+      <c r="C57" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" s="51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="51" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="51" t="inlineStr">
+        <is>
+          <t>Spotted_Bass</t>
+        </is>
+      </c>
+      <c r="B58" s="51" t="inlineStr">
+        <is>
+          <t>_Young</t>
+        </is>
+      </c>
+      <c r="C58" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E58" s="51" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="51" t="inlineStr">
+        <is>
+          <t>Spotted_Bass</t>
+        </is>
+      </c>
+      <c r="B59" s="51" t="inlineStr">
+        <is>
+          <t>_Common</t>
+        </is>
+      </c>
+      <c r="C59" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" s="51" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="51" t="inlineStr">
+        <is>
+          <t>Spotted_Bass</t>
+        </is>
+      </c>
+      <c r="B60" s="51" t="inlineStr">
+        <is>
+          <t>_Trophy</t>
+        </is>
+      </c>
+      <c r="C60" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" s="51" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="51" t="inlineStr">
+        <is>
+          <t>Spotted_Bass</t>
+        </is>
+      </c>
+      <c r="B61" s="51" t="inlineStr">
+        <is>
+          <t>_Unique</t>
+        </is>
+      </c>
+      <c r="C61" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" s="51" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="51" t="inlineStr">
+        <is>
+          <t>Largemouth_Bass</t>
+        </is>
+      </c>
+      <c r="B62" s="51" t="inlineStr">
+        <is>
+          <t>_Young</t>
+        </is>
+      </c>
+      <c r="C62" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" s="51" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="51" t="inlineStr">
+        <is>
+          <t>Largemouth_Bass</t>
+        </is>
+      </c>
+      <c r="B63" s="51" t="inlineStr">
+        <is>
+          <t>_Common</t>
+        </is>
+      </c>
+      <c r="C63" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" s="51" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="51" t="inlineStr">
+        <is>
+          <t>Largemouth_Bass</t>
+        </is>
+      </c>
+      <c r="B64" s="51" t="inlineStr">
+        <is>
+          <t>_Trophy</t>
+        </is>
+      </c>
+      <c r="C64" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" s="51" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="51" t="inlineStr">
+        <is>
+          <t>Largemouth_Bass</t>
+        </is>
+      </c>
+      <c r="B65" s="51" t="inlineStr">
+        <is>
+          <t>_Unique</t>
+        </is>
+      </c>
+      <c r="C65" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" s="51" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="51" t="inlineStr">
+        <is>
+          <t>Largemouth_Bass</t>
+        </is>
+      </c>
+      <c r="B66" s="51" t="inlineStr">
+        <is>
+          <t>_Apex</t>
+        </is>
+      </c>
+      <c r="C66" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" s="51" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="51" t="inlineStr">
+        <is>
+          <t>American_Eel</t>
+        </is>
+      </c>
+      <c r="B67" s="51" t="inlineStr">
+        <is>
+          <t>_Young</t>
+        </is>
+      </c>
+      <c r="C67" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" s="51" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="51" t="inlineStr">
+        <is>
+          <t>American_Eel</t>
+        </is>
+      </c>
+      <c r="B68" s="51" t="inlineStr">
+        <is>
+          <t>_Common</t>
+        </is>
+      </c>
+      <c r="C68" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" s="51" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="51" t="inlineStr">
+        <is>
+          <t>American_Eel</t>
+        </is>
+      </c>
+      <c r="B69" s="51" t="inlineStr">
+        <is>
+          <t>_Trophy</t>
+        </is>
+      </c>
+      <c r="C69" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" s="51" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="51" t="inlineStr">
+        <is>
+          <t>American_Eel</t>
+        </is>
+      </c>
+      <c r="B70" s="51" t="inlineStr">
+        <is>
+          <t>_Unique</t>
+        </is>
+      </c>
+      <c r="C70" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" s="51" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="51" t="inlineStr">
+        <is>
+          <t>American_Eel</t>
+        </is>
+      </c>
+      <c r="B71" s="51" t="inlineStr">
+        <is>
+          <t>_Apex</t>
+        </is>
+      </c>
+      <c r="C71" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" s="51" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="51" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B72" s="51" t="inlineStr">
+        <is>
+          <t>_Young</t>
+        </is>
+      </c>
+      <c r="C72" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="51" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="51" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B73" s="51" t="inlineStr">
+        <is>
+          <t>_Common</t>
+        </is>
+      </c>
+      <c r="C73" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D73" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" s="51" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="51" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B74" s="51" t="inlineStr">
+        <is>
+          <t>_Trophy</t>
+        </is>
+      </c>
+      <c r="C74" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" s="51" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="51" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B75" s="51" t="inlineStr">
+        <is>
+          <t>_Unique</t>
+        </is>
+      </c>
+      <c r="C75" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" s="51" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="51" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B76" s="51" t="inlineStr">
+        <is>
+          <t>_Apex</t>
+        </is>
+      </c>
+      <c r="C76" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D76" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" s="51" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -9489,8 +9930,8 @@
   </sheetPr>
   <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>

--- a/intermediateTables/鱼单价工具.xlsx
+++ b/intermediateTables/鱼单价工具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DocsHDD\FGame\中鱼\StatDemo\intermediateTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E699F963-A19E-4485-B86A-DDEAEEED9C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0AA5ADE9-01D9-4987-9461-A2C6318CD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="1545" windowWidth="41685" windowHeight="18390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="1545" windowWidth="41685" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="鱼单价工具" sheetId="7" r:id="rId1"/>
@@ -2325,8 +2325,8 @@
   </sheetPr>
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="Q64" s="10">
         <f t="array" ref="Q64">INT(SUMPRODUCT(($D$4:$D$99=$D64)*($F$4:$F$99=$F64),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D64)*($F$4:$F$99=$F64),$O$4:$O$99))</f>
-        <v>2758</v>
+        <v>3306</v>
       </c>
       <c r="R64" s="9">
         <v>25.6</v>
@@ -7350,18 +7350,18 @@
         <v>3.23</v>
       </c>
       <c r="N65" s="9">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O65" s="9">
         <v>350</v>
       </c>
       <c r="P65" s="12">
         <f t="shared" si="9"/>
-        <v>1803</v>
+        <v>1983</v>
       </c>
       <c r="Q65" s="10">
         <f t="array" ref="Q65">INT(SUMPRODUCT(($D$4:$D$99=$D65)*($F$4:$F$99=$F65),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D65)*($F$4:$F$99=$F65),$O$4:$O$99))</f>
-        <v>2758</v>
+        <v>3306</v>
       </c>
       <c r="R65" s="9">
         <v>26.6</v>
@@ -7370,11 +7370,11 @@
       <c r="T65" s="10"/>
       <c r="U65" s="12">
         <f t="shared" si="11"/>
-        <v>807</v>
+        <v>888</v>
       </c>
       <c r="V65" s="47">
         <f t="shared" si="5"/>
-        <v>740</v>
+        <v>814</v>
       </c>
       <c r="W65" s="12">
         <v>740</v>
@@ -7429,18 +7429,18 @@
         <v>3.23</v>
       </c>
       <c r="N66" s="9">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="O66" s="9">
         <v>175</v>
       </c>
       <c r="P66" s="12">
         <f t="shared" si="9"/>
-        <v>4773</v>
+        <v>5728</v>
       </c>
       <c r="Q66" s="10">
         <f t="array" ref="Q66">INT(SUMPRODUCT(($D$4:$D$99=$D66)*($F$4:$F$99=$F66),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D66)*($F$4:$F$99=$F66),$O$4:$O$99))</f>
-        <v>2758</v>
+        <v>3306</v>
       </c>
       <c r="R66" s="9">
         <v>27.6</v>
@@ -7449,11 +7449,11 @@
       <c r="T66" s="10"/>
       <c r="U66" s="12">
         <f t="shared" si="11"/>
-        <v>3155</v>
+        <v>3786</v>
       </c>
       <c r="V66" s="47">
         <f t="shared" si="5"/>
-        <v>740</v>
+        <v>888</v>
       </c>
       <c r="W66" s="12">
         <v>740</v>
@@ -7508,18 +7508,18 @@
         <v>3.23</v>
       </c>
       <c r="N67" s="9">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="O67" s="9">
         <v>87</v>
       </c>
       <c r="P67" s="12">
         <f t="shared" si="9"/>
-        <v>8584</v>
+        <v>10731</v>
       </c>
       <c r="Q67" s="10">
         <f t="array" ref="Q67">INT(SUMPRODUCT(($D$4:$D$99=$D67)*($F$4:$F$99=$F67),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D67)*($F$4:$F$99=$F67),$O$4:$O$99))</f>
-        <v>2758</v>
+        <v>3306</v>
       </c>
       <c r="R67" s="9">
         <v>28.6</v>
@@ -7528,11 +7528,11 @@
       <c r="T67" s="10"/>
       <c r="U67" s="12">
         <f t="shared" si="11"/>
-        <v>6695</v>
+        <v>8368</v>
       </c>
       <c r="V67" s="47">
         <f t="shared" si="5"/>
-        <v>740</v>
+        <v>925</v>
       </c>
       <c r="W67" s="12">
         <v>740</v>
@@ -7587,18 +7587,18 @@
         <v>3.23</v>
       </c>
       <c r="N68" s="9">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O68" s="9">
         <v>35</v>
       </c>
       <c r="P68" s="12">
         <f t="shared" ref="P68:P78" si="15">INT(K68*N68/1000)</f>
-        <v>12346</v>
+        <v>16050</v>
       </c>
       <c r="Q68" s="10">
         <f t="array" ref="Q68">INT(SUMPRODUCT(($D$4:$D$99=$D68)*($F$4:$F$99=$F68),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D68)*($F$4:$F$99=$F68),$O$4:$O$99))</f>
-        <v>2758</v>
+        <v>3306</v>
       </c>
       <c r="R68" s="9">
         <v>29.6</v>
@@ -7607,11 +7607,11 @@
       <c r="T68" s="10"/>
       <c r="U68" s="12">
         <f t="shared" si="11"/>
-        <v>10688</v>
+        <v>13895</v>
       </c>
       <c r="V68" s="47">
         <f t="shared" si="5"/>
-        <v>740</v>
+        <v>962</v>
       </c>
       <c r="W68" s="12">
         <v>740</v>
@@ -7666,18 +7666,18 @@
         <v>3.49</v>
       </c>
       <c r="N69" s="9">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="O69" s="9">
         <v>350</v>
       </c>
       <c r="P69" s="12">
         <f t="shared" si="15"/>
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="Q69" s="10">
         <f t="array" ref="Q69">INT(SUMPRODUCT(($D$4:$D$99=$D69)*($F$4:$F$99=$F69),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D69)*($F$4:$F$99=$F69),$O$4:$O$99))</f>
-        <v>3436</v>
+        <v>3136</v>
       </c>
       <c r="R69" s="9">
         <v>30.6</v>
@@ -7686,11 +7686,11 @@
       <c r="T69" s="10"/>
       <c r="U69" s="12">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V69" s="47">
         <f t="shared" ref="V69:V78" si="16">INT(N69*V$3)</f>
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="W69" s="12">
         <v>370</v>
@@ -7745,18 +7745,18 @@
         <v>3.49</v>
       </c>
       <c r="N70" s="9">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="O70" s="9">
         <v>350</v>
       </c>
       <c r="P70" s="12">
         <f t="shared" si="15"/>
-        <v>1801</v>
+        <v>1657</v>
       </c>
       <c r="Q70" s="10">
         <f t="array" ref="Q70">INT(SUMPRODUCT(($D$4:$D$99=$D70)*($F$4:$F$99=$F70),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D70)*($F$4:$F$99=$F70),$O$4:$O$99))</f>
-        <v>3436</v>
+        <v>3136</v>
       </c>
       <c r="R70" s="9">
         <v>31.6</v>
@@ -7765,11 +7765,11 @@
       <c r="T70" s="10"/>
       <c r="U70" s="12">
         <f t="shared" si="11"/>
-        <v>722</v>
+        <v>664</v>
       </c>
       <c r="V70" s="47">
         <f t="shared" si="16"/>
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="W70" s="12">
         <v>370</v>
@@ -7824,18 +7824,18 @@
         <v>3.49</v>
       </c>
       <c r="N71" s="9">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="O71" s="9">
         <v>175</v>
       </c>
       <c r="P71" s="12">
         <f t="shared" si="15"/>
-        <v>5381</v>
+        <v>5058</v>
       </c>
       <c r="Q71" s="10">
         <f t="array" ref="Q71">INT(SUMPRODUCT(($D$4:$D$99=$D71)*($F$4:$F$99=$F71),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D71)*($F$4:$F$99=$F71),$O$4:$O$99))</f>
-        <v>3436</v>
+        <v>3136</v>
       </c>
       <c r="R71" s="9">
         <v>32.6</v>
@@ -7844,11 +7844,11 @@
       <c r="T71" s="10"/>
       <c r="U71" s="12">
         <f t="shared" si="11"/>
-        <v>3335</v>
+        <v>3135</v>
       </c>
       <c r="V71" s="47">
         <f t="shared" si="16"/>
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="W71" s="12">
         <v>370</v>
@@ -7903,18 +7903,18 @@
         <v>3.49</v>
       </c>
       <c r="N72" s="9">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O72" s="9">
         <v>87</v>
       </c>
       <c r="P72" s="12">
         <f t="shared" si="15"/>
-        <v>12650</v>
+        <v>10542</v>
       </c>
       <c r="Q72" s="10">
         <f t="array" ref="Q72">INT(SUMPRODUCT(($D$4:$D$99=$D72)*($F$4:$F$99=$F72),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D72)*($F$4:$F$99=$F72),$O$4:$O$99))</f>
-        <v>3436</v>
+        <v>3136</v>
       </c>
       <c r="R72" s="9">
         <v>33.6</v>
@@ -7923,11 +7923,11 @@
       <c r="T72" s="10"/>
       <c r="U72" s="12">
         <f t="shared" si="11"/>
-        <v>9463</v>
+        <v>7886</v>
       </c>
       <c r="V72" s="47">
         <f t="shared" si="16"/>
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="W72" s="12">
         <v>444</v>
@@ -7993,7 +7993,7 @@
       </c>
       <c r="Q73" s="10">
         <f t="array" ref="Q73">INT(SUMPRODUCT(($D$4:$D$99=$D73)*($F$4:$F$99=$F73),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D73)*($F$4:$F$99=$F73),$O$4:$O$99))</f>
-        <v>3436</v>
+        <v>3136</v>
       </c>
       <c r="R73" s="9">
         <v>34.6</v>
@@ -8061,18 +8061,18 @@
         <v>3.27</v>
       </c>
       <c r="N74" s="9">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="O74" s="9">
         <v>350</v>
       </c>
       <c r="P74" s="12">
         <f t="shared" si="15"/>
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="Q74" s="10">
         <f t="array" ref="Q74">INT(SUMPRODUCT(($D$4:$D$99=$D74)*($F$4:$F$99=$F74),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D74)*($F$4:$F$99=$F74),$O$4:$O$99))</f>
-        <v>3936</v>
+        <v>3809</v>
       </c>
       <c r="R74" s="9">
         <v>35.6</v>
@@ -8081,11 +8081,11 @@
       <c r="T74" s="10"/>
       <c r="U74" s="12">
         <f t="shared" si="11"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="V74" s="47">
         <f t="shared" si="16"/>
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="W74" s="12">
         <v>592</v>
@@ -8140,18 +8140,18 @@
         <v>3.27</v>
       </c>
       <c r="N75" s="9">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="O75" s="9">
         <v>350</v>
       </c>
       <c r="P75" s="12">
         <f t="shared" si="15"/>
-        <v>2501</v>
+        <v>2354</v>
       </c>
       <c r="Q75" s="10">
         <f t="array" ref="Q75">INT(SUMPRODUCT(($D$4:$D$99=$D75)*($F$4:$F$99=$F75),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D75)*($F$4:$F$99=$F75),$O$4:$O$99))</f>
-        <v>3936</v>
+        <v>3809</v>
       </c>
       <c r="R75" s="9">
         <v>36.6</v>
@@ -8160,11 +8160,11 @@
       <c r="T75" s="10"/>
       <c r="U75" s="12">
         <f t="shared" si="11"/>
-        <v>1186</v>
+        <v>1116</v>
       </c>
       <c r="V75" s="47">
         <f t="shared" si="16"/>
-        <v>629</v>
+        <v>592</v>
       </c>
       <c r="W75" s="12">
         <v>629</v>
@@ -8219,18 +8219,18 @@
         <v>3.27</v>
       </c>
       <c r="N76" s="9">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="O76" s="9">
         <v>175</v>
       </c>
       <c r="P76" s="12">
         <f t="shared" si="15"/>
-        <v>6729</v>
+        <v>6355</v>
       </c>
       <c r="Q76" s="10">
         <f t="array" ref="Q76">INT(SUMPRODUCT(($D$4:$D$99=$D76)*($F$4:$F$99=$F76),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D76)*($F$4:$F$99=$F76),$O$4:$O$99))</f>
-        <v>3936</v>
+        <v>3809</v>
       </c>
       <c r="R76" s="9">
         <v>37.6</v>
@@ -8239,11 +8239,11 @@
       <c r="T76" s="10"/>
       <c r="U76" s="12">
         <f t="shared" si="11"/>
-        <v>4509</v>
+        <v>4258</v>
       </c>
       <c r="V76" s="47">
         <f t="shared" si="16"/>
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="W76" s="12">
         <v>666</v>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="Q77" s="10">
         <f t="array" ref="Q77">INT(SUMPRODUCT(($D$4:$D$99=$D77)*($F$4:$F$99=$F77),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D77)*($F$4:$F$99=$F77),$O$4:$O$99))</f>
-        <v>3936</v>
+        <v>3809</v>
       </c>
       <c r="R77" s="9">
         <v>38.6</v>
@@ -8388,7 +8388,7 @@
       </c>
       <c r="Q78" s="10">
         <f t="array" ref="Q78">INT(SUMPRODUCT(($D$4:$D$99=$D78)*($F$4:$F$99=$F78),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D78)*($F$4:$F$99=$F78),$O$4:$O$99))</f>
-        <v>3936</v>
+        <v>3809</v>
       </c>
       <c r="R78" s="9">
         <v>39.6</v>
@@ -12396,7 +12396,7 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/intermediateTables/鱼单价工具.xlsx
+++ b/intermediateTables/鱼单价工具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6990" yWindow="2475" windowWidth="41685" windowHeight="18390" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="鱼单价工具" sheetId="1" state="visible" r:id="rId1"/>
@@ -159,14 +159,12 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="3"/>
       <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="3"/>
       <color rgb="FF990099"/>
       <sz val="10"/>
     </font>
@@ -398,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +524,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1755,10 +1756,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W200"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -1794,17 +1795,17 @@
           <t>cm</t>
         </is>
       </c>
-      <c r="I1" s="49" t="inlineStr">
+      <c r="I1" s="50" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="J1" s="49" t="inlineStr">
+      <c r="J1" s="50" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="K1" s="49" t="n"/>
+      <c r="K1" s="50" t="n"/>
       <c r="L1" s="5" t="n"/>
       <c r="M1" s="5" t="n"/>
       <c r="N1" s="5" t="n"/>
@@ -1818,11 +1819,7 @@
           <t>这个鱼种多个品质加权</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
-        <is>
-          <t>(/minute)</t>
-        </is>
-      </c>
+      <c r="R1" s="5" t="n"/>
       <c r="S1" s="5" t="n"/>
       <c r="T1" s="5" t="inlineStr">
         <is>
@@ -1874,17 +1871,17 @@
           <t>最大长度</t>
         </is>
       </c>
-      <c r="I2" s="49" t="inlineStr">
+      <c r="I2" s="50" t="inlineStr">
         <is>
           <t>最小重量</t>
         </is>
       </c>
-      <c r="J2" s="49" t="inlineStr">
+      <c r="J2" s="50" t="inlineStr">
         <is>
           <t>最大重量</t>
         </is>
       </c>
-      <c r="K2" s="49" t="inlineStr">
+      <c r="K2" s="50" t="inlineStr">
         <is>
           <t>期望重量</t>
         </is>
@@ -1919,9 +1916,9 @@
           <t>本阶段期望gold/条</t>
         </is>
       </c>
-      <c r="R2" s="5" t="inlineStr">
-        <is>
-          <t>钓鱼时间</t>
+      <c r="R2" s="49" t="inlineStr">
+        <is>
+          <t>本阶段期望重量</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
@@ -1959,9 +1956,9 @@
       <c r="F3" s="13" t="n"/>
       <c r="G3" s="13" t="n"/>
       <c r="H3" s="13" t="n"/>
-      <c r="I3" s="50" t="n"/>
-      <c r="J3" s="50" t="n"/>
-      <c r="K3" s="50" t="n"/>
+      <c r="I3" s="51" t="n"/>
+      <c r="J3" s="51" t="n"/>
+      <c r="K3" s="51" t="n"/>
       <c r="L3" s="13" t="n"/>
       <c r="M3" s="13" t="n"/>
       <c r="N3" s="13" t="n"/>
@@ -1973,7 +1970,7 @@
       <c r="T3" s="13" t="n"/>
       <c r="U3" s="13" t="n"/>
       <c r="V3" s="40" t="n">
-        <v>0.74</v>
+        <v>0.42</v>
       </c>
       <c r="W3" s="13" t="n"/>
     </row>
@@ -2009,15 +2006,15 @@
       <c r="H4" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="52">
         <f>$L4*POWER(G4, $M4)</f>
         <v/>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="52">
         <f>$L4*POWER(H4, $M4)</f>
         <v/>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="52">
         <f>$L4*(POWER(H4,$M4+1)-POWER($G4,$M4+1))/($M4+1)/($H4-$G4)</f>
         <v/>
       </c>
@@ -2043,8 +2040,9 @@
         <f t="array" ref="Q4">INT(SUMPRODUCT(($D$4:$D$99=$D4)*($F$4:$F$99=$F4),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D4)*($F$4:$F$99=$F4),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R4" s="9" t="n">
-        <v>0.5</v>
+      <c r="R4" s="12">
+        <f t="array" ref="R4">INT(SUMPRODUCT(($D$4:$D$99=$D4)*($F$4:$F$99=$F4),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D4)*($F$4:$F$99=$F4),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S4" s="12" t="n"/>
       <c r="T4" s="10" t="n"/>
@@ -2057,7 +2055,7 @@
         <v/>
       </c>
       <c r="W4" s="12" t="n">
-        <v>518</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" ht="13.5" customHeight="1" s="48">
@@ -2092,15 +2090,15 @@
       <c r="H5" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="52">
         <f>$L5*POWER(G5, $M5)</f>
         <v/>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="52">
         <f>$L5*POWER(H5, $M5)</f>
         <v/>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="52">
         <f>$L5*(POWER(H5,$M5+1)-POWER($G5,$M5+1))/($M5+1)/($H5-$G5)</f>
         <v/>
       </c>
@@ -2126,8 +2124,9 @@
         <f t="array" ref="Q5">INT(SUMPRODUCT(($D$4:$D$99=$D5)*($F$4:$F$99=$F5),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D5)*($F$4:$F$99=$F5),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R5" s="9" t="n">
-        <v>0.5</v>
+      <c r="R5" s="12">
+        <f t="array" ref="R5">INT(SUMPRODUCT(($D$4:$D$99=$D5)*($F$4:$F$99=$F5),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D5)*($F$4:$F$99=$F5),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S5" s="12" t="n"/>
       <c r="T5" s="10" t="n"/>
@@ -2140,7 +2139,7 @@
         <v/>
       </c>
       <c r="W5" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" ht="13.5" customHeight="1" s="48">
@@ -2175,15 +2174,15 @@
       <c r="H6" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="52">
         <f>$L6*POWER(G6, $M6)</f>
         <v/>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="52">
         <f>$L6*POWER(H6, $M6)</f>
         <v/>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="52">
         <f>$L6*(POWER(H6,$M6+1)-POWER($G6,$M6+1))/($M6+1)/($H6-$G6)</f>
         <v/>
       </c>
@@ -2209,8 +2208,9 @@
         <f t="array" ref="Q6">INT(SUMPRODUCT(($D$4:$D$99=$D6)*($F$4:$F$99=$F6),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D6)*($F$4:$F$99=$F6),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R6" s="9" t="n">
-        <v>0.5</v>
+      <c r="R6" s="12">
+        <f t="array" ref="R6">INT(SUMPRODUCT(($D$4:$D$99=$D6)*($F$4:$F$99=$F6),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D6)*($F$4:$F$99=$F6),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S6" s="12" t="n"/>
       <c r="T6" s="10" t="n"/>
@@ -2223,7 +2223,7 @@
         <v/>
       </c>
       <c r="W6" s="12" t="n">
-        <v>1850</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1" s="48">
@@ -2258,15 +2258,15 @@
       <c r="H7" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="52">
         <f>$L7*POWER(G7, $M7)</f>
         <v/>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="52">
         <f>$L7*POWER(H7, $M7)</f>
         <v/>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="52">
         <f>$L7*(POWER(H7,$M7+1)-POWER($G7,$M7+1))/($M7+1)/($H7-$G7)</f>
         <v/>
       </c>
@@ -2292,8 +2292,9 @@
         <f t="array" ref="Q7">INT(SUMPRODUCT(($D$4:$D$99=$D7)*($F$4:$F$99=$F7),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D7)*($F$4:$F$99=$F7),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R7" s="9" t="n">
-        <v>0.5</v>
+      <c r="R7" s="12">
+        <f t="array" ref="R7">INT(SUMPRODUCT(($D$4:$D$99=$D7)*($F$4:$F$99=$F7),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D7)*($F$4:$F$99=$F7),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S7" s="12" t="n"/>
       <c r="T7" s="10" t="n"/>
@@ -2306,7 +2307,7 @@
         <v/>
       </c>
       <c r="W7" s="12" t="n">
-        <v>2590</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1" s="48">
@@ -2341,15 +2342,15 @@
       <c r="H8" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="52">
         <f>$L8*POWER(G8, $M8)</f>
         <v/>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="52">
         <f>$L8*POWER(H8, $M8)</f>
         <v/>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="52">
         <f>$L8*(POWER(H8,$M8+1)-POWER($G8,$M8+1))/($M8+1)/($H8-$G8)</f>
         <v/>
       </c>
@@ -2375,8 +2376,9 @@
         <f t="array" ref="Q8">INT(SUMPRODUCT(($D$4:$D$99=$D8)*($F$4:$F$99=$F8),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D8)*($F$4:$F$99=$F8),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R8" s="9" t="n">
-        <v>0.5</v>
+      <c r="R8" s="12">
+        <f t="array" ref="R8">INT(SUMPRODUCT(($D$4:$D$99=$D8)*($F$4:$F$99=$F8),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D8)*($F$4:$F$99=$F8),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S8" s="12" t="n"/>
       <c r="T8" s="10" t="n"/>
@@ -2389,7 +2391,7 @@
         <v/>
       </c>
       <c r="W8" s="12" t="n">
-        <v>1110</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" ht="13.5" customHeight="1" s="48">
@@ -2424,15 +2426,15 @@
       <c r="H9" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="52">
         <f>$L9*POWER(G9, $M9)</f>
         <v/>
       </c>
-      <c r="J9" s="51">
+      <c r="J9" s="52">
         <f>$L9*POWER(H9, $M9)</f>
         <v/>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="52">
         <f>$L9*(POWER(H9,$M9+1)-POWER($G9,$M9+1))/($M9+1)/($H9-$G9)</f>
         <v/>
       </c>
@@ -2458,8 +2460,9 @@
         <f t="array" ref="Q9">INT(SUMPRODUCT(($D$4:$D$99=$D9)*($F$4:$F$99=$F9),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D9)*($F$4:$F$99=$F9),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R9" s="9" t="n">
-        <v>0.5</v>
+      <c r="R9" s="12">
+        <f t="array" ref="R9">INT(SUMPRODUCT(($D$4:$D$99=$D9)*($F$4:$F$99=$F9),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D9)*($F$4:$F$99=$F9),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S9" s="12" t="n"/>
       <c r="T9" s="10" t="n"/>
@@ -2472,7 +2475,7 @@
         <v/>
       </c>
       <c r="W9" s="12" t="n">
-        <v>1850</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" s="48">
@@ -2507,15 +2510,15 @@
       <c r="H10" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="52">
         <f>$L10*POWER(G10, $M10)</f>
         <v/>
       </c>
-      <c r="J10" s="51">
+      <c r="J10" s="52">
         <f>$L10*POWER(H10, $M10)</f>
         <v/>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="52">
         <f>$L10*(POWER(H10,$M10+1)-POWER($G10,$M10+1))/($M10+1)/($H10-$G10)</f>
         <v/>
       </c>
@@ -2541,8 +2544,9 @@
         <f t="array" ref="Q10">INT(SUMPRODUCT(($D$4:$D$99=$D10)*($F$4:$F$99=$F10),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D10)*($F$4:$F$99=$F10),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R10" s="9" t="n">
-        <v>0.5</v>
+      <c r="R10" s="12">
+        <f t="array" ref="R10">INT(SUMPRODUCT(($D$4:$D$99=$D10)*($F$4:$F$99=$F10),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D10)*($F$4:$F$99=$F10),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S10" s="12" t="n"/>
       <c r="T10" s="10" t="n"/>
@@ -2555,7 +2559,7 @@
         <v/>
       </c>
       <c r="W10" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="48">
@@ -2590,15 +2594,15 @@
       <c r="H11" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="52">
         <f>$L11*POWER(G11, $M11)</f>
         <v/>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="52">
         <f>$L11*POWER(H11, $M11)</f>
         <v/>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="52">
         <f>$L11*(POWER(H11,$M11+1)-POWER($G11,$M11+1))/($M11+1)/($H11-$G11)</f>
         <v/>
       </c>
@@ -2624,8 +2628,9 @@
         <f t="array" ref="Q11">INT(SUMPRODUCT(($D$4:$D$99=$D11)*($F$4:$F$99=$F11),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D11)*($F$4:$F$99=$F11),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R11" s="9" t="n">
-        <v>0.5</v>
+      <c r="R11" s="12">
+        <f t="array" ref="R11">INT(SUMPRODUCT(($D$4:$D$99=$D11)*($F$4:$F$99=$F11),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D11)*($F$4:$F$99=$F11),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S11" s="12" t="n"/>
       <c r="T11" s="10" t="n"/>
@@ -2638,7 +2643,7 @@
         <v/>
       </c>
       <c r="W11" s="12" t="n">
-        <v>888</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" s="48">
@@ -2673,15 +2678,15 @@
       <c r="H12" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="52">
         <f>$L12*POWER(G12, $M12)</f>
         <v/>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="52">
         <f>$L12*POWER(H12, $M12)</f>
         <v/>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="52">
         <f>$L12*(POWER(H12,$M12+1)-POWER($G12,$M12+1))/($M12+1)/($H12-$G12)</f>
         <v/>
       </c>
@@ -2707,8 +2712,9 @@
         <f t="array" ref="Q12">INT(SUMPRODUCT(($D$4:$D$99=$D12)*($F$4:$F$99=$F12),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D12)*($F$4:$F$99=$F12),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R12" s="9" t="n">
-        <v>0.6</v>
+      <c r="R12" s="12">
+        <f t="array" ref="R12">INT(SUMPRODUCT(($D$4:$D$99=$D12)*($F$4:$F$99=$F12),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D12)*($F$4:$F$99=$F12),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S12" s="12" t="n"/>
       <c r="T12" s="10" t="n"/>
@@ -2721,7 +2727,7 @@
         <v/>
       </c>
       <c r="W12" s="12" t="n">
-        <v>592</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" s="48">
@@ -2756,15 +2762,15 @@
       <c r="H13" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="52">
         <f>$L13*POWER(G13, $M13)</f>
         <v/>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="52">
         <f>$L13*POWER(H13, $M13)</f>
         <v/>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="52">
         <f>$L13*(POWER(H13,$M13+1)-POWER($G13,$M13+1))/($M13+1)/($H13-$G13)</f>
         <v/>
       </c>
@@ -2790,8 +2796,9 @@
         <f t="array" ref="Q13">INT(SUMPRODUCT(($D$4:$D$99=$D13)*($F$4:$F$99=$F13),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D13)*($F$4:$F$99=$F13),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R13" s="9" t="n">
-        <v>0.6</v>
+      <c r="R13" s="12">
+        <f t="array" ref="R13">INT(SUMPRODUCT(($D$4:$D$99=$D13)*($F$4:$F$99=$F13),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D13)*($F$4:$F$99=$F13),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S13" s="12" t="n"/>
       <c r="T13" s="10" t="n"/>
@@ -2804,7 +2811,7 @@
         <v/>
       </c>
       <c r="W13" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" s="48">
@@ -2839,15 +2846,15 @@
       <c r="H14" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="52">
         <f>$L14*POWER(G14, $M14)</f>
         <v/>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="52">
         <f>$L14*POWER(H14, $M14)</f>
         <v/>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="52">
         <f>$L14*(POWER(H14,$M14+1)-POWER($G14,$M14+1))/($M14+1)/($H14-$G14)</f>
         <v/>
       </c>
@@ -2873,8 +2880,9 @@
         <f t="array" ref="Q14">INT(SUMPRODUCT(($D$4:$D$99=$D14)*($F$4:$F$99=$F14),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D14)*($F$4:$F$99=$F14),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R14" s="9" t="n">
-        <v>0.6</v>
+      <c r="R14" s="12">
+        <f t="array" ref="R14">INT(SUMPRODUCT(($D$4:$D$99=$D14)*($F$4:$F$99=$F14),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D14)*($F$4:$F$99=$F14),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S14" s="12" t="n"/>
       <c r="T14" s="10" t="n"/>
@@ -2887,7 +2895,7 @@
         <v/>
       </c>
       <c r="W14" s="12" t="n">
-        <v>888</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" s="48">
@@ -2922,15 +2930,15 @@
       <c r="H15" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="52">
         <f>$L15*POWER(G15, $M15)</f>
         <v/>
       </c>
-      <c r="J15" s="51">
+      <c r="J15" s="52">
         <f>$L15*POWER(H15, $M15)</f>
         <v/>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="52">
         <f>$L15*(POWER(H15,$M15+1)-POWER($G15,$M15+1))/($M15+1)/($H15-$G15)</f>
         <v/>
       </c>
@@ -2956,8 +2964,9 @@
         <f t="array" ref="Q15">INT(SUMPRODUCT(($D$4:$D$99=$D15)*($F$4:$F$99=$F15),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D15)*($F$4:$F$99=$F15),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R15" s="9" t="n">
-        <v>0.6</v>
+      <c r="R15" s="12">
+        <f t="array" ref="R15">INT(SUMPRODUCT(($D$4:$D$99=$D15)*($F$4:$F$99=$F15),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D15)*($F$4:$F$99=$F15),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S15" s="12" t="n"/>
       <c r="T15" s="10" t="n"/>
@@ -2970,7 +2979,7 @@
         <v/>
       </c>
       <c r="W15" s="12" t="n">
-        <v>444</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" s="48">
@@ -3005,15 +3014,15 @@
       <c r="H16" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="52">
         <f>$L16*POWER(G16, $M16)</f>
         <v/>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="52">
         <f>$L16*POWER(H16, $M16)</f>
         <v/>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="52">
         <f>$L16*(POWER(H16,$M16+1)-POWER($G16,$M16+1))/($M16+1)/($H16-$G16)</f>
         <v/>
       </c>
@@ -3039,8 +3048,9 @@
         <f t="array" ref="Q16">INT(SUMPRODUCT(($D$4:$D$99=$D16)*($F$4:$F$99=$F16),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D16)*($F$4:$F$99=$F16),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R16" s="9" t="n">
-        <v>0.6</v>
+      <c r="R16" s="12">
+        <f t="array" ref="R16">INT(SUMPRODUCT(($D$4:$D$99=$D16)*($F$4:$F$99=$F16),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D16)*($F$4:$F$99=$F16),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S16" s="12" t="n"/>
       <c r="T16" s="10" t="n"/>
@@ -3053,7 +3063,7 @@
         <v/>
       </c>
       <c r="W16" s="12" t="n">
-        <v>555</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" s="48">
@@ -3088,15 +3098,15 @@
       <c r="H17" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="52">
         <f>$L17*POWER(G17, $M17)</f>
         <v/>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="52">
         <f>$L17*POWER(H17, $M17)</f>
         <v/>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="52">
         <f>$L17*(POWER(H17,$M17+1)-POWER($G17,$M17+1))/($M17+1)/($H17-$G17)</f>
         <v/>
       </c>
@@ -3122,8 +3132,9 @@
         <f t="array" ref="Q17">INT(SUMPRODUCT(($D$4:$D$99=$D17)*($F$4:$F$99=$F17),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D17)*($F$4:$F$99=$F17),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R17" s="9" t="n">
-        <v>0.6</v>
+      <c r="R17" s="12">
+        <f t="array" ref="R17">INT(SUMPRODUCT(($D$4:$D$99=$D17)*($F$4:$F$99=$F17),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D17)*($F$4:$F$99=$F17),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S17" s="12" t="n"/>
       <c r="T17" s="10" t="n"/>
@@ -3136,7 +3147,7 @@
         <v/>
       </c>
       <c r="W17" s="12" t="n">
-        <v>629</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" s="48">
@@ -3171,15 +3182,15 @@
       <c r="H18" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="52">
         <f>$L18*POWER(G18, $M18)</f>
         <v/>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="52">
         <f>$L18*POWER(H18, $M18)</f>
         <v/>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="52">
         <f>$L18*(POWER(H18,$M18+1)-POWER($G18,$M18+1))/($M18+1)/($H18-$G18)</f>
         <v/>
       </c>
@@ -3205,8 +3216,9 @@
         <f t="array" ref="Q18">INT(SUMPRODUCT(($D$4:$D$99=$D18)*($F$4:$F$99=$F18),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D18)*($F$4:$F$99=$F18),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R18" s="9" t="n">
-        <v>0.6</v>
+      <c r="R18" s="12">
+        <f t="array" ref="R18">INT(SUMPRODUCT(($D$4:$D$99=$D18)*($F$4:$F$99=$F18),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D18)*($F$4:$F$99=$F18),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S18" s="12" t="n"/>
       <c r="T18" s="10" t="n"/>
@@ -3219,7 +3231,7 @@
         <v/>
       </c>
       <c r="W18" s="12" t="n">
-        <v>1332</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" s="48">
@@ -3254,15 +3266,15 @@
       <c r="H19" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="52">
         <f>$L19*POWER(G19, $M19)</f>
         <v/>
       </c>
-      <c r="J19" s="51">
+      <c r="J19" s="52">
         <f>$L19*POWER(H19, $M19)</f>
         <v/>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="52">
         <f>$L19*(POWER(H19,$M19+1)-POWER($G19,$M19+1))/($M19+1)/($H19-$G19)</f>
         <v/>
       </c>
@@ -3288,8 +3300,9 @@
         <f t="array" ref="Q19">INT(SUMPRODUCT(($D$4:$D$99=$D19)*($F$4:$F$99=$F19),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D19)*($F$4:$F$99=$F19),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R19" s="9" t="n">
-        <v>0.6</v>
+      <c r="R19" s="12">
+        <f t="array" ref="R19">INT(SUMPRODUCT(($D$4:$D$99=$D19)*($F$4:$F$99=$F19),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D19)*($F$4:$F$99=$F19),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S19" s="12" t="n"/>
       <c r="T19" s="10" t="n"/>
@@ -3302,7 +3315,7 @@
         <v/>
       </c>
       <c r="W19" s="12" t="n">
-        <v>1628</v>
+        <v>924</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" s="48">
@@ -3337,15 +3350,15 @@
       <c r="H20" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="52">
         <f>$L20*POWER(G20, $M20)</f>
         <v/>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="52">
         <f>$L20*POWER(H20, $M20)</f>
         <v/>
       </c>
-      <c r="K20" s="51">
+      <c r="K20" s="52">
         <f>$L20*(POWER(H20,$M20+1)-POWER($G20,$M20+1))/($M20+1)/($H20-$G20)</f>
         <v/>
       </c>
@@ -3371,8 +3384,9 @@
         <f t="array" ref="Q20">INT(SUMPRODUCT(($D$4:$D$99=$D20)*($F$4:$F$99=$F20),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D20)*($F$4:$F$99=$F20),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R20" s="9" t="n">
-        <v>0.6</v>
+      <c r="R20" s="12">
+        <f t="array" ref="R20">INT(SUMPRODUCT(($D$4:$D$99=$D20)*($F$4:$F$99=$F20),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D20)*($F$4:$F$99=$F20),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S20" s="12" t="n"/>
       <c r="T20" s="10" t="n"/>
@@ -3385,7 +3399,7 @@
         <v/>
       </c>
       <c r="W20" s="12" t="n">
-        <v>1776</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" s="48">
@@ -3420,15 +3434,15 @@
       <c r="H21" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="52">
         <f>$L21*POWER(G21, $M21)</f>
         <v/>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="52">
         <f>$L21*POWER(H21, $M21)</f>
         <v/>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="52">
         <f>$L21*(POWER(H21,$M21+1)-POWER($G21,$M21+1))/($M21+1)/($H21-$G21)</f>
         <v/>
       </c>
@@ -3454,8 +3468,9 @@
         <f t="array" ref="Q21">INT(SUMPRODUCT(($D$4:$D$99=$D21)*($F$4:$F$99=$F21),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D21)*($F$4:$F$99=$F21),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R21" s="9" t="n">
-        <v>0.6</v>
+      <c r="R21" s="12">
+        <f t="array" ref="R21">INT(SUMPRODUCT(($D$4:$D$99=$D21)*($F$4:$F$99=$F21),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D21)*($F$4:$F$99=$F21),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S21" s="12" t="n"/>
       <c r="T21" s="10" t="n"/>
@@ -3468,7 +3483,7 @@
         <v/>
       </c>
       <c r="W21" s="12" t="n">
-        <v>1998</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" s="48">
@@ -3503,15 +3518,15 @@
       <c r="H22" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="52">
         <f>$L22*POWER(G22, $M22)</f>
         <v/>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="52">
         <f>$L22*POWER(H22, $M22)</f>
         <v/>
       </c>
-      <c r="K22" s="51">
+      <c r="K22" s="52">
         <f>$L22*(POWER(H22,$M22+1)-POWER($G22,$M22+1))/($M22+1)/($H22-$G22)</f>
         <v/>
       </c>
@@ -3537,8 +3552,9 @@
         <f t="array" ref="Q22">INT(SUMPRODUCT(($D$4:$D$99=$D22)*($F$4:$F$99=$F22),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D22)*($F$4:$F$99=$F22),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R22" s="9" t="n">
-        <v>0.6</v>
+      <c r="R22" s="12">
+        <f t="array" ref="R22">INT(SUMPRODUCT(($D$4:$D$99=$D22)*($F$4:$F$99=$F22),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D22)*($F$4:$F$99=$F22),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S22" s="12" t="n"/>
       <c r="T22" s="10" t="n"/>
@@ -3551,7 +3567,12 @@
         <v/>
       </c>
       <c r="W22" s="12" t="n">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>考虑：玩家有可能认为白亚口鱼明显好于水牛鱼系列？</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" s="48">
@@ -3586,15 +3607,15 @@
       <c r="H23" s="9" t="n">
         <v>81</v>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="52">
         <f>$L23*POWER(G23, $M23)</f>
         <v/>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="52">
         <f>$L23*POWER(H23, $M23)</f>
         <v/>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="52">
         <f>$L23*(POWER(H23,$M23+1)-POWER($G23,$M23+1))/($M23+1)/($H23-$G23)</f>
         <v/>
       </c>
@@ -3620,8 +3641,9 @@
         <f t="array" ref="Q23">INT(SUMPRODUCT(($D$4:$D$99=$D23)*($F$4:$F$99=$F23),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D23)*($F$4:$F$99=$F23),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R23" s="9" t="n">
-        <v>0.6</v>
+      <c r="R23" s="12">
+        <f t="array" ref="R23">INT(SUMPRODUCT(($D$4:$D$99=$D23)*($F$4:$F$99=$F23),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D23)*($F$4:$F$99=$F23),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S23" s="12" t="n"/>
       <c r="T23" s="10" t="n"/>
@@ -3634,7 +3656,7 @@
         <v/>
       </c>
       <c r="W23" s="12" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" s="48">
@@ -3669,15 +3691,15 @@
       <c r="H24" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="I24" s="51">
+      <c r="I24" s="52">
         <f>$L24*POWER(G24, $M24)</f>
         <v/>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="52">
         <f>$L24*POWER(H24, $M24)</f>
         <v/>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="52">
         <f>$L24*(POWER(H24,$M24+1)-POWER($G24,$M24+1))/($M24+1)/($H24-$G24)</f>
         <v/>
       </c>
@@ -3703,8 +3725,9 @@
         <f t="array" ref="Q24">INT(SUMPRODUCT(($D$4:$D$99=$D24)*($F$4:$F$99=$F24),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D24)*($F$4:$F$99=$F24),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R24" s="9" t="n">
-        <v>0.6</v>
+      <c r="R24" s="12">
+        <f t="array" ref="R24">INT(SUMPRODUCT(($D$4:$D$99=$D24)*($F$4:$F$99=$F24),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D24)*($F$4:$F$99=$F24),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S24" s="12" t="n"/>
       <c r="T24" s="10" t="n"/>
@@ -3717,7 +3740,7 @@
         <v/>
       </c>
       <c r="W24" s="12" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" s="48">
@@ -3752,15 +3775,15 @@
       <c r="H25" s="9" t="n">
         <v>113</v>
       </c>
-      <c r="I25" s="51">
+      <c r="I25" s="52">
         <f>$L25*POWER(G25, $M25)</f>
         <v/>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="52">
         <f>$L25*POWER(H25, $M25)</f>
         <v/>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="52">
         <f>$L25*(POWER(H25,$M25+1)-POWER($G25,$M25+1))/($M25+1)/($H25-$G25)</f>
         <v/>
       </c>
@@ -3786,8 +3809,9 @@
         <f t="array" ref="Q25">INT(SUMPRODUCT(($D$4:$D$99=$D25)*($F$4:$F$99=$F25),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D25)*($F$4:$F$99=$F25),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R25" s="9" t="n">
-        <v>0.6</v>
+      <c r="R25" s="12">
+        <f t="array" ref="R25">INT(SUMPRODUCT(($D$4:$D$99=$D25)*($F$4:$F$99=$F25),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D25)*($F$4:$F$99=$F25),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S25" s="12" t="n"/>
       <c r="T25" s="10" t="n"/>
@@ -3800,7 +3824,7 @@
         <v/>
       </c>
       <c r="W25" s="12" t="n">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" s="48">
@@ -3835,15 +3859,15 @@
       <c r="H26" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="I26" s="51">
+      <c r="I26" s="52">
         <f>$L26*POWER(G26, $M26)</f>
         <v/>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="52">
         <f>$L26*POWER(H26, $M26)</f>
         <v/>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="52">
         <f>$L26*(POWER(H26,$M26+1)-POWER($G26,$M26+1))/($M26+1)/($H26-$G26)</f>
         <v/>
       </c>
@@ -3869,8 +3893,9 @@
         <f t="array" ref="Q26">INT(SUMPRODUCT(($D$4:$D$99=$D26)*($F$4:$F$99=$F26),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D26)*($F$4:$F$99=$F26),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R26" s="9" t="n">
-        <v>0.6</v>
+      <c r="R26" s="12">
+        <f t="array" ref="R26">INT(SUMPRODUCT(($D$4:$D$99=$D26)*($F$4:$F$99=$F26),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D26)*($F$4:$F$99=$F26),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S26" s="12" t="n"/>
       <c r="T26" s="10" t="n"/>
@@ -3883,7 +3908,7 @@
         <v/>
       </c>
       <c r="W26" s="12" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" s="48">
@@ -3918,15 +3943,15 @@
       <c r="H27" s="9" t="n">
         <v>92</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="52">
         <f>$L27*POWER(G27, $M27)</f>
         <v/>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="52">
         <f>$L27*POWER(H27, $M27)</f>
         <v/>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="52">
         <f>$L27*(POWER(H27,$M27+1)-POWER($G27,$M27+1))/($M27+1)/($H27-$G27)</f>
         <v/>
       </c>
@@ -3952,8 +3977,9 @@
         <f t="array" ref="Q27">INT(SUMPRODUCT(($D$4:$D$99=$D27)*($F$4:$F$99=$F27),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D27)*($F$4:$F$99=$F27),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R27" s="9" t="n">
-        <v>0.6</v>
+      <c r="R27" s="12">
+        <f t="array" ref="R27">INT(SUMPRODUCT(($D$4:$D$99=$D27)*($F$4:$F$99=$F27),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D27)*($F$4:$F$99=$F27),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S27" s="12" t="n"/>
       <c r="T27" s="10" t="n"/>
@@ -3966,7 +3992,7 @@
         <v/>
       </c>
       <c r="W27" s="12" t="n">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" s="48">
@@ -4001,15 +4027,15 @@
       <c r="H28" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="52">
         <f>$L28*POWER(G28, $M28)</f>
         <v/>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="52">
         <f>$L28*POWER(H28, $M28)</f>
         <v/>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="52">
         <f>$L28*(POWER(H28,$M28+1)-POWER($G28,$M28+1))/($M28+1)/($H28-$G28)</f>
         <v/>
       </c>
@@ -4035,8 +4061,9 @@
         <f t="array" ref="Q28">INT(SUMPRODUCT(($D$4:$D$99=$D28)*($F$4:$F$99=$F28),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D28)*($F$4:$F$99=$F28),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R28" s="9" t="n">
-        <v>0.6</v>
+      <c r="R28" s="12">
+        <f t="array" ref="R28">INT(SUMPRODUCT(($D$4:$D$99=$D28)*($F$4:$F$99=$F28),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D28)*($F$4:$F$99=$F28),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S28" s="12" t="n"/>
       <c r="T28" s="10" t="n"/>
@@ -4049,7 +4076,7 @@
         <v/>
       </c>
       <c r="W28" s="12" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" s="48">
@@ -4084,15 +4111,15 @@
       <c r="H29" s="9" t="n">
         <v>127</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="52">
         <f>$L29*POWER(G29, $M29)</f>
         <v/>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="52">
         <f>$L29*POWER(H29, $M29)</f>
         <v/>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="52">
         <f>$L29*(POWER(H29,$M29+1)-POWER($G29,$M29+1))/($M29+1)/($H29-$G29)</f>
         <v/>
       </c>
@@ -4118,8 +4145,9 @@
         <f t="array" ref="Q29">INT(SUMPRODUCT(($D$4:$D$99=$D29)*($F$4:$F$99=$F29),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D29)*($F$4:$F$99=$F29),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R29" s="9" t="n">
-        <v>0.6</v>
+      <c r="R29" s="12">
+        <f t="array" ref="R29">INT(SUMPRODUCT(($D$4:$D$99=$D29)*($F$4:$F$99=$F29),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D29)*($F$4:$F$99=$F29),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S29" s="12" t="n"/>
       <c r="T29" s="10" t="n"/>
@@ -4132,7 +4160,7 @@
         <v/>
       </c>
       <c r="W29" s="12" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" s="48">
@@ -4167,15 +4195,15 @@
       <c r="H30" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="52">
         <f>$L30*POWER(G30, $M30)</f>
         <v/>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="52">
         <f>$L30*POWER(H30, $M30)</f>
         <v/>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="52">
         <f>$L30*(POWER(H30,$M30+1)-POWER($G30,$M30+1))/($M30+1)/($H30-$G30)</f>
         <v/>
       </c>
@@ -4201,8 +4229,9 @@
         <f t="array" ref="Q30">INT(SUMPRODUCT(($D$4:$D$99=$D30)*($F$4:$F$99=$F30),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D30)*($F$4:$F$99=$F30),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R30" s="9" t="n">
-        <v>0.6</v>
+      <c r="R30" s="12">
+        <f t="array" ref="R30">INT(SUMPRODUCT(($D$4:$D$99=$D30)*($F$4:$F$99=$F30),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D30)*($F$4:$F$99=$F30),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S30" s="12" t="n"/>
       <c r="T30" s="10" t="n"/>
@@ -4215,7 +4244,12 @@
         <v/>
       </c>
       <c r="W30" s="12" t="n">
-        <v>1184</v>
+        <v>672</v>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>丁鱥稍微偏小了一些</t>
+        </is>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" s="48">
@@ -4250,15 +4284,15 @@
       <c r="H31" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="52">
         <f>$L31*POWER(G31, $M31)</f>
         <v/>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="52">
         <f>$L31*POWER(H31, $M31)</f>
         <v/>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="52">
         <f>$L31*(POWER(H31,$M31+1)-POWER($G31,$M31+1))/($M31+1)/($H31-$G31)</f>
         <v/>
       </c>
@@ -4284,8 +4318,9 @@
         <f t="array" ref="Q31">INT(SUMPRODUCT(($D$4:$D$99=$D31)*($F$4:$F$99=$F31),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D31)*($F$4:$F$99=$F31),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R31" s="9" t="n">
-        <v>0.6</v>
+      <c r="R31" s="12">
+        <f t="array" ref="R31">INT(SUMPRODUCT(($D$4:$D$99=$D31)*($F$4:$F$99=$F31),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D31)*($F$4:$F$99=$F31),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S31" s="12" t="n"/>
       <c r="T31" s="10" t="n"/>
@@ -4298,7 +4333,7 @@
         <v/>
       </c>
       <c r="W31" s="12" t="n">
-        <v>1258</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" s="48">
@@ -4333,15 +4368,15 @@
       <c r="H32" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="52">
         <f>$L32*POWER(G32, $M32)</f>
         <v/>
       </c>
-      <c r="J32" s="51">
+      <c r="J32" s="52">
         <f>$L32*POWER(H32, $M32)</f>
         <v/>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="52">
         <f>$L32*(POWER(H32,$M32+1)-POWER($G32,$M32+1))/($M32+1)/($H32-$G32)</f>
         <v/>
       </c>
@@ -4367,8 +4402,9 @@
         <f t="array" ref="Q32">INT(SUMPRODUCT(($D$4:$D$99=$D32)*($F$4:$F$99=$F32),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D32)*($F$4:$F$99=$F32),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R32" s="9" t="n">
-        <v>0.6</v>
+      <c r="R32" s="12">
+        <f t="array" ref="R32">INT(SUMPRODUCT(($D$4:$D$99=$D32)*($F$4:$F$99=$F32),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D32)*($F$4:$F$99=$F32),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S32" s="12" t="n"/>
       <c r="T32" s="10" t="n"/>
@@ -4381,7 +4417,7 @@
         <v/>
       </c>
       <c r="W32" s="12" t="n">
-        <v>1332</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="48">
@@ -4416,15 +4452,15 @@
       <c r="H33" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="52">
         <f>$L33*POWER(G33, $M33)</f>
         <v/>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="52">
         <f>$L33*POWER(H33, $M33)</f>
         <v/>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="52">
         <f>$L33*(POWER(H33,$M33+1)-POWER($G33,$M33+1))/($M33+1)/($H33-$G33)</f>
         <v/>
       </c>
@@ -4450,8 +4486,9 @@
         <f t="array" ref="Q33">INT(SUMPRODUCT(($D$4:$D$99=$D33)*($F$4:$F$99=$F33),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D33)*($F$4:$F$99=$F33),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R33" s="9" t="n">
-        <v>0.6</v>
+      <c r="R33" s="12">
+        <f t="array" ref="R33">INT(SUMPRODUCT(($D$4:$D$99=$D33)*($F$4:$F$99=$F33),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D33)*($F$4:$F$99=$F33),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S33" s="12" t="n"/>
       <c r="T33" s="10" t="n"/>
@@ -4464,7 +4501,7 @@
         <v/>
       </c>
       <c r="W33" s="12" t="n">
-        <v>1406</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" s="48">
@@ -4499,15 +4536,15 @@
       <c r="H34" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="52">
         <f>$L34*POWER(G34, $M34)</f>
         <v/>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="52">
         <f>$L34*POWER(H34, $M34)</f>
         <v/>
       </c>
-      <c r="K34" s="51">
+      <c r="K34" s="52">
         <f>$L34*(POWER(H34,$M34+1)-POWER($G34,$M34+1))/($M34+1)/($H34-$G34)</f>
         <v/>
       </c>
@@ -4533,8 +4570,9 @@
         <f t="array" ref="Q34">INT(SUMPRODUCT(($D$4:$D$99=$D34)*($F$4:$F$99=$F34),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D34)*($F$4:$F$99=$F34),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R34" s="9" t="n">
-        <v>0.6</v>
+      <c r="R34" s="12">
+        <f t="array" ref="R34">INT(SUMPRODUCT(($D$4:$D$99=$D34)*($F$4:$F$99=$F34),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D34)*($F$4:$F$99=$F34),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S34" s="12" t="n"/>
       <c r="T34" s="10" t="n"/>
@@ -4547,7 +4585,7 @@
         <v/>
       </c>
       <c r="W34" s="12" t="n">
-        <v>1480</v>
+        <v>840</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" s="48">
@@ -4582,15 +4620,15 @@
       <c r="H35" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="52">
         <f>$L35*POWER(G35, $M35)</f>
         <v/>
       </c>
-      <c r="J35" s="51">
+      <c r="J35" s="52">
         <f>$L35*POWER(H35, $M35)</f>
         <v/>
       </c>
-      <c r="K35" s="51">
+      <c r="K35" s="52">
         <f>$L35*(POWER(H35,$M35+1)-POWER($G35,$M35+1))/($M35+1)/($H35-$G35)</f>
         <v/>
       </c>
@@ -4616,8 +4654,9 @@
         <f t="array" ref="Q35">INT(SUMPRODUCT(($D$4:$D$99=$D35)*($F$4:$F$99=$F35),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D35)*($F$4:$F$99=$F35),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R35" s="9" t="n">
-        <v>0.6</v>
+      <c r="R35" s="12">
+        <f t="array" ref="R35">INT(SUMPRODUCT(($D$4:$D$99=$D35)*($F$4:$F$99=$F35),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D35)*($F$4:$F$99=$F35),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S35" s="12" t="n"/>
       <c r="T35" s="10" t="n"/>
@@ -4630,7 +4669,7 @@
         <v/>
       </c>
       <c r="W35" s="12" t="n">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" s="48">
@@ -4665,15 +4704,15 @@
       <c r="H36" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="I36" s="51">
+      <c r="I36" s="52">
         <f>$L36*POWER(G36, $M36)</f>
         <v/>
       </c>
-      <c r="J36" s="51">
+      <c r="J36" s="52">
         <f>$L36*POWER(H36, $M36)</f>
         <v/>
       </c>
-      <c r="K36" s="51">
+      <c r="K36" s="52">
         <f>$L36*(POWER(H36,$M36+1)-POWER($G36,$M36+1))/($M36+1)/($H36-$G36)</f>
         <v/>
       </c>
@@ -4699,8 +4738,9 @@
         <f t="array" ref="Q36">INT(SUMPRODUCT(($D$4:$D$99=$D36)*($F$4:$F$99=$F36),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D36)*($F$4:$F$99=$F36),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R36" s="9" t="n">
-        <v>0.6</v>
+      <c r="R36" s="12">
+        <f t="array" ref="R36">INT(SUMPRODUCT(($D$4:$D$99=$D36)*($F$4:$F$99=$F36),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D36)*($F$4:$F$99=$F36),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S36" s="12" t="n"/>
       <c r="T36" s="10" t="n"/>
@@ -4713,7 +4753,7 @@
         <v/>
       </c>
       <c r="W36" s="12" t="n">
-        <v>222</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" s="48">
@@ -4748,15 +4788,15 @@
       <c r="H37" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="I37" s="51">
+      <c r="I37" s="52">
         <f>$L37*POWER(G37, $M37)</f>
         <v/>
       </c>
-      <c r="J37" s="51">
+      <c r="J37" s="52">
         <f>$L37*POWER(H37, $M37)</f>
         <v/>
       </c>
-      <c r="K37" s="51">
+      <c r="K37" s="52">
         <f>$L37*(POWER(H37,$M37+1)-POWER($G37,$M37+1))/($M37+1)/($H37-$G37)</f>
         <v/>
       </c>
@@ -4782,8 +4822,9 @@
         <f t="array" ref="Q37">INT(SUMPRODUCT(($D$4:$D$99=$D37)*($F$4:$F$99=$F37),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D37)*($F$4:$F$99=$F37),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R37" s="9" t="n">
-        <v>0.6</v>
+      <c r="R37" s="12">
+        <f t="array" ref="R37">INT(SUMPRODUCT(($D$4:$D$99=$D37)*($F$4:$F$99=$F37),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D37)*($F$4:$F$99=$F37),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S37" s="12" t="n"/>
       <c r="T37" s="10" t="n"/>
@@ -4796,7 +4837,7 @@
         <v/>
       </c>
       <c r="W37" s="12" t="n">
-        <v>236</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" s="48">
@@ -4831,15 +4872,15 @@
       <c r="H38" s="9" t="n">
         <v>120</v>
       </c>
-      <c r="I38" s="51">
+      <c r="I38" s="52">
         <f>$L38*POWER(G38, $M38)</f>
         <v/>
       </c>
-      <c r="J38" s="51">
+      <c r="J38" s="52">
         <f>$L38*POWER(H38, $M38)</f>
         <v/>
       </c>
-      <c r="K38" s="51">
+      <c r="K38" s="52">
         <f>$L38*(POWER(H38,$M38+1)-POWER($G38,$M38+1))/($M38+1)/($H38-$G38)</f>
         <v/>
       </c>
@@ -4865,8 +4906,9 @@
         <f t="array" ref="Q38">INT(SUMPRODUCT(($D$4:$D$99=$D38)*($F$4:$F$99=$F38),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D38)*($F$4:$F$99=$F38),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R38" s="9" t="n">
-        <v>0.6</v>
+      <c r="R38" s="12">
+        <f t="array" ref="R38">INT(SUMPRODUCT(($D$4:$D$99=$D38)*($F$4:$F$99=$F38),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D38)*($F$4:$F$99=$F38),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S38" s="12" t="n"/>
       <c r="T38" s="10" t="n"/>
@@ -4879,7 +4921,7 @@
         <v/>
       </c>
       <c r="W38" s="12" t="n">
-        <v>259</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" s="48">
@@ -4914,15 +4956,15 @@
       <c r="H39" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="I39" s="51">
+      <c r="I39" s="52">
         <f>$L39*POWER(G39, $M39)</f>
         <v/>
       </c>
-      <c r="J39" s="51">
+      <c r="J39" s="52">
         <f>$L39*POWER(H39, $M39)</f>
         <v/>
       </c>
-      <c r="K39" s="51">
+      <c r="K39" s="52">
         <f>$L39*(POWER(H39,$M39+1)-POWER($G39,$M39+1))/($M39+1)/($H39-$G39)</f>
         <v/>
       </c>
@@ -4948,8 +4990,9 @@
         <f t="array" ref="Q39">INT(SUMPRODUCT(($D$4:$D$99=$D39)*($F$4:$F$99=$F39),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D39)*($F$4:$F$99=$F39),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R39" s="9" t="n">
-        <v>0.6</v>
+      <c r="R39" s="12">
+        <f t="array" ref="R39">INT(SUMPRODUCT(($D$4:$D$99=$D39)*($F$4:$F$99=$F39),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D39)*($F$4:$F$99=$F39),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S39" s="12" t="n"/>
       <c r="T39" s="10" t="n"/>
@@ -4962,7 +5005,7 @@
         <v/>
       </c>
       <c r="W39" s="12" t="n">
-        <v>296</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" s="48">
@@ -4997,15 +5040,15 @@
       <c r="H40" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="I40" s="51">
+      <c r="I40" s="52">
         <f>$L40*POWER(G40, $M40)</f>
         <v/>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="52">
         <f>$L40*POWER(H40, $M40)</f>
         <v/>
       </c>
-      <c r="K40" s="51">
+      <c r="K40" s="52">
         <f>$L40*(POWER(H40,$M40+1)-POWER($G40,$M40+1))/($M40+1)/($H40-$G40)</f>
         <v/>
       </c>
@@ -5031,8 +5074,9 @@
         <f t="array" ref="Q40">INT(SUMPRODUCT(($D$4:$D$99=$D40)*($F$4:$F$99=$F40),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D40)*($F$4:$F$99=$F40),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R40" s="9" t="n">
-        <v>1.6</v>
+      <c r="R40" s="12">
+        <f t="array" ref="R40">INT(SUMPRODUCT(($D$4:$D$99=$D40)*($F$4:$F$99=$F40),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D40)*($F$4:$F$99=$F40),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S40" s="12" t="n"/>
       <c r="T40" s="10" t="n"/>
@@ -5045,7 +5089,7 @@
         <v/>
       </c>
       <c r="W40" s="12" t="n">
-        <v>1850</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" s="48">
@@ -5080,15 +5124,15 @@
       <c r="H41" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="I41" s="51">
+      <c r="I41" s="52">
         <f>$L41*POWER(G41, $M41)</f>
         <v/>
       </c>
-      <c r="J41" s="51">
+      <c r="J41" s="52">
         <f>$L41*POWER(H41, $M41)</f>
         <v/>
       </c>
-      <c r="K41" s="51">
+      <c r="K41" s="52">
         <f>$L41*(POWER(H41,$M41+1)-POWER($G41,$M41+1))/($M41+1)/($H41-$G41)</f>
         <v/>
       </c>
@@ -5114,8 +5158,9 @@
         <f t="array" ref="Q41">INT(SUMPRODUCT(($D$4:$D$99=$D41)*($F$4:$F$99=$F41),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D41)*($F$4:$F$99=$F41),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R41" s="9" t="n">
-        <v>2.6</v>
+      <c r="R41" s="12">
+        <f t="array" ref="R41">INT(SUMPRODUCT(($D$4:$D$99=$D41)*($F$4:$F$99=$F41),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D41)*($F$4:$F$99=$F41),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S41" s="12" t="n"/>
       <c r="T41" s="10" t="n"/>
@@ -5128,7 +5173,7 @@
         <v/>
       </c>
       <c r="W41" s="12" t="n">
-        <v>2590</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" s="48">
@@ -5163,15 +5208,15 @@
       <c r="H42" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="I42" s="51">
+      <c r="I42" s="52">
         <f>$L42*POWER(G42, $M42)</f>
         <v/>
       </c>
-      <c r="J42" s="51">
+      <c r="J42" s="52">
         <f>$L42*POWER(H42, $M42)</f>
         <v/>
       </c>
-      <c r="K42" s="51">
+      <c r="K42" s="52">
         <f>$L42*(POWER(H42,$M42+1)-POWER($G42,$M42+1))/($M42+1)/($H42-$G42)</f>
         <v/>
       </c>
@@ -5197,8 +5242,9 @@
         <f t="array" ref="Q42">INT(SUMPRODUCT(($D$4:$D$99=$D42)*($F$4:$F$99=$F42),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D42)*($F$4:$F$99=$F42),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R42" s="9" t="n">
-        <v>3.6</v>
+      <c r="R42" s="12">
+        <f t="array" ref="R42">INT(SUMPRODUCT(($D$4:$D$99=$D42)*($F$4:$F$99=$F42),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D42)*($F$4:$F$99=$F42),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S42" s="12" t="n"/>
       <c r="T42" s="10" t="n"/>
@@ -5211,7 +5257,7 @@
         <v/>
       </c>
       <c r="W42" s="12" t="n">
-        <v>592</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" s="48">
@@ -5246,15 +5292,15 @@
       <c r="H43" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="I43" s="51">
+      <c r="I43" s="52">
         <f>$L43*POWER(G43, $M43)</f>
         <v/>
       </c>
-      <c r="J43" s="51">
+      <c r="J43" s="52">
         <f>$L43*POWER(H43, $M43)</f>
         <v/>
       </c>
-      <c r="K43" s="51">
+      <c r="K43" s="52">
         <f>$L43*(POWER(H43,$M43+1)-POWER($G43,$M43+1))/($M43+1)/($H43-$G43)</f>
         <v/>
       </c>
@@ -5280,8 +5326,9 @@
         <f t="array" ref="Q43">INT(SUMPRODUCT(($D$4:$D$99=$D43)*($F$4:$F$99=$F43),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D43)*($F$4:$F$99=$F43),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R43" s="9" t="n">
-        <v>4.6</v>
+      <c r="R43" s="12">
+        <f t="array" ref="R43">INT(SUMPRODUCT(($D$4:$D$99=$D43)*($F$4:$F$99=$F43),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D43)*($F$4:$F$99=$F43),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S43" s="12" t="n"/>
       <c r="T43" s="10" t="n"/>
@@ -5294,7 +5341,7 @@
         <v/>
       </c>
       <c r="W43" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" s="48">
@@ -5329,15 +5376,15 @@
       <c r="H44" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="I44" s="51">
+      <c r="I44" s="52">
         <f>$L44*POWER(G44, $M44)</f>
         <v/>
       </c>
-      <c r="J44" s="51">
+      <c r="J44" s="52">
         <f>$L44*POWER(H44, $M44)</f>
         <v/>
       </c>
-      <c r="K44" s="51">
+      <c r="K44" s="52">
         <f>$L44*(POWER(H44,$M44+1)-POWER($G44,$M44+1))/($M44+1)/($H44-$G44)</f>
         <v/>
       </c>
@@ -5363,8 +5410,9 @@
         <f t="array" ref="Q44">INT(SUMPRODUCT(($D$4:$D$99=$D44)*($F$4:$F$99=$F44),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D44)*($F$4:$F$99=$F44),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R44" s="9" t="n">
-        <v>5.6</v>
+      <c r="R44" s="12">
+        <f t="array" ref="R44">INT(SUMPRODUCT(($D$4:$D$99=$D44)*($F$4:$F$99=$F44),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D44)*($F$4:$F$99=$F44),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S44" s="12" t="n"/>
       <c r="T44" s="10" t="n"/>
@@ -5377,7 +5425,7 @@
         <v/>
       </c>
       <c r="W44" s="12" t="n">
-        <v>888</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" s="48">
@@ -5412,15 +5460,15 @@
       <c r="H45" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="I45" s="51">
+      <c r="I45" s="52">
         <f>$L45*POWER(G45, $M45)</f>
         <v/>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="52">
         <f>$L45*POWER(H45, $M45)</f>
         <v/>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="52">
         <f>$L45*(POWER(H45,$M45+1)-POWER($G45,$M45+1))/($M45+1)/($H45-$G45)</f>
         <v/>
       </c>
@@ -5446,8 +5494,9 @@
         <f t="array" ref="Q45">INT(SUMPRODUCT(($D$4:$D$99=$D45)*($F$4:$F$99=$F45),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D45)*($F$4:$F$99=$F45),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R45" s="9" t="n">
-        <v>6.6</v>
+      <c r="R45" s="12">
+        <f t="array" ref="R45">INT(SUMPRODUCT(($D$4:$D$99=$D45)*($F$4:$F$99=$F45),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D45)*($F$4:$F$99=$F45),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S45" s="12" t="n"/>
       <c r="T45" s="10" t="n"/>
@@ -5460,7 +5509,7 @@
         <v/>
       </c>
       <c r="W45" s="12" t="n">
-        <v>444</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" s="48">
@@ -5495,15 +5544,15 @@
       <c r="H46" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="I46" s="51">
+      <c r="I46" s="52">
         <f>$L46*POWER(G46, $M46)</f>
         <v/>
       </c>
-      <c r="J46" s="51">
+      <c r="J46" s="52">
         <f>$L46*POWER(H46, $M46)</f>
         <v/>
       </c>
-      <c r="K46" s="51">
+      <c r="K46" s="52">
         <f>$L46*(POWER(H46,$M46+1)-POWER($G46,$M46+1))/($M46+1)/($H46-$G46)</f>
         <v/>
       </c>
@@ -5529,8 +5578,9 @@
         <f t="array" ref="Q46">INT(SUMPRODUCT(($D$4:$D$99=$D46)*($F$4:$F$99=$F46),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D46)*($F$4:$F$99=$F46),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R46" s="9" t="n">
-        <v>7.6</v>
+      <c r="R46" s="12">
+        <f t="array" ref="R46">INT(SUMPRODUCT(($D$4:$D$99=$D46)*($F$4:$F$99=$F46),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D46)*($F$4:$F$99=$F46),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S46" s="12" t="n"/>
       <c r="T46" s="10" t="n"/>
@@ -5543,7 +5593,7 @@
         <v/>
       </c>
       <c r="W46" s="12" t="n">
-        <v>555</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" s="48">
@@ -5578,15 +5628,15 @@
       <c r="H47" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="I47" s="51">
+      <c r="I47" s="52">
         <f>$L47*POWER(G47, $M47)</f>
         <v/>
       </c>
-      <c r="J47" s="51">
+      <c r="J47" s="52">
         <f>$L47*POWER(H47, $M47)</f>
         <v/>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="52">
         <f>$L47*(POWER(H47,$M47+1)-POWER($G47,$M47+1))/($M47+1)/($H47-$G47)</f>
         <v/>
       </c>
@@ -5612,8 +5662,9 @@
         <f t="array" ref="Q47">INT(SUMPRODUCT(($D$4:$D$99=$D47)*($F$4:$F$99=$F47),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D47)*($F$4:$F$99=$F47),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R47" s="9" t="n">
-        <v>8.6</v>
+      <c r="R47" s="12">
+        <f t="array" ref="R47">INT(SUMPRODUCT(($D$4:$D$99=$D47)*($F$4:$F$99=$F47),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D47)*($F$4:$F$99=$F47),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S47" s="12" t="n"/>
       <c r="T47" s="10" t="n"/>
@@ -5626,7 +5677,7 @@
         <v/>
       </c>
       <c r="W47" s="12" t="n">
-        <v>629</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1" s="48">
@@ -5661,15 +5712,15 @@
       <c r="H48" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="I48" s="51">
+      <c r="I48" s="52">
         <f>$L48*POWER(G48, $M48)</f>
         <v/>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="52">
         <f>$L48*POWER(H48, $M48)</f>
         <v/>
       </c>
-      <c r="K48" s="51">
+      <c r="K48" s="52">
         <f>$L48*(POWER(H48,$M48+1)-POWER($G48,$M48+1))/($M48+1)/($H48-$G48)</f>
         <v/>
       </c>
@@ -5695,8 +5746,9 @@
         <f t="array" ref="Q48">INT(SUMPRODUCT(($D$4:$D$99=$D48)*($F$4:$F$99=$F48),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D48)*($F$4:$F$99=$F48),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R48" s="9" t="n">
-        <v>9.6</v>
+      <c r="R48" s="12">
+        <f t="array" ref="R48">INT(SUMPRODUCT(($D$4:$D$99=$D48)*($F$4:$F$99=$F48),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D48)*($F$4:$F$99=$F48),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S48" s="12" t="n"/>
       <c r="T48" s="10" t="n"/>
@@ -5709,7 +5761,7 @@
         <v/>
       </c>
       <c r="W48" s="12" t="n">
-        <v>407</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1" s="48">
@@ -5744,15 +5796,15 @@
       <c r="H49" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="I49" s="51">
+      <c r="I49" s="52">
         <f>$L49*POWER(G49, $M49)</f>
         <v/>
       </c>
-      <c r="J49" s="51">
+      <c r="J49" s="52">
         <f>$L49*POWER(H49, $M49)</f>
         <v/>
       </c>
-      <c r="K49" s="51">
+      <c r="K49" s="52">
         <f>$L49*(POWER(H49,$M49+1)-POWER($G49,$M49+1))/($M49+1)/($H49-$G49)</f>
         <v/>
       </c>
@@ -5778,8 +5830,9 @@
         <f t="array" ref="Q49">INT(SUMPRODUCT(($D$4:$D$99=$D49)*($F$4:$F$99=$F49),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D49)*($F$4:$F$99=$F49),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R49" s="9" t="n">
-        <v>10.6</v>
+      <c r="R49" s="12">
+        <f t="array" ref="R49">INT(SUMPRODUCT(($D$4:$D$99=$D49)*($F$4:$F$99=$F49),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D49)*($F$4:$F$99=$F49),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S49" s="12" t="n"/>
       <c r="T49" s="10" t="n"/>
@@ -5792,7 +5845,7 @@
         <v/>
       </c>
       <c r="W49" s="12" t="n">
-        <v>444</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1" s="48">
@@ -5827,15 +5880,15 @@
       <c r="H50" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I50" s="51">
+      <c r="I50" s="52">
         <f>$L50*POWER(G50, $M50)</f>
         <v/>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="52">
         <f>$L50*POWER(H50, $M50)</f>
         <v/>
       </c>
-      <c r="K50" s="51">
+      <c r="K50" s="52">
         <f>$L50*(POWER(H50,$M50+1)-POWER($G50,$M50+1))/($M50+1)/($H50-$G50)</f>
         <v/>
       </c>
@@ -5861,8 +5914,9 @@
         <f t="array" ref="Q50">INT(SUMPRODUCT(($D$4:$D$99=$D50)*($F$4:$F$99=$F50),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D50)*($F$4:$F$99=$F50),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R50" s="9" t="n">
-        <v>11.6</v>
+      <c r="R50" s="12">
+        <f t="array" ref="R50">INT(SUMPRODUCT(($D$4:$D$99=$D50)*($F$4:$F$99=$F50),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D50)*($F$4:$F$99=$F50),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S50" s="12" t="n"/>
       <c r="T50" s="10" t="n"/>
@@ -5875,7 +5929,7 @@
         <v/>
       </c>
       <c r="W50" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1" s="48">
@@ -5910,15 +5964,15 @@
       <c r="H51" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="I51" s="51">
+      <c r="I51" s="52">
         <f>$L51*POWER(G51, $M51)</f>
         <v/>
       </c>
-      <c r="J51" s="51">
+      <c r="J51" s="52">
         <f>$L51*POWER(H51, $M51)</f>
         <v/>
       </c>
-      <c r="K51" s="51">
+      <c r="K51" s="52">
         <f>$L51*(POWER(H51,$M51+1)-POWER($G51,$M51+1))/($M51+1)/($H51-$G51)</f>
         <v/>
       </c>
@@ -5944,8 +5998,9 @@
         <f t="array" ref="Q51">INT(SUMPRODUCT(($D$4:$D$99=$D51)*($F$4:$F$99=$F51),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D51)*($F$4:$F$99=$F51),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R51" s="9" t="n">
-        <v>12.6</v>
+      <c r="R51" s="12">
+        <f t="array" ref="R51">INT(SUMPRODUCT(($D$4:$D$99=$D51)*($F$4:$F$99=$F51),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D51)*($F$4:$F$99=$F51),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S51" s="12" t="n"/>
       <c r="T51" s="10" t="n"/>
@@ -5958,7 +6013,7 @@
         <v/>
       </c>
       <c r="W51" s="12" t="n">
-        <v>814</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1" s="48">
@@ -5993,15 +6048,15 @@
       <c r="H52" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="I52" s="51">
+      <c r="I52" s="52">
         <f>$L52*POWER(G52, $M52)</f>
         <v/>
       </c>
-      <c r="J52" s="51">
+      <c r="J52" s="52">
         <f>$L52*POWER(H52, $M52)</f>
         <v/>
       </c>
-      <c r="K52" s="51">
+      <c r="K52" s="52">
         <f>$L52*(POWER(H52,$M52+1)-POWER($G52,$M52+1))/($M52+1)/($H52-$G52)</f>
         <v/>
       </c>
@@ -6027,8 +6082,9 @@
         <f t="array" ref="Q52">INT(SUMPRODUCT(($D$4:$D$99=$D52)*($F$4:$F$99=$F52),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D52)*($F$4:$F$99=$F52),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R52" s="9" t="n">
-        <v>13.6</v>
+      <c r="R52" s="12">
+        <f t="array" ref="R52">INT(SUMPRODUCT(($D$4:$D$99=$D52)*($F$4:$F$99=$F52),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D52)*($F$4:$F$99=$F52),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S52" s="12" t="n"/>
       <c r="T52" s="10" t="n"/>
@@ -6041,7 +6097,7 @@
         <v/>
       </c>
       <c r="W52" s="12" t="n">
-        <v>399</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1" s="48">
@@ -6076,15 +6132,15 @@
       <c r="H53" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="I53" s="51">
+      <c r="I53" s="52">
         <f>$L53*POWER(G53, $M53)</f>
         <v/>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="52">
         <f>$L53*POWER(H53, $M53)</f>
         <v/>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="52">
         <f>$L53*(POWER(H53,$M53+1)-POWER($G53,$M53+1))/($M53+1)/($H53-$G53)</f>
         <v/>
       </c>
@@ -6110,8 +6166,9 @@
         <f t="array" ref="Q53">INT(SUMPRODUCT(($D$4:$D$99=$D53)*($F$4:$F$99=$F53),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D53)*($F$4:$F$99=$F53),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R53" s="9" t="n">
-        <v>14.6</v>
+      <c r="R53" s="12">
+        <f t="array" ref="R53">INT(SUMPRODUCT(($D$4:$D$99=$D53)*($F$4:$F$99=$F53),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D53)*($F$4:$F$99=$F53),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S53" s="12" t="n"/>
       <c r="T53" s="10" t="n"/>
@@ -6124,7 +6181,7 @@
         <v/>
       </c>
       <c r="W53" s="12" t="n">
-        <v>466</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1" s="48">
@@ -6159,15 +6216,15 @@
       <c r="H54" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="I54" s="51">
+      <c r="I54" s="52">
         <f>$L54*POWER(G54, $M54)</f>
         <v/>
       </c>
-      <c r="J54" s="51">
+      <c r="J54" s="52">
         <f>$L54*POWER(H54, $M54)</f>
         <v/>
       </c>
-      <c r="K54" s="51">
+      <c r="K54" s="52">
         <f>$L54*(POWER(H54,$M54+1)-POWER($G54,$M54+1))/($M54+1)/($H54-$G54)</f>
         <v/>
       </c>
@@ -6193,8 +6250,9 @@
         <f t="array" ref="Q54">INT(SUMPRODUCT(($D$4:$D$99=$D54)*($F$4:$F$99=$F54),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D54)*($F$4:$F$99=$F54),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R54" s="9" t="n">
-        <v>15.6</v>
+      <c r="R54" s="12">
+        <f t="array" ref="R54">INT(SUMPRODUCT(($D$4:$D$99=$D54)*($F$4:$F$99=$F54),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D54)*($F$4:$F$99=$F54),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S54" s="12" t="n"/>
       <c r="T54" s="10" t="n"/>
@@ -6207,7 +6265,7 @@
         <v/>
       </c>
       <c r="W54" s="12" t="n">
-        <v>814</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1" s="48">
@@ -6242,15 +6300,15 @@
       <c r="H55" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="I55" s="51">
+      <c r="I55" s="52">
         <f>$L55*POWER(G55, $M55)</f>
         <v/>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="52">
         <f>$L55*POWER(H55, $M55)</f>
         <v/>
       </c>
-      <c r="K55" s="51">
+      <c r="K55" s="52">
         <f>$L55*(POWER(H55,$M55+1)-POWER($G55,$M55+1))/($M55+1)/($H55-$G55)</f>
         <v/>
       </c>
@@ -6276,8 +6334,9 @@
         <f t="array" ref="Q55">INT(SUMPRODUCT(($D$4:$D$99=$D55)*($F$4:$F$99=$F55),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D55)*($F$4:$F$99=$F55),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R55" s="9" t="n">
-        <v>16.6</v>
+      <c r="R55" s="12">
+        <f t="array" ref="R55">INT(SUMPRODUCT(($D$4:$D$99=$D55)*($F$4:$F$99=$F55),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D55)*($F$4:$F$99=$F55),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S55" s="12" t="n"/>
       <c r="T55" s="10" t="n"/>
@@ -6290,7 +6349,7 @@
         <v/>
       </c>
       <c r="W55" s="12" t="n">
-        <v>925</v>
+        <v>525</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1" s="48">
@@ -6325,15 +6384,15 @@
       <c r="H56" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="I56" s="51">
+      <c r="I56" s="52">
         <f>$L56*POWER(G56, $M56)</f>
         <v/>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="52">
         <f>$L56*POWER(H56, $M56)</f>
         <v/>
       </c>
-      <c r="K56" s="51">
+      <c r="K56" s="52">
         <f>$L56*(POWER(H56,$M56+1)-POWER($G56,$M56+1))/($M56+1)/($H56-$G56)</f>
         <v/>
       </c>
@@ -6359,8 +6418,9 @@
         <f t="array" ref="Q56">INT(SUMPRODUCT(($D$4:$D$99=$D56)*($F$4:$F$99=$F56),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D56)*($F$4:$F$99=$F56),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R56" s="9" t="n">
-        <v>17.6</v>
+      <c r="R56" s="12">
+        <f t="array" ref="R56">INT(SUMPRODUCT(($D$4:$D$99=$D56)*($F$4:$F$99=$F56),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D56)*($F$4:$F$99=$F56),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S56" s="12" t="n"/>
       <c r="T56" s="10" t="n"/>
@@ -6373,7 +6433,7 @@
         <v/>
       </c>
       <c r="W56" s="12" t="n">
-        <v>1036</v>
+        <v>588</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1" s="48">
@@ -6408,15 +6468,15 @@
       <c r="H57" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="I57" s="51">
+      <c r="I57" s="52">
         <f>$L57*POWER(G57, $M57)</f>
         <v/>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="52">
         <f>$L57*POWER(H57, $M57)</f>
         <v/>
       </c>
-      <c r="K57" s="51">
+      <c r="K57" s="52">
         <f>$L57*(POWER(H57,$M57+1)-POWER($G57,$M57+1))/($M57+1)/($H57-$G57)</f>
         <v/>
       </c>
@@ -6442,8 +6502,9 @@
         <f t="array" ref="Q57">INT(SUMPRODUCT(($D$4:$D$99=$D57)*($F$4:$F$99=$F57),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D57)*($F$4:$F$99=$F57),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R57" s="9" t="n">
-        <v>18.6</v>
+      <c r="R57" s="12">
+        <f t="array" ref="R57">INT(SUMPRODUCT(($D$4:$D$99=$D57)*($F$4:$F$99=$F57),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D57)*($F$4:$F$99=$F57),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S57" s="12" t="n"/>
       <c r="T57" s="10" t="n"/>
@@ -6456,7 +6517,7 @@
         <v/>
       </c>
       <c r="W57" s="12" t="n">
-        <v>5920</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1" s="48">
@@ -6491,15 +6552,15 @@
       <c r="H58" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="I58" s="51">
+      <c r="I58" s="52">
         <f>$L58*POWER(G58, $M58)</f>
         <v/>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="52">
         <f>$L58*POWER(H58, $M58)</f>
         <v/>
       </c>
-      <c r="K58" s="51">
+      <c r="K58" s="52">
         <f>$L58*(POWER(H58,$M58+1)-POWER($G58,$M58+1))/($M58+1)/($H58-$G58)</f>
         <v/>
       </c>
@@ -6525,8 +6586,9 @@
         <f t="array" ref="Q58">INT(SUMPRODUCT(($D$4:$D$99=$D58)*($F$4:$F$99=$F58),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D58)*($F$4:$F$99=$F58),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R58" s="9" t="n">
-        <v>19.6</v>
+      <c r="R58" s="12">
+        <f t="array" ref="R58">INT(SUMPRODUCT(($D$4:$D$99=$D58)*($F$4:$F$99=$F58),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D58)*($F$4:$F$99=$F58),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S58" s="12" t="n"/>
       <c r="T58" s="10" t="n"/>
@@ -6539,7 +6601,7 @@
         <v/>
       </c>
       <c r="W58" s="12" t="n">
-        <v>6660</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" s="48">
@@ -6574,15 +6636,15 @@
       <c r="H59" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="I59" s="51">
+      <c r="I59" s="52">
         <f>$L59*POWER(G59, $M59)</f>
         <v/>
       </c>
-      <c r="J59" s="51">
+      <c r="J59" s="52">
         <f>$L59*POWER(H59, $M59)</f>
         <v/>
       </c>
-      <c r="K59" s="51">
+      <c r="K59" s="52">
         <f>$L59*(POWER(H59,$M59+1)-POWER($G59,$M59+1))/($M59+1)/($H59-$G59)</f>
         <v/>
       </c>
@@ -6608,8 +6670,9 @@
         <f t="array" ref="Q59">INT(SUMPRODUCT(($D$4:$D$99=$D59)*($F$4:$F$99=$F59),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D59)*($F$4:$F$99=$F59),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R59" s="9" t="n">
-        <v>20.6</v>
+      <c r="R59" s="12">
+        <f t="array" ref="R59">INT(SUMPRODUCT(($D$4:$D$99=$D59)*($F$4:$F$99=$F59),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D59)*($F$4:$F$99=$F59),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S59" s="12" t="n"/>
       <c r="T59" s="10" t="n"/>
@@ -6622,7 +6685,7 @@
         <v/>
       </c>
       <c r="W59" s="12" t="n">
-        <v>7400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" s="48">
@@ -6657,15 +6720,15 @@
       <c r="H60" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="I60" s="51">
+      <c r="I60" s="52">
         <f>$L60*POWER(G60, $M60)</f>
         <v/>
       </c>
-      <c r="J60" s="51">
+      <c r="J60" s="52">
         <f>$L60*POWER(H60, $M60)</f>
         <v/>
       </c>
-      <c r="K60" s="51">
+      <c r="K60" s="52">
         <f>$L60*(POWER(H60,$M60+1)-POWER($G60,$M60+1))/($M60+1)/($H60-$G60)</f>
         <v/>
       </c>
@@ -6691,8 +6754,9 @@
         <f t="array" ref="Q60">INT(SUMPRODUCT(($D$4:$D$99=$D60)*($F$4:$F$99=$F60),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D60)*($F$4:$F$99=$F60),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R60" s="9" t="n">
-        <v>21.6</v>
+      <c r="R60" s="12">
+        <f t="array" ref="R60">INT(SUMPRODUCT(($D$4:$D$99=$D60)*($F$4:$F$99=$F60),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D60)*($F$4:$F$99=$F60),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S60" s="12" t="n"/>
       <c r="T60" s="10" t="n"/>
@@ -6705,7 +6769,12 @@
         <v/>
       </c>
       <c r="W60" s="12" t="n">
-        <v>1258</v>
+        <v>714</v>
+      </c>
+      <c r="X60" s="0" t="inlineStr">
+        <is>
+          <t>似乎也可以调大一些</t>
+        </is>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" s="48">
@@ -6740,15 +6809,15 @@
       <c r="H61" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I61" s="51">
+      <c r="I61" s="52">
         <f>$L61*POWER(G61, $M61)</f>
         <v/>
       </c>
-      <c r="J61" s="51">
+      <c r="J61" s="52">
         <f>$L61*POWER(H61, $M61)</f>
         <v/>
       </c>
-      <c r="K61" s="51">
+      <c r="K61" s="52">
         <f>$L61*(POWER(H61,$M61+1)-POWER($G61,$M61+1))/($M61+1)/($H61-$G61)</f>
         <v/>
       </c>
@@ -6774,8 +6843,9 @@
         <f t="array" ref="Q61">INT(SUMPRODUCT(($D$4:$D$99=$D61)*($F$4:$F$99=$F61),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D61)*($F$4:$F$99=$F61),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R61" s="9" t="n">
-        <v>22.6</v>
+      <c r="R61" s="12">
+        <f t="array" ref="R61">INT(SUMPRODUCT(($D$4:$D$99=$D61)*($F$4:$F$99=$F61),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D61)*($F$4:$F$99=$F61),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S61" s="12" t="n"/>
       <c r="T61" s="10" t="n"/>
@@ -6788,7 +6858,7 @@
         <v/>
       </c>
       <c r="W61" s="12" t="n">
-        <v>1369</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" s="48">
@@ -6823,15 +6893,15 @@
       <c r="H62" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="I62" s="51">
+      <c r="I62" s="52">
         <f>$L62*POWER(G62, $M62)</f>
         <v/>
       </c>
-      <c r="J62" s="51">
+      <c r="J62" s="52">
         <f>$L62*POWER(H62, $M62)</f>
         <v/>
       </c>
-      <c r="K62" s="51">
+      <c r="K62" s="52">
         <f>$L62*(POWER(H62,$M62+1)-POWER($G62,$M62+1))/($M62+1)/($H62-$G62)</f>
         <v/>
       </c>
@@ -6857,8 +6927,9 @@
         <f t="array" ref="Q62">INT(SUMPRODUCT(($D$4:$D$99=$D62)*($F$4:$F$99=$F62),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D62)*($F$4:$F$99=$F62),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R62" s="9" t="n">
-        <v>23.6</v>
+      <c r="R62" s="12">
+        <f t="array" ref="R62">INT(SUMPRODUCT(($D$4:$D$99=$D62)*($F$4:$F$99=$F62),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D62)*($F$4:$F$99=$F62),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S62" s="12" t="n"/>
       <c r="T62" s="10" t="n"/>
@@ -6871,7 +6942,7 @@
         <v/>
       </c>
       <c r="W62" s="12" t="n">
-        <v>1554</v>
+        <v>882</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" s="48">
@@ -6906,15 +6977,15 @@
       <c r="H63" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="I63" s="51">
+      <c r="I63" s="52">
         <f>$L63*POWER(G63, $M63)</f>
         <v/>
       </c>
-      <c r="J63" s="51">
+      <c r="J63" s="52">
         <f>$L63*POWER(H63, $M63)</f>
         <v/>
       </c>
-      <c r="K63" s="51">
+      <c r="K63" s="52">
         <f>$L63*(POWER(H63,$M63+1)-POWER($G63,$M63+1))/($M63+1)/($H63-$G63)</f>
         <v/>
       </c>
@@ -6940,8 +7011,9 @@
         <f t="array" ref="Q63">INT(SUMPRODUCT(($D$4:$D$99=$D63)*($F$4:$F$99=$F63),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D63)*($F$4:$F$99=$F63),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R63" s="9" t="n">
-        <v>24.6</v>
+      <c r="R63" s="12">
+        <f t="array" ref="R63">INT(SUMPRODUCT(($D$4:$D$99=$D63)*($F$4:$F$99=$F63),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D63)*($F$4:$F$99=$F63),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S63" s="12" t="n"/>
       <c r="T63" s="10" t="n"/>
@@ -6954,7 +7026,7 @@
         <v/>
       </c>
       <c r="W63" s="12" t="n">
-        <v>1702</v>
+        <v>966</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" s="48">
@@ -6989,15 +7061,15 @@
       <c r="H64" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="I64" s="51">
+      <c r="I64" s="52">
         <f>$L64*POWER(G64, $M64)</f>
         <v/>
       </c>
-      <c r="J64" s="51">
+      <c r="J64" s="52">
         <f>$L64*POWER(H64, $M64)</f>
         <v/>
       </c>
-      <c r="K64" s="51">
+      <c r="K64" s="52">
         <f>$L64*(POWER(H64,$M64+1)-POWER($G64,$M64+1))/($M64+1)/($H64-$G64)</f>
         <v/>
       </c>
@@ -7023,8 +7095,9 @@
         <f t="array" ref="Q64">INT(SUMPRODUCT(($D$4:$D$99=$D64)*($F$4:$F$99=$F64),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D64)*($F$4:$F$99=$F64),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R64" s="9" t="n">
-        <v>25.6</v>
+      <c r="R64" s="12">
+        <f t="array" ref="R64">INT(SUMPRODUCT(($D$4:$D$99=$D64)*($F$4:$F$99=$F64),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D64)*($F$4:$F$99=$F64),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S64" s="12" t="n"/>
       <c r="T64" s="10" t="n"/>
@@ -7037,7 +7110,7 @@
         <v/>
       </c>
       <c r="W64" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" s="48">
@@ -7072,15 +7145,15 @@
       <c r="H65" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="I65" s="51">
+      <c r="I65" s="52">
         <f>$L65*POWER(G65, $M65)</f>
         <v/>
       </c>
-      <c r="J65" s="51">
+      <c r="J65" s="52">
         <f>$L65*POWER(H65, $M65)</f>
         <v/>
       </c>
-      <c r="K65" s="51">
+      <c r="K65" s="52">
         <f>$L65*(POWER(H65,$M65+1)-POWER($G65,$M65+1))/($M65+1)/($H65-$G65)</f>
         <v/>
       </c>
@@ -7106,8 +7179,9 @@
         <f t="array" ref="Q65">INT(SUMPRODUCT(($D$4:$D$99=$D65)*($F$4:$F$99=$F65),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D65)*($F$4:$F$99=$F65),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R65" s="9" t="n">
-        <v>26.6</v>
+      <c r="R65" s="12">
+        <f t="array" ref="R65">INT(SUMPRODUCT(($D$4:$D$99=$D65)*($F$4:$F$99=$F65),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D65)*($F$4:$F$99=$F65),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S65" s="12" t="n"/>
       <c r="T65" s="10" t="n"/>
@@ -7120,7 +7194,7 @@
         <v/>
       </c>
       <c r="W65" s="12" t="n">
-        <v>740</v>
+        <v>462</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" s="48">
@@ -7155,15 +7229,15 @@
       <c r="H66" s="9" t="n">
         <v>77</v>
       </c>
-      <c r="I66" s="51">
+      <c r="I66" s="52">
         <f>$L66*POWER(G66, $M66)</f>
         <v/>
       </c>
-      <c r="J66" s="51">
+      <c r="J66" s="52">
         <f>$L66*POWER(H66, $M66)</f>
         <v/>
       </c>
-      <c r="K66" s="51">
+      <c r="K66" s="52">
         <f>$L66*(POWER(H66,$M66+1)-POWER($G66,$M66+1))/($M66+1)/($H66-$G66)</f>
         <v/>
       </c>
@@ -7189,8 +7263,9 @@
         <f t="array" ref="Q66">INT(SUMPRODUCT(($D$4:$D$99=$D66)*($F$4:$F$99=$F66),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D66)*($F$4:$F$99=$F66),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R66" s="9" t="n">
-        <v>27.6</v>
+      <c r="R66" s="12">
+        <f t="array" ref="R66">INT(SUMPRODUCT(($D$4:$D$99=$D66)*($F$4:$F$99=$F66),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D66)*($F$4:$F$99=$F66),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S66" s="12" t="n"/>
       <c r="T66" s="10" t="n"/>
@@ -7203,7 +7278,7 @@
         <v/>
       </c>
       <c r="W66" s="12" t="n">
-        <v>740</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" s="48">
@@ -7238,15 +7313,15 @@
       <c r="H67" s="9" t="n">
         <v>89</v>
       </c>
-      <c r="I67" s="51">
+      <c r="I67" s="52">
         <f>$L67*POWER(G67, $M67)</f>
         <v/>
       </c>
-      <c r="J67" s="51">
+      <c r="J67" s="52">
         <f>$L67*POWER(H67, $M67)</f>
         <v/>
       </c>
-      <c r="K67" s="51">
+      <c r="K67" s="52">
         <f>$L67*(POWER(H67,$M67+1)-POWER($G67,$M67+1))/($M67+1)/($H67-$G67)</f>
         <v/>
       </c>
@@ -7272,8 +7347,9 @@
         <f t="array" ref="Q67">INT(SUMPRODUCT(($D$4:$D$99=$D67)*($F$4:$F$99=$F67),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D67)*($F$4:$F$99=$F67),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R67" s="9" t="n">
-        <v>28.6</v>
+      <c r="R67" s="12">
+        <f t="array" ref="R67">INT(SUMPRODUCT(($D$4:$D$99=$D67)*($F$4:$F$99=$F67),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D67)*($F$4:$F$99=$F67),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S67" s="12" t="n"/>
       <c r="T67" s="10" t="n"/>
@@ -7286,7 +7362,7 @@
         <v/>
       </c>
       <c r="W67" s="12" t="n">
-        <v>740</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" s="48">
@@ -7321,15 +7397,15 @@
       <c r="H68" s="9" t="n">
         <v>97</v>
       </c>
-      <c r="I68" s="51">
+      <c r="I68" s="52">
         <f>$L68*POWER(G68, $M68)</f>
         <v/>
       </c>
-      <c r="J68" s="51">
+      <c r="J68" s="52">
         <f>$L68*POWER(H68, $M68)</f>
         <v/>
       </c>
-      <c r="K68" s="51">
+      <c r="K68" s="52">
         <f>$L68*(POWER(H68,$M68+1)-POWER($G68,$M68+1))/($M68+1)/($H68-$G68)</f>
         <v/>
       </c>
@@ -7355,8 +7431,9 @@
         <f t="array" ref="Q68">INT(SUMPRODUCT(($D$4:$D$99=$D68)*($F$4:$F$99=$F68),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D68)*($F$4:$F$99=$F68),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R68" s="9" t="n">
-        <v>29.6</v>
+      <c r="R68" s="12">
+        <f t="array" ref="R68">INT(SUMPRODUCT(($D$4:$D$99=$D68)*($F$4:$F$99=$F68),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D68)*($F$4:$F$99=$F68),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S68" s="12" t="n"/>
       <c r="T68" s="10" t="n"/>
@@ -7369,7 +7446,7 @@
         <v/>
       </c>
       <c r="W68" s="12" t="n">
-        <v>740</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" s="48">
@@ -7404,15 +7481,15 @@
       <c r="H69" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="I69" s="51">
+      <c r="I69" s="52">
         <f>$L69*POWER(G69, $M69)</f>
         <v/>
       </c>
-      <c r="J69" s="51">
+      <c r="J69" s="52">
         <f>$L69*POWER(H69, $M69)</f>
         <v/>
       </c>
-      <c r="K69" s="51">
+      <c r="K69" s="52">
         <f>$L69*(POWER(H69,$M69+1)-POWER($G69,$M69+1))/($M69+1)/($H69-$G69)</f>
         <v/>
       </c>
@@ -7438,8 +7515,9 @@
         <f t="array" ref="Q69">INT(SUMPRODUCT(($D$4:$D$99=$D69)*($F$4:$F$99=$F69),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D69)*($F$4:$F$99=$F69),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R69" s="9" t="n">
-        <v>30.6</v>
+      <c r="R69" s="12">
+        <f t="array" ref="R69">INT(SUMPRODUCT(($D$4:$D$99=$D69)*($F$4:$F$99=$F69),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D69)*($F$4:$F$99=$F69),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S69" s="12" t="n"/>
       <c r="T69" s="10" t="n"/>
@@ -7452,7 +7530,7 @@
         <v/>
       </c>
       <c r="W69" s="12" t="n">
-        <v>370</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" s="48">
@@ -7487,15 +7565,15 @@
       <c r="H70" s="9" t="n">
         <v>93</v>
       </c>
-      <c r="I70" s="51">
+      <c r="I70" s="52">
         <f>$L70*POWER(G70, $M70)</f>
         <v/>
       </c>
-      <c r="J70" s="51">
+      <c r="J70" s="52">
         <f>$L70*POWER(H70, $M70)</f>
         <v/>
       </c>
-      <c r="K70" s="51">
+      <c r="K70" s="52">
         <f>$L70*(POWER(H70,$M70+1)-POWER($G70,$M70+1))/($M70+1)/($H70-$G70)</f>
         <v/>
       </c>
@@ -7521,8 +7599,9 @@
         <f t="array" ref="Q70">INT(SUMPRODUCT(($D$4:$D$99=$D70)*($F$4:$F$99=$F70),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D70)*($F$4:$F$99=$F70),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R70" s="9" t="n">
-        <v>31.6</v>
+      <c r="R70" s="12">
+        <f t="array" ref="R70">INT(SUMPRODUCT(($D$4:$D$99=$D70)*($F$4:$F$99=$F70),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D70)*($F$4:$F$99=$F70),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S70" s="12" t="n"/>
       <c r="T70" s="10" t="n"/>
@@ -7535,7 +7614,7 @@
         <v/>
       </c>
       <c r="W70" s="12" t="n">
-        <v>370</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" s="48">
@@ -7570,15 +7649,15 @@
       <c r="H71" s="9" t="n">
         <v>119</v>
       </c>
-      <c r="I71" s="51">
+      <c r="I71" s="52">
         <f>$L71*POWER(G71, $M71)</f>
         <v/>
       </c>
-      <c r="J71" s="51">
+      <c r="J71" s="52">
         <f>$L71*POWER(H71, $M71)</f>
         <v/>
       </c>
-      <c r="K71" s="51">
+      <c r="K71" s="52">
         <f>$L71*(POWER(H71,$M71+1)-POWER($G71,$M71+1))/($M71+1)/($H71-$G71)</f>
         <v/>
       </c>
@@ -7604,8 +7683,9 @@
         <f t="array" ref="Q71">INT(SUMPRODUCT(($D$4:$D$99=$D71)*($F$4:$F$99=$F71),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D71)*($F$4:$F$99=$F71),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R71" s="9" t="n">
-        <v>32.6</v>
+      <c r="R71" s="12">
+        <f t="array" ref="R71">INT(SUMPRODUCT(($D$4:$D$99=$D71)*($F$4:$F$99=$F71),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D71)*($F$4:$F$99=$F71),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S71" s="12" t="n"/>
       <c r="T71" s="10" t="n"/>
@@ -7618,7 +7698,7 @@
         <v/>
       </c>
       <c r="W71" s="12" t="n">
-        <v>370</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" s="48">
@@ -7653,15 +7733,15 @@
       <c r="H72" s="9" t="n">
         <v>139</v>
       </c>
-      <c r="I72" s="51">
+      <c r="I72" s="52">
         <f>$L72*POWER(G72, $M72)</f>
         <v/>
       </c>
-      <c r="J72" s="51">
+      <c r="J72" s="52">
         <f>$L72*POWER(H72, $M72)</f>
         <v/>
       </c>
-      <c r="K72" s="51">
+      <c r="K72" s="52">
         <f>$L72*(POWER(H72,$M72+1)-POWER($G72,$M72+1))/($M72+1)/($H72-$G72)</f>
         <v/>
       </c>
@@ -7687,8 +7767,9 @@
         <f t="array" ref="Q72">INT(SUMPRODUCT(($D$4:$D$99=$D72)*($F$4:$F$99=$F72),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D72)*($F$4:$F$99=$F72),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R72" s="9" t="n">
-        <v>33.6</v>
+      <c r="R72" s="12">
+        <f t="array" ref="R72">INT(SUMPRODUCT(($D$4:$D$99=$D72)*($F$4:$F$99=$F72),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D72)*($F$4:$F$99=$F72),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S72" s="12" t="n"/>
       <c r="T72" s="10" t="n"/>
@@ -7701,7 +7782,7 @@
         <v/>
       </c>
       <c r="W72" s="12" t="n">
-        <v>444</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" s="48">
@@ -7736,15 +7817,15 @@
       <c r="H73" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="I73" s="51">
+      <c r="I73" s="52">
         <f>$L73*POWER(G73, $M73)</f>
         <v/>
       </c>
-      <c r="J73" s="51">
+      <c r="J73" s="52">
         <f>$L73*POWER(H73, $M73)</f>
         <v/>
       </c>
-      <c r="K73" s="51">
+      <c r="K73" s="52">
         <f>$L73*(POWER(H73,$M73+1)-POWER($G73,$M73+1))/($M73+1)/($H73-$G73)</f>
         <v/>
       </c>
@@ -7770,8 +7851,9 @@
         <f t="array" ref="Q73">INT(SUMPRODUCT(($D$4:$D$99=$D73)*($F$4:$F$99=$F73),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D73)*($F$4:$F$99=$F73),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R73" s="9" t="n">
-        <v>34.6</v>
+      <c r="R73" s="12">
+        <f t="array" ref="R73">INT(SUMPRODUCT(($D$4:$D$99=$D73)*($F$4:$F$99=$F73),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D73)*($F$4:$F$99=$F73),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S73" s="12" t="n"/>
       <c r="T73" s="10" t="n"/>
@@ -7784,7 +7866,7 @@
         <v/>
       </c>
       <c r="W73" s="12" t="n">
-        <v>444</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" s="48">
@@ -7819,15 +7901,15 @@
       <c r="H74" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="I74" s="51">
+      <c r="I74" s="52">
         <f>$L74*POWER(G74, $M74)</f>
         <v/>
       </c>
-      <c r="J74" s="51">
+      <c r="J74" s="52">
         <f>$L74*POWER(H74, $M74)</f>
         <v/>
       </c>
-      <c r="K74" s="51">
+      <c r="K74" s="52">
         <f>$L74*(POWER(H74,$M74+1)-POWER($G74,$M74+1))/($M74+1)/($H74-$G74)</f>
         <v/>
       </c>
@@ -7853,8 +7935,9 @@
         <f t="array" ref="Q74">INT(SUMPRODUCT(($D$4:$D$99=$D74)*($F$4:$F$99=$F74),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D74)*($F$4:$F$99=$F74),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R74" s="9" t="n">
-        <v>35.6</v>
+      <c r="R74" s="12">
+        <f t="array" ref="R74">INT(SUMPRODUCT(($D$4:$D$99=$D74)*($F$4:$F$99=$F74),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D74)*($F$4:$F$99=$F74),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S74" s="12" t="n"/>
       <c r="T74" s="10" t="n"/>
@@ -7867,7 +7950,7 @@
         <v/>
       </c>
       <c r="W74" s="12" t="n">
-        <v>592</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" s="48">
@@ -7902,15 +7985,15 @@
       <c r="H75" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="I75" s="51">
+      <c r="I75" s="52">
         <f>$L75*POWER(G75, $M75)</f>
         <v/>
       </c>
-      <c r="J75" s="51">
+      <c r="J75" s="52">
         <f>$L75*POWER(H75, $M75)</f>
         <v/>
       </c>
-      <c r="K75" s="51">
+      <c r="K75" s="52">
         <f>$L75*(POWER(H75,$M75+1)-POWER($G75,$M75+1))/($M75+1)/($H75-$G75)</f>
         <v/>
       </c>
@@ -7936,8 +8019,9 @@
         <f t="array" ref="Q75">INT(SUMPRODUCT(($D$4:$D$99=$D75)*($F$4:$F$99=$F75),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D75)*($F$4:$F$99=$F75),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R75" s="9" t="n">
-        <v>36.6</v>
+      <c r="R75" s="12">
+        <f t="array" ref="R75">INT(SUMPRODUCT(($D$4:$D$99=$D75)*($F$4:$F$99=$F75),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D75)*($F$4:$F$99=$F75),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S75" s="12" t="n"/>
       <c r="T75" s="10" t="n"/>
@@ -7950,7 +8034,7 @@
         <v/>
       </c>
       <c r="W75" s="12" t="n">
-        <v>629</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" s="48">
@@ -7985,15 +8069,15 @@
       <c r="H76" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="I76" s="51">
+      <c r="I76" s="52">
         <f>$L76*POWER(G76, $M76)</f>
         <v/>
       </c>
-      <c r="J76" s="51">
+      <c r="J76" s="52">
         <f>$L76*POWER(H76, $M76)</f>
         <v/>
       </c>
-      <c r="K76" s="51">
+      <c r="K76" s="52">
         <f>$L76*(POWER(H76,$M76+1)-POWER($G76,$M76+1))/($M76+1)/($H76-$G76)</f>
         <v/>
       </c>
@@ -8019,8 +8103,9 @@
         <f t="array" ref="Q76">INT(SUMPRODUCT(($D$4:$D$99=$D76)*($F$4:$F$99=$F76),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D76)*($F$4:$F$99=$F76),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R76" s="9" t="n">
-        <v>37.6</v>
+      <c r="R76" s="12">
+        <f t="array" ref="R76">INT(SUMPRODUCT(($D$4:$D$99=$D76)*($F$4:$F$99=$F76),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D76)*($F$4:$F$99=$F76),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S76" s="12" t="n"/>
       <c r="T76" s="10" t="n"/>
@@ -8033,7 +8118,7 @@
         <v/>
       </c>
       <c r="W76" s="12" t="n">
-        <v>666</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" s="48">
@@ -8068,15 +8153,15 @@
       <c r="H77" s="9" t="n">
         <v>98</v>
       </c>
-      <c r="I77" s="51">
+      <c r="I77" s="52">
         <f>$L77*POWER(G77, $M77)</f>
         <v/>
       </c>
-      <c r="J77" s="51">
+      <c r="J77" s="52">
         <f>$L77*POWER(H77, $M77)</f>
         <v/>
       </c>
-      <c r="K77" s="51">
+      <c r="K77" s="52">
         <f>$L77*(POWER(H77,$M77+1)-POWER($G77,$M77+1))/($M77+1)/($H77-$G77)</f>
         <v/>
       </c>
@@ -8102,8 +8187,9 @@
         <f t="array" ref="Q77">INT(SUMPRODUCT(($D$4:$D$99=$D77)*($F$4:$F$99=$F77),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D77)*($F$4:$F$99=$F77),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R77" s="9" t="n">
-        <v>38.6</v>
+      <c r="R77" s="12">
+        <f t="array" ref="R77">INT(SUMPRODUCT(($D$4:$D$99=$D77)*($F$4:$F$99=$F77),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D77)*($F$4:$F$99=$F77),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S77" s="12" t="n"/>
       <c r="T77" s="10" t="n"/>
@@ -8116,7 +8202,7 @@
         <v/>
       </c>
       <c r="W77" s="12" t="n">
-        <v>666</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" s="48">
@@ -8151,15 +8237,15 @@
       <c r="H78" s="9" t="n">
         <v>107</v>
       </c>
-      <c r="I78" s="51">
+      <c r="I78" s="52">
         <f>$L78*POWER(G78, $M78)</f>
         <v/>
       </c>
-      <c r="J78" s="51">
+      <c r="J78" s="52">
         <f>$L78*POWER(H78, $M78)</f>
         <v/>
       </c>
-      <c r="K78" s="51">
+      <c r="K78" s="52">
         <f>$L78*(POWER(H78,$M78+1)-POWER($G78,$M78+1))/($M78+1)/($H78-$G78)</f>
         <v/>
       </c>
@@ -8185,8 +8271,9 @@
         <f t="array" ref="Q78">INT(SUMPRODUCT(($D$4:$D$99=$D78)*($F$4:$F$99=$F78),$P$4:$P$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D78)*($F$4:$F$99=$F78),$O$4:$O$99))</f>
         <v/>
       </c>
-      <c r="R78" s="9" t="n">
-        <v>39.6</v>
+      <c r="R78" s="12">
+        <f t="array" ref="R78">INT(SUMPRODUCT(($D$4:$D$99=$D78)*($F$4:$F$99=$F78),$K$4:$K$99,$O$4:$O$99)/SUMPRODUCT(($D$4:$D$99=$D78)*($F$4:$F$99=$F78),$O$4:$O$99))</f>
+        <v/>
       </c>
       <c r="S78" s="12" t="n"/>
       <c r="T78" s="10" t="n"/>
@@ -8199,7 +8286,7 @@
         <v/>
       </c>
       <c r="W78" s="12" t="n">
-        <v>740</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79">
@@ -8209,9 +8296,9 @@
       <c r="F79" s="3" t="n"/>
       <c r="G79" s="3" t="n"/>
       <c r="H79" s="3" t="n"/>
-      <c r="I79" s="51" t="n"/>
-      <c r="J79" s="51" t="n"/>
-      <c r="K79" s="51" t="n"/>
+      <c r="I79" s="52" t="n"/>
+      <c r="J79" s="52" t="n"/>
+      <c r="K79" s="52" t="n"/>
       <c r="L79" s="3" t="n"/>
       <c r="M79" s="3" t="n"/>
       <c r="N79" s="3" t="n"/>
@@ -8226,9 +8313,9 @@
       <c r="F80" s="3" t="n"/>
       <c r="G80" s="3" t="n"/>
       <c r="H80" s="3" t="n"/>
-      <c r="I80" s="51" t="n"/>
-      <c r="J80" s="51" t="n"/>
-      <c r="K80" s="51" t="n"/>
+      <c r="I80" s="52" t="n"/>
+      <c r="J80" s="52" t="n"/>
+      <c r="K80" s="52" t="n"/>
       <c r="L80" s="3" t="n"/>
       <c r="M80" s="3" t="n"/>
       <c r="N80" s="3" t="n"/>
@@ -8243,9 +8330,9 @@
       <c r="F81" s="3" t="n"/>
       <c r="G81" s="3" t="n"/>
       <c r="H81" s="3" t="n"/>
-      <c r="I81" s="51" t="n"/>
-      <c r="J81" s="51" t="n"/>
-      <c r="K81" s="51" t="n"/>
+      <c r="I81" s="52" t="n"/>
+      <c r="J81" s="52" t="n"/>
+      <c r="K81" s="52" t="n"/>
       <c r="L81" s="3" t="n"/>
       <c r="M81" s="3" t="n"/>
       <c r="N81" s="3" t="n"/>
@@ -8260,9 +8347,9 @@
       <c r="F82" s="3" t="n"/>
       <c r="G82" s="3" t="n"/>
       <c r="H82" s="3" t="n"/>
-      <c r="I82" s="51" t="n"/>
-      <c r="J82" s="51" t="n"/>
-      <c r="K82" s="51" t="n"/>
+      <c r="I82" s="52" t="n"/>
+      <c r="J82" s="52" t="n"/>
+      <c r="K82" s="52" t="n"/>
       <c r="L82" s="3" t="n"/>
       <c r="M82" s="3" t="n"/>
       <c r="N82" s="3" t="n"/>
@@ -8277,9 +8364,9 @@
       <c r="F83" s="3" t="n"/>
       <c r="G83" s="3" t="n"/>
       <c r="H83" s="3" t="n"/>
-      <c r="I83" s="51" t="n"/>
-      <c r="J83" s="51" t="n"/>
-      <c r="K83" s="51" t="n"/>
+      <c r="I83" s="52" t="n"/>
+      <c r="J83" s="52" t="n"/>
+      <c r="K83" s="52" t="n"/>
       <c r="L83" s="3" t="n"/>
       <c r="M83" s="3" t="n"/>
       <c r="N83" s="3" t="n"/>
@@ -8294,9 +8381,9 @@
       <c r="F84" s="3" t="n"/>
       <c r="G84" s="3" t="n"/>
       <c r="H84" s="3" t="n"/>
-      <c r="I84" s="51" t="n"/>
-      <c r="J84" s="51" t="n"/>
-      <c r="K84" s="51" t="n"/>
+      <c r="I84" s="52" t="n"/>
+      <c r="J84" s="52" t="n"/>
+      <c r="K84" s="52" t="n"/>
       <c r="L84" s="3" t="n"/>
       <c r="M84" s="3" t="n"/>
       <c r="N84" s="3" t="n"/>
@@ -8311,9 +8398,9 @@
       <c r="F85" s="3" t="n"/>
       <c r="G85" s="3" t="n"/>
       <c r="H85" s="3" t="n"/>
-      <c r="I85" s="51" t="n"/>
-      <c r="J85" s="51" t="n"/>
-      <c r="K85" s="51" t="n"/>
+      <c r="I85" s="52" t="n"/>
+      <c r="J85" s="52" t="n"/>
+      <c r="K85" s="52" t="n"/>
       <c r="L85" s="3" t="n"/>
       <c r="M85" s="3" t="n"/>
       <c r="N85" s="3" t="n"/>
@@ -8328,9 +8415,9 @@
       <c r="F86" s="3" t="n"/>
       <c r="G86" s="3" t="n"/>
       <c r="H86" s="3" t="n"/>
-      <c r="I86" s="51" t="n"/>
-      <c r="J86" s="51" t="n"/>
-      <c r="K86" s="51" t="n"/>
+      <c r="I86" s="52" t="n"/>
+      <c r="J86" s="52" t="n"/>
+      <c r="K86" s="52" t="n"/>
       <c r="L86" s="3" t="n"/>
       <c r="M86" s="3" t="n"/>
       <c r="N86" s="3" t="n"/>
@@ -8345,9 +8432,9 @@
       <c r="F87" s="3" t="n"/>
       <c r="G87" s="3" t="n"/>
       <c r="H87" s="3" t="n"/>
-      <c r="I87" s="51" t="n"/>
-      <c r="J87" s="51" t="n"/>
-      <c r="K87" s="51" t="n"/>
+      <c r="I87" s="52" t="n"/>
+      <c r="J87" s="52" t="n"/>
+      <c r="K87" s="52" t="n"/>
       <c r="L87" s="3" t="n"/>
       <c r="M87" s="3" t="n"/>
       <c r="N87" s="3" t="n"/>
@@ -8362,9 +8449,9 @@
       <c r="F88" s="3" t="n"/>
       <c r="G88" s="3" t="n"/>
       <c r="H88" s="3" t="n"/>
-      <c r="I88" s="51" t="n"/>
-      <c r="J88" s="51" t="n"/>
-      <c r="K88" s="51" t="n"/>
+      <c r="I88" s="52" t="n"/>
+      <c r="J88" s="52" t="n"/>
+      <c r="K88" s="52" t="n"/>
       <c r="L88" s="3" t="n"/>
       <c r="M88" s="3" t="n"/>
       <c r="N88" s="3" t="n"/>
@@ -8379,9 +8466,9 @@
       <c r="F89" s="3" t="n"/>
       <c r="G89" s="3" t="n"/>
       <c r="H89" s="3" t="n"/>
-      <c r="I89" s="51" t="n"/>
-      <c r="J89" s="51" t="n"/>
-      <c r="K89" s="51" t="n"/>
+      <c r="I89" s="52" t="n"/>
+      <c r="J89" s="52" t="n"/>
+      <c r="K89" s="52" t="n"/>
       <c r="L89" s="3" t="n"/>
       <c r="M89" s="3" t="n"/>
       <c r="N89" s="3" t="n"/>
@@ -8396,9 +8483,9 @@
       <c r="F90" s="3" t="n"/>
       <c r="G90" s="3" t="n"/>
       <c r="H90" s="3" t="n"/>
-      <c r="I90" s="51" t="n"/>
-      <c r="J90" s="51" t="n"/>
-      <c r="K90" s="51" t="n"/>
+      <c r="I90" s="52" t="n"/>
+      <c r="J90" s="52" t="n"/>
+      <c r="K90" s="52" t="n"/>
       <c r="L90" s="3" t="n"/>
       <c r="M90" s="3" t="n"/>
       <c r="N90" s="3" t="n"/>
@@ -8413,9 +8500,9 @@
       <c r="F91" s="3" t="n"/>
       <c r="G91" s="3" t="n"/>
       <c r="H91" s="3" t="n"/>
-      <c r="I91" s="51" t="n"/>
-      <c r="J91" s="51" t="n"/>
-      <c r="K91" s="51" t="n"/>
+      <c r="I91" s="52" t="n"/>
+      <c r="J91" s="52" t="n"/>
+      <c r="K91" s="52" t="n"/>
       <c r="L91" s="3" t="n"/>
       <c r="M91" s="3" t="n"/>
       <c r="N91" s="3" t="n"/>
@@ -8430,9 +8517,9 @@
       <c r="F92" s="3" t="n"/>
       <c r="G92" s="3" t="n"/>
       <c r="H92" s="3" t="n"/>
-      <c r="I92" s="51" t="n"/>
-      <c r="J92" s="51" t="n"/>
-      <c r="K92" s="51" t="n"/>
+      <c r="I92" s="52" t="n"/>
+      <c r="J92" s="52" t="n"/>
+      <c r="K92" s="52" t="n"/>
       <c r="L92" s="3" t="n"/>
       <c r="M92" s="3" t="n"/>
       <c r="N92" s="3" t="n"/>
@@ -8447,9 +8534,9 @@
       <c r="F93" s="3" t="n"/>
       <c r="G93" s="3" t="n"/>
       <c r="H93" s="3" t="n"/>
-      <c r="I93" s="51" t="n"/>
-      <c r="J93" s="51" t="n"/>
-      <c r="K93" s="51" t="n"/>
+      <c r="I93" s="52" t="n"/>
+      <c r="J93" s="52" t="n"/>
+      <c r="K93" s="52" t="n"/>
       <c r="L93" s="3" t="n"/>
       <c r="M93" s="3" t="n"/>
       <c r="N93" s="3" t="n"/>
@@ -8464,9 +8551,9 @@
       <c r="F94" s="3" t="n"/>
       <c r="G94" s="3" t="n"/>
       <c r="H94" s="3" t="n"/>
-      <c r="I94" s="51" t="n"/>
-      <c r="J94" s="51" t="n"/>
-      <c r="K94" s="51" t="n"/>
+      <c r="I94" s="52" t="n"/>
+      <c r="J94" s="52" t="n"/>
+      <c r="K94" s="52" t="n"/>
       <c r="L94" s="3" t="n"/>
       <c r="M94" s="3" t="n"/>
       <c r="N94" s="3" t="n"/>
@@ -8481,9 +8568,9 @@
       <c r="F95" s="3" t="n"/>
       <c r="G95" s="3" t="n"/>
       <c r="H95" s="3" t="n"/>
-      <c r="I95" s="51" t="n"/>
-      <c r="J95" s="51" t="n"/>
-      <c r="K95" s="51" t="n"/>
+      <c r="I95" s="52" t="n"/>
+      <c r="J95" s="52" t="n"/>
+      <c r="K95" s="52" t="n"/>
       <c r="L95" s="3" t="n"/>
       <c r="M95" s="3" t="n"/>
       <c r="N95" s="3" t="n"/>
@@ -8498,9 +8585,9 @@
       <c r="F96" s="3" t="n"/>
       <c r="G96" s="3" t="n"/>
       <c r="H96" s="3" t="n"/>
-      <c r="I96" s="51" t="n"/>
-      <c r="J96" s="51" t="n"/>
-      <c r="K96" s="51" t="n"/>
+      <c r="I96" s="52" t="n"/>
+      <c r="J96" s="52" t="n"/>
+      <c r="K96" s="52" t="n"/>
       <c r="L96" s="3" t="n"/>
       <c r="M96" s="3" t="n"/>
       <c r="N96" s="3" t="n"/>
@@ -8515,9 +8602,9 @@
       <c r="F97" s="3" t="n"/>
       <c r="G97" s="3" t="n"/>
       <c r="H97" s="3" t="n"/>
-      <c r="I97" s="51" t="n"/>
-      <c r="J97" s="51" t="n"/>
-      <c r="K97" s="51" t="n"/>
+      <c r="I97" s="52" t="n"/>
+      <c r="J97" s="52" t="n"/>
+      <c r="K97" s="52" t="n"/>
       <c r="L97" s="3" t="n"/>
       <c r="M97" s="3" t="n"/>
       <c r="N97" s="3" t="n"/>
@@ -8532,9 +8619,9 @@
       <c r="F98" s="3" t="n"/>
       <c r="G98" s="3" t="n"/>
       <c r="H98" s="3" t="n"/>
-      <c r="I98" s="51" t="n"/>
-      <c r="J98" s="51" t="n"/>
-      <c r="K98" s="51" t="n"/>
+      <c r="I98" s="52" t="n"/>
+      <c r="J98" s="52" t="n"/>
+      <c r="K98" s="52" t="n"/>
       <c r="L98" s="3" t="n"/>
       <c r="M98" s="3" t="n"/>
       <c r="N98" s="3" t="n"/>
@@ -8549,9 +8636,9 @@
       <c r="F99" s="3" t="n"/>
       <c r="G99" s="3" t="n"/>
       <c r="H99" s="3" t="n"/>
-      <c r="I99" s="51" t="n"/>
-      <c r="J99" s="51" t="n"/>
-      <c r="K99" s="51" t="n"/>
+      <c r="I99" s="52" t="n"/>
+      <c r="J99" s="52" t="n"/>
+      <c r="K99" s="52" t="n"/>
       <c r="L99" s="3" t="n"/>
       <c r="M99" s="3" t="n"/>
       <c r="N99" s="3" t="n"/>
@@ -8566,9 +8653,9 @@
       <c r="F100" s="3" t="n"/>
       <c r="G100" s="3" t="n"/>
       <c r="H100" s="3" t="n"/>
-      <c r="I100" s="51" t="n"/>
-      <c r="J100" s="51" t="n"/>
-      <c r="K100" s="51" t="n"/>
+      <c r="I100" s="52" t="n"/>
+      <c r="J100" s="52" t="n"/>
+      <c r="K100" s="52" t="n"/>
       <c r="L100" s="3" t="n"/>
       <c r="M100" s="3" t="n"/>
       <c r="N100" s="3" t="n"/>
@@ -8583,9 +8670,9 @@
       <c r="F101" s="3" t="n"/>
       <c r="G101" s="3" t="n"/>
       <c r="H101" s="3" t="n"/>
-      <c r="I101" s="51" t="n"/>
-      <c r="J101" s="51" t="n"/>
-      <c r="K101" s="51" t="n"/>
+      <c r="I101" s="52" t="n"/>
+      <c r="J101" s="52" t="n"/>
+      <c r="K101" s="52" t="n"/>
       <c r="L101" s="3" t="n"/>
       <c r="M101" s="3" t="n"/>
       <c r="N101" s="3" t="n"/>
@@ -8600,9 +8687,9 @@
       <c r="F102" s="3" t="n"/>
       <c r="G102" s="3" t="n"/>
       <c r="H102" s="3" t="n"/>
-      <c r="I102" s="51" t="n"/>
-      <c r="J102" s="51" t="n"/>
-      <c r="K102" s="51" t="n"/>
+      <c r="I102" s="52" t="n"/>
+      <c r="J102" s="52" t="n"/>
+      <c r="K102" s="52" t="n"/>
       <c r="L102" s="3" t="n"/>
       <c r="M102" s="3" t="n"/>
       <c r="N102" s="3" t="n"/>
@@ -8617,9 +8704,9 @@
       <c r="F103" s="3" t="n"/>
       <c r="G103" s="3" t="n"/>
       <c r="H103" s="3" t="n"/>
-      <c r="I103" s="51" t="n"/>
-      <c r="J103" s="51" t="n"/>
-      <c r="K103" s="51" t="n"/>
+      <c r="I103" s="52" t="n"/>
+      <c r="J103" s="52" t="n"/>
+      <c r="K103" s="52" t="n"/>
       <c r="L103" s="3" t="n"/>
       <c r="M103" s="3" t="n"/>
       <c r="N103" s="3" t="n"/>
@@ -8634,9 +8721,9 @@
       <c r="F104" s="3" t="n"/>
       <c r="G104" s="3" t="n"/>
       <c r="H104" s="3" t="n"/>
-      <c r="I104" s="51" t="n"/>
-      <c r="J104" s="51" t="n"/>
-      <c r="K104" s="51" t="n"/>
+      <c r="I104" s="52" t="n"/>
+      <c r="J104" s="52" t="n"/>
+      <c r="K104" s="52" t="n"/>
       <c r="L104" s="3" t="n"/>
       <c r="M104" s="3" t="n"/>
       <c r="N104" s="3" t="n"/>
@@ -8651,9 +8738,9 @@
       <c r="F105" s="3" t="n"/>
       <c r="G105" s="3" t="n"/>
       <c r="H105" s="3" t="n"/>
-      <c r="I105" s="51" t="n"/>
-      <c r="J105" s="51" t="n"/>
-      <c r="K105" s="51" t="n"/>
+      <c r="I105" s="52" t="n"/>
+      <c r="J105" s="52" t="n"/>
+      <c r="K105" s="52" t="n"/>
       <c r="L105" s="3" t="n"/>
       <c r="M105" s="3" t="n"/>
       <c r="N105" s="3" t="n"/>
@@ -8668,9 +8755,9 @@
       <c r="F106" s="3" t="n"/>
       <c r="G106" s="3" t="n"/>
       <c r="H106" s="3" t="n"/>
-      <c r="I106" s="51" t="n"/>
-      <c r="J106" s="51" t="n"/>
-      <c r="K106" s="51" t="n"/>
+      <c r="I106" s="52" t="n"/>
+      <c r="J106" s="52" t="n"/>
+      <c r="K106" s="52" t="n"/>
       <c r="L106" s="3" t="n"/>
       <c r="M106" s="3" t="n"/>
       <c r="N106" s="3" t="n"/>
@@ -8685,9 +8772,9 @@
       <c r="F107" s="3" t="n"/>
       <c r="G107" s="3" t="n"/>
       <c r="H107" s="3" t="n"/>
-      <c r="I107" s="51" t="n"/>
-      <c r="J107" s="51" t="n"/>
-      <c r="K107" s="51" t="n"/>
+      <c r="I107" s="52" t="n"/>
+      <c r="J107" s="52" t="n"/>
+      <c r="K107" s="52" t="n"/>
       <c r="L107" s="3" t="n"/>
       <c r="M107" s="3" t="n"/>
       <c r="N107" s="3" t="n"/>
@@ -8702,9 +8789,9 @@
       <c r="F108" s="3" t="n"/>
       <c r="G108" s="3" t="n"/>
       <c r="H108" s="3" t="n"/>
-      <c r="I108" s="51" t="n"/>
-      <c r="J108" s="51" t="n"/>
-      <c r="K108" s="51" t="n"/>
+      <c r="I108" s="52" t="n"/>
+      <c r="J108" s="52" t="n"/>
+      <c r="K108" s="52" t="n"/>
       <c r="L108" s="3" t="n"/>
       <c r="M108" s="3" t="n"/>
       <c r="N108" s="3" t="n"/>
@@ -8719,9 +8806,9 @@
       <c r="F109" s="3" t="n"/>
       <c r="G109" s="3" t="n"/>
       <c r="H109" s="3" t="n"/>
-      <c r="I109" s="51" t="n"/>
-      <c r="J109" s="51" t="n"/>
-      <c r="K109" s="51" t="n"/>
+      <c r="I109" s="52" t="n"/>
+      <c r="J109" s="52" t="n"/>
+      <c r="K109" s="52" t="n"/>
       <c r="L109" s="3" t="n"/>
       <c r="M109" s="3" t="n"/>
       <c r="N109" s="3" t="n"/>
@@ -8736,9 +8823,9 @@
       <c r="F110" s="3" t="n"/>
       <c r="G110" s="3" t="n"/>
       <c r="H110" s="3" t="n"/>
-      <c r="I110" s="51" t="n"/>
-      <c r="J110" s="51" t="n"/>
-      <c r="K110" s="51" t="n"/>
+      <c r="I110" s="52" t="n"/>
+      <c r="J110" s="52" t="n"/>
+      <c r="K110" s="52" t="n"/>
       <c r="L110" s="3" t="n"/>
       <c r="M110" s="3" t="n"/>
       <c r="N110" s="3" t="n"/>
@@ -8753,9 +8840,9 @@
       <c r="F111" s="3" t="n"/>
       <c r="G111" s="3" t="n"/>
       <c r="H111" s="3" t="n"/>
-      <c r="I111" s="51" t="n"/>
-      <c r="J111" s="51" t="n"/>
-      <c r="K111" s="51" t="n"/>
+      <c r="I111" s="52" t="n"/>
+      <c r="J111" s="52" t="n"/>
+      <c r="K111" s="52" t="n"/>
       <c r="L111" s="3" t="n"/>
       <c r="M111" s="3" t="n"/>
       <c r="N111" s="3" t="n"/>
@@ -8770,9 +8857,9 @@
       <c r="F112" s="3" t="n"/>
       <c r="G112" s="3" t="n"/>
       <c r="H112" s="3" t="n"/>
-      <c r="I112" s="51" t="n"/>
-      <c r="J112" s="51" t="n"/>
-      <c r="K112" s="51" t="n"/>
+      <c r="I112" s="52" t="n"/>
+      <c r="J112" s="52" t="n"/>
+      <c r="K112" s="52" t="n"/>
       <c r="L112" s="3" t="n"/>
       <c r="M112" s="3" t="n"/>
       <c r="N112" s="3" t="n"/>
@@ -8787,9 +8874,9 @@
       <c r="F113" s="3" t="n"/>
       <c r="G113" s="3" t="n"/>
       <c r="H113" s="3" t="n"/>
-      <c r="I113" s="51" t="n"/>
-      <c r="J113" s="51" t="n"/>
-      <c r="K113" s="51" t="n"/>
+      <c r="I113" s="52" t="n"/>
+      <c r="J113" s="52" t="n"/>
+      <c r="K113" s="52" t="n"/>
       <c r="L113" s="3" t="n"/>
       <c r="M113" s="3" t="n"/>
       <c r="N113" s="3" t="n"/>
@@ -8804,9 +8891,9 @@
       <c r="F114" s="3" t="n"/>
       <c r="G114" s="3" t="n"/>
       <c r="H114" s="3" t="n"/>
-      <c r="I114" s="51" t="n"/>
-      <c r="J114" s="51" t="n"/>
-      <c r="K114" s="51" t="n"/>
+      <c r="I114" s="52" t="n"/>
+      <c r="J114" s="52" t="n"/>
+      <c r="K114" s="52" t="n"/>
       <c r="L114" s="3" t="n"/>
       <c r="M114" s="3" t="n"/>
       <c r="N114" s="3" t="n"/>
@@ -8821,9 +8908,9 @@
       <c r="F115" s="3" t="n"/>
       <c r="G115" s="3" t="n"/>
       <c r="H115" s="3" t="n"/>
-      <c r="I115" s="51" t="n"/>
-      <c r="J115" s="51" t="n"/>
-      <c r="K115" s="51" t="n"/>
+      <c r="I115" s="52" t="n"/>
+      <c r="J115" s="52" t="n"/>
+      <c r="K115" s="52" t="n"/>
       <c r="L115" s="3" t="n"/>
       <c r="M115" s="3" t="n"/>
       <c r="N115" s="3" t="n"/>
@@ -8838,9 +8925,9 @@
       <c r="F116" s="3" t="n"/>
       <c r="G116" s="3" t="n"/>
       <c r="H116" s="3" t="n"/>
-      <c r="I116" s="51" t="n"/>
-      <c r="J116" s="51" t="n"/>
-      <c r="K116" s="51" t="n"/>
+      <c r="I116" s="52" t="n"/>
+      <c r="J116" s="52" t="n"/>
+      <c r="K116" s="52" t="n"/>
       <c r="L116" s="3" t="n"/>
       <c r="M116" s="3" t="n"/>
       <c r="N116" s="3" t="n"/>
@@ -8855,9 +8942,9 @@
       <c r="F117" s="3" t="n"/>
       <c r="G117" s="3" t="n"/>
       <c r="H117" s="3" t="n"/>
-      <c r="I117" s="51" t="n"/>
-      <c r="J117" s="51" t="n"/>
-      <c r="K117" s="51" t="n"/>
+      <c r="I117" s="52" t="n"/>
+      <c r="J117" s="52" t="n"/>
+      <c r="K117" s="52" t="n"/>
       <c r="L117" s="3" t="n"/>
       <c r="M117" s="3" t="n"/>
       <c r="N117" s="3" t="n"/>
@@ -8872,9 +8959,9 @@
       <c r="F118" s="3" t="n"/>
       <c r="G118" s="3" t="n"/>
       <c r="H118" s="3" t="n"/>
-      <c r="I118" s="51" t="n"/>
-      <c r="J118" s="51" t="n"/>
-      <c r="K118" s="51" t="n"/>
+      <c r="I118" s="52" t="n"/>
+      <c r="J118" s="52" t="n"/>
+      <c r="K118" s="52" t="n"/>
       <c r="L118" s="3" t="n"/>
       <c r="M118" s="3" t="n"/>
       <c r="N118" s="3" t="n"/>
@@ -8889,9 +8976,9 @@
       <c r="F119" s="3" t="n"/>
       <c r="G119" s="3" t="n"/>
       <c r="H119" s="3" t="n"/>
-      <c r="I119" s="51" t="n"/>
-      <c r="J119" s="51" t="n"/>
-      <c r="K119" s="51" t="n"/>
+      <c r="I119" s="52" t="n"/>
+      <c r="J119" s="52" t="n"/>
+      <c r="K119" s="52" t="n"/>
       <c r="L119" s="3" t="n"/>
       <c r="M119" s="3" t="n"/>
       <c r="N119" s="3" t="n"/>
@@ -8906,9 +8993,9 @@
       <c r="F120" s="3" t="n"/>
       <c r="G120" s="3" t="n"/>
       <c r="H120" s="3" t="n"/>
-      <c r="I120" s="51" t="n"/>
-      <c r="J120" s="51" t="n"/>
-      <c r="K120" s="51" t="n"/>
+      <c r="I120" s="52" t="n"/>
+      <c r="J120" s="52" t="n"/>
+      <c r="K120" s="52" t="n"/>
       <c r="L120" s="3" t="n"/>
       <c r="M120" s="3" t="n"/>
       <c r="N120" s="3" t="n"/>
@@ -8923,9 +9010,9 @@
       <c r="F121" s="3" t="n"/>
       <c r="G121" s="3" t="n"/>
       <c r="H121" s="3" t="n"/>
-      <c r="I121" s="51" t="n"/>
-      <c r="J121" s="51" t="n"/>
-      <c r="K121" s="51" t="n"/>
+      <c r="I121" s="52" t="n"/>
+      <c r="J121" s="52" t="n"/>
+      <c r="K121" s="52" t="n"/>
       <c r="L121" s="3" t="n"/>
       <c r="M121" s="3" t="n"/>
       <c r="N121" s="3" t="n"/>
@@ -8940,9 +9027,9 @@
       <c r="F122" s="3" t="n"/>
       <c r="G122" s="3" t="n"/>
       <c r="H122" s="3" t="n"/>
-      <c r="I122" s="51" t="n"/>
-      <c r="J122" s="51" t="n"/>
-      <c r="K122" s="51" t="n"/>
+      <c r="I122" s="52" t="n"/>
+      <c r="J122" s="52" t="n"/>
+      <c r="K122" s="52" t="n"/>
       <c r="L122" s="3" t="n"/>
       <c r="M122" s="3" t="n"/>
       <c r="N122" s="3" t="n"/>
@@ -8957,9 +9044,9 @@
       <c r="F123" s="3" t="n"/>
       <c r="G123" s="3" t="n"/>
       <c r="H123" s="3" t="n"/>
-      <c r="I123" s="51" t="n"/>
-      <c r="J123" s="51" t="n"/>
-      <c r="K123" s="51" t="n"/>
+      <c r="I123" s="52" t="n"/>
+      <c r="J123" s="52" t="n"/>
+      <c r="K123" s="52" t="n"/>
       <c r="L123" s="3" t="n"/>
       <c r="M123" s="3" t="n"/>
       <c r="N123" s="3" t="n"/>
@@ -8974,9 +9061,9 @@
       <c r="F124" s="3" t="n"/>
       <c r="G124" s="3" t="n"/>
       <c r="H124" s="3" t="n"/>
-      <c r="I124" s="51" t="n"/>
-      <c r="J124" s="51" t="n"/>
-      <c r="K124" s="51" t="n"/>
+      <c r="I124" s="52" t="n"/>
+      <c r="J124" s="52" t="n"/>
+      <c r="K124" s="52" t="n"/>
       <c r="L124" s="3" t="n"/>
       <c r="M124" s="3" t="n"/>
       <c r="N124" s="3" t="n"/>
@@ -8991,9 +9078,9 @@
       <c r="F125" s="3" t="n"/>
       <c r="G125" s="3" t="n"/>
       <c r="H125" s="3" t="n"/>
-      <c r="I125" s="51" t="n"/>
-      <c r="J125" s="51" t="n"/>
-      <c r="K125" s="51" t="n"/>
+      <c r="I125" s="52" t="n"/>
+      <c r="J125" s="52" t="n"/>
+      <c r="K125" s="52" t="n"/>
       <c r="L125" s="3" t="n"/>
       <c r="M125" s="3" t="n"/>
       <c r="N125" s="3" t="n"/>
@@ -9008,9 +9095,9 @@
       <c r="F126" s="3" t="n"/>
       <c r="G126" s="3" t="n"/>
       <c r="H126" s="3" t="n"/>
-      <c r="I126" s="51" t="n"/>
-      <c r="J126" s="51" t="n"/>
-      <c r="K126" s="51" t="n"/>
+      <c r="I126" s="52" t="n"/>
+      <c r="J126" s="52" t="n"/>
+      <c r="K126" s="52" t="n"/>
       <c r="L126" s="3" t="n"/>
       <c r="M126" s="3" t="n"/>
       <c r="N126" s="3" t="n"/>
@@ -9025,9 +9112,9 @@
       <c r="F127" s="3" t="n"/>
       <c r="G127" s="3" t="n"/>
       <c r="H127" s="3" t="n"/>
-      <c r="I127" s="51" t="n"/>
-      <c r="J127" s="51" t="n"/>
-      <c r="K127" s="51" t="n"/>
+      <c r="I127" s="52" t="n"/>
+      <c r="J127" s="52" t="n"/>
+      <c r="K127" s="52" t="n"/>
       <c r="L127" s="3" t="n"/>
       <c r="M127" s="3" t="n"/>
       <c r="N127" s="3" t="n"/>
@@ -9042,9 +9129,9 @@
       <c r="F128" s="3" t="n"/>
       <c r="G128" s="3" t="n"/>
       <c r="H128" s="3" t="n"/>
-      <c r="I128" s="51" t="n"/>
-      <c r="J128" s="51" t="n"/>
-      <c r="K128" s="51" t="n"/>
+      <c r="I128" s="52" t="n"/>
+      <c r="J128" s="52" t="n"/>
+      <c r="K128" s="52" t="n"/>
       <c r="L128" s="3" t="n"/>
       <c r="M128" s="3" t="n"/>
       <c r="N128" s="3" t="n"/>
@@ -9059,9 +9146,9 @@
       <c r="F129" s="3" t="n"/>
       <c r="G129" s="3" t="n"/>
       <c r="H129" s="3" t="n"/>
-      <c r="I129" s="51" t="n"/>
-      <c r="J129" s="51" t="n"/>
-      <c r="K129" s="51" t="n"/>
+      <c r="I129" s="52" t="n"/>
+      <c r="J129" s="52" t="n"/>
+      <c r="K129" s="52" t="n"/>
       <c r="L129" s="3" t="n"/>
       <c r="M129" s="3" t="n"/>
       <c r="N129" s="3" t="n"/>
@@ -9076,9 +9163,9 @@
       <c r="F130" s="3" t="n"/>
       <c r="G130" s="3" t="n"/>
       <c r="H130" s="3" t="n"/>
-      <c r="I130" s="51" t="n"/>
-      <c r="J130" s="51" t="n"/>
-      <c r="K130" s="51" t="n"/>
+      <c r="I130" s="52" t="n"/>
+      <c r="J130" s="52" t="n"/>
+      <c r="K130" s="52" t="n"/>
       <c r="L130" s="3" t="n"/>
       <c r="M130" s="3" t="n"/>
       <c r="N130" s="3" t="n"/>
@@ -9093,9 +9180,9 @@
       <c r="F131" s="3" t="n"/>
       <c r="G131" s="3" t="n"/>
       <c r="H131" s="3" t="n"/>
-      <c r="I131" s="51" t="n"/>
-      <c r="J131" s="51" t="n"/>
-      <c r="K131" s="51" t="n"/>
+      <c r="I131" s="52" t="n"/>
+      <c r="J131" s="52" t="n"/>
+      <c r="K131" s="52" t="n"/>
       <c r="L131" s="3" t="n"/>
       <c r="M131" s="3" t="n"/>
       <c r="N131" s="3" t="n"/>
@@ -9110,9 +9197,9 @@
       <c r="F132" s="3" t="n"/>
       <c r="G132" s="3" t="n"/>
       <c r="H132" s="3" t="n"/>
-      <c r="I132" s="51" t="n"/>
-      <c r="J132" s="51" t="n"/>
-      <c r="K132" s="51" t="n"/>
+      <c r="I132" s="52" t="n"/>
+      <c r="J132" s="52" t="n"/>
+      <c r="K132" s="52" t="n"/>
       <c r="L132" s="3" t="n"/>
       <c r="M132" s="3" t="n"/>
       <c r="N132" s="3" t="n"/>
@@ -9127,9 +9214,9 @@
       <c r="F133" s="3" t="n"/>
       <c r="G133" s="3" t="n"/>
       <c r="H133" s="3" t="n"/>
-      <c r="I133" s="51" t="n"/>
-      <c r="J133" s="51" t="n"/>
-      <c r="K133" s="51" t="n"/>
+      <c r="I133" s="52" t="n"/>
+      <c r="J133" s="52" t="n"/>
+      <c r="K133" s="52" t="n"/>
       <c r="L133" s="3" t="n"/>
       <c r="M133" s="3" t="n"/>
       <c r="N133" s="3" t="n"/>
@@ -9144,9 +9231,9 @@
       <c r="F134" s="3" t="n"/>
       <c r="G134" s="3" t="n"/>
       <c r="H134" s="3" t="n"/>
-      <c r="I134" s="51" t="n"/>
-      <c r="J134" s="51" t="n"/>
-      <c r="K134" s="51" t="n"/>
+      <c r="I134" s="52" t="n"/>
+      <c r="J134" s="52" t="n"/>
+      <c r="K134" s="52" t="n"/>
       <c r="L134" s="3" t="n"/>
       <c r="M134" s="3" t="n"/>
       <c r="N134" s="3" t="n"/>
@@ -9161,9 +9248,9 @@
       <c r="F135" s="3" t="n"/>
       <c r="G135" s="3" t="n"/>
       <c r="H135" s="3" t="n"/>
-      <c r="I135" s="51" t="n"/>
-      <c r="J135" s="51" t="n"/>
-      <c r="K135" s="51" t="n"/>
+      <c r="I135" s="52" t="n"/>
+      <c r="J135" s="52" t="n"/>
+      <c r="K135" s="52" t="n"/>
       <c r="L135" s="3" t="n"/>
       <c r="M135" s="3" t="n"/>
       <c r="N135" s="3" t="n"/>
@@ -9178,9 +9265,9 @@
       <c r="F136" s="3" t="n"/>
       <c r="G136" s="3" t="n"/>
       <c r="H136" s="3" t="n"/>
-      <c r="I136" s="51" t="n"/>
-      <c r="J136" s="51" t="n"/>
-      <c r="K136" s="51" t="n"/>
+      <c r="I136" s="52" t="n"/>
+      <c r="J136" s="52" t="n"/>
+      <c r="K136" s="52" t="n"/>
       <c r="L136" s="3" t="n"/>
       <c r="M136" s="3" t="n"/>
       <c r="N136" s="3" t="n"/>
@@ -9195,9 +9282,9 @@
       <c r="F137" s="3" t="n"/>
       <c r="G137" s="3" t="n"/>
       <c r="H137" s="3" t="n"/>
-      <c r="I137" s="51" t="n"/>
-      <c r="J137" s="51" t="n"/>
-      <c r="K137" s="51" t="n"/>
+      <c r="I137" s="52" t="n"/>
+      <c r="J137" s="52" t="n"/>
+      <c r="K137" s="52" t="n"/>
       <c r="L137" s="3" t="n"/>
       <c r="M137" s="3" t="n"/>
       <c r="N137" s="3" t="n"/>
@@ -9212,9 +9299,9 @@
       <c r="F138" s="3" t="n"/>
       <c r="G138" s="3" t="n"/>
       <c r="H138" s="3" t="n"/>
-      <c r="I138" s="51" t="n"/>
-      <c r="J138" s="51" t="n"/>
-      <c r="K138" s="51" t="n"/>
+      <c r="I138" s="52" t="n"/>
+      <c r="J138" s="52" t="n"/>
+      <c r="K138" s="52" t="n"/>
       <c r="L138" s="3" t="n"/>
       <c r="M138" s="3" t="n"/>
       <c r="N138" s="3" t="n"/>
@@ -9229,9 +9316,9 @@
       <c r="F139" s="3" t="n"/>
       <c r="G139" s="3" t="n"/>
       <c r="H139" s="3" t="n"/>
-      <c r="I139" s="51" t="n"/>
-      <c r="J139" s="51" t="n"/>
-      <c r="K139" s="51" t="n"/>
+      <c r="I139" s="52" t="n"/>
+      <c r="J139" s="52" t="n"/>
+      <c r="K139" s="52" t="n"/>
       <c r="L139" s="3" t="n"/>
       <c r="M139" s="3" t="n"/>
       <c r="N139" s="3" t="n"/>
@@ -9246,9 +9333,9 @@
       <c r="F140" s="3" t="n"/>
       <c r="G140" s="3" t="n"/>
       <c r="H140" s="3" t="n"/>
-      <c r="I140" s="51" t="n"/>
-      <c r="J140" s="51" t="n"/>
-      <c r="K140" s="51" t="n"/>
+      <c r="I140" s="52" t="n"/>
+      <c r="J140" s="52" t="n"/>
+      <c r="K140" s="52" t="n"/>
       <c r="L140" s="3" t="n"/>
       <c r="M140" s="3" t="n"/>
       <c r="N140" s="3" t="n"/>
@@ -9263,9 +9350,9 @@
       <c r="F141" s="3" t="n"/>
       <c r="G141" s="3" t="n"/>
       <c r="H141" s="3" t="n"/>
-      <c r="I141" s="51" t="n"/>
-      <c r="J141" s="51" t="n"/>
-      <c r="K141" s="51" t="n"/>
+      <c r="I141" s="52" t="n"/>
+      <c r="J141" s="52" t="n"/>
+      <c r="K141" s="52" t="n"/>
       <c r="L141" s="3" t="n"/>
       <c r="M141" s="3" t="n"/>
       <c r="N141" s="3" t="n"/>
@@ -9280,9 +9367,9 @@
       <c r="F142" s="3" t="n"/>
       <c r="G142" s="3" t="n"/>
       <c r="H142" s="3" t="n"/>
-      <c r="I142" s="51" t="n"/>
-      <c r="J142" s="51" t="n"/>
-      <c r="K142" s="51" t="n"/>
+      <c r="I142" s="52" t="n"/>
+      <c r="J142" s="52" t="n"/>
+      <c r="K142" s="52" t="n"/>
       <c r="L142" s="3" t="n"/>
       <c r="M142" s="3" t="n"/>
       <c r="N142" s="3" t="n"/>
@@ -9297,9 +9384,9 @@
       <c r="F143" s="3" t="n"/>
       <c r="G143" s="3" t="n"/>
       <c r="H143" s="3" t="n"/>
-      <c r="I143" s="51" t="n"/>
-      <c r="J143" s="51" t="n"/>
-      <c r="K143" s="51" t="n"/>
+      <c r="I143" s="52" t="n"/>
+      <c r="J143" s="52" t="n"/>
+      <c r="K143" s="52" t="n"/>
       <c r="L143" s="3" t="n"/>
       <c r="M143" s="3" t="n"/>
       <c r="N143" s="3" t="n"/>
@@ -9314,9 +9401,9 @@
       <c r="F144" s="3" t="n"/>
       <c r="G144" s="3" t="n"/>
       <c r="H144" s="3" t="n"/>
-      <c r="I144" s="51" t="n"/>
-      <c r="J144" s="51" t="n"/>
-      <c r="K144" s="51" t="n"/>
+      <c r="I144" s="52" t="n"/>
+      <c r="J144" s="52" t="n"/>
+      <c r="K144" s="52" t="n"/>
       <c r="L144" s="3" t="n"/>
       <c r="M144" s="3" t="n"/>
       <c r="N144" s="3" t="n"/>
@@ -9331,9 +9418,9 @@
       <c r="F145" s="3" t="n"/>
       <c r="G145" s="3" t="n"/>
       <c r="H145" s="3" t="n"/>
-      <c r="I145" s="51" t="n"/>
-      <c r="J145" s="51" t="n"/>
-      <c r="K145" s="51" t="n"/>
+      <c r="I145" s="52" t="n"/>
+      <c r="J145" s="52" t="n"/>
+      <c r="K145" s="52" t="n"/>
       <c r="L145" s="3" t="n"/>
       <c r="M145" s="3" t="n"/>
       <c r="N145" s="3" t="n"/>
@@ -9348,9 +9435,9 @@
       <c r="F146" s="3" t="n"/>
       <c r="G146" s="3" t="n"/>
       <c r="H146" s="3" t="n"/>
-      <c r="I146" s="51" t="n"/>
-      <c r="J146" s="51" t="n"/>
-      <c r="K146" s="51" t="n"/>
+      <c r="I146" s="52" t="n"/>
+      <c r="J146" s="52" t="n"/>
+      <c r="K146" s="52" t="n"/>
       <c r="L146" s="3" t="n"/>
       <c r="M146" s="3" t="n"/>
       <c r="N146" s="3" t="n"/>
@@ -9365,9 +9452,9 @@
       <c r="F147" s="3" t="n"/>
       <c r="G147" s="3" t="n"/>
       <c r="H147" s="3" t="n"/>
-      <c r="I147" s="51" t="n"/>
-      <c r="J147" s="51" t="n"/>
-      <c r="K147" s="51" t="n"/>
+      <c r="I147" s="52" t="n"/>
+      <c r="J147" s="52" t="n"/>
+      <c r="K147" s="52" t="n"/>
       <c r="L147" s="3" t="n"/>
       <c r="M147" s="3" t="n"/>
       <c r="N147" s="3" t="n"/>
@@ -9382,9 +9469,9 @@
       <c r="F148" s="3" t="n"/>
       <c r="G148" s="3" t="n"/>
       <c r="H148" s="3" t="n"/>
-      <c r="I148" s="51" t="n"/>
-      <c r="J148" s="51" t="n"/>
-      <c r="K148" s="51" t="n"/>
+      <c r="I148" s="52" t="n"/>
+      <c r="J148" s="52" t="n"/>
+      <c r="K148" s="52" t="n"/>
       <c r="L148" s="3" t="n"/>
       <c r="M148" s="3" t="n"/>
       <c r="N148" s="3" t="n"/>
@@ -9399,9 +9486,9 @@
       <c r="F149" s="3" t="n"/>
       <c r="G149" s="3" t="n"/>
       <c r="H149" s="3" t="n"/>
-      <c r="I149" s="51" t="n"/>
-      <c r="J149" s="51" t="n"/>
-      <c r="K149" s="51" t="n"/>
+      <c r="I149" s="52" t="n"/>
+      <c r="J149" s="52" t="n"/>
+      <c r="K149" s="52" t="n"/>
       <c r="L149" s="3" t="n"/>
       <c r="M149" s="3" t="n"/>
       <c r="N149" s="3" t="n"/>
@@ -9416,9 +9503,9 @@
       <c r="F150" s="3" t="n"/>
       <c r="G150" s="3" t="n"/>
       <c r="H150" s="3" t="n"/>
-      <c r="I150" s="51" t="n"/>
-      <c r="J150" s="51" t="n"/>
-      <c r="K150" s="51" t="n"/>
+      <c r="I150" s="52" t="n"/>
+      <c r="J150" s="52" t="n"/>
+      <c r="K150" s="52" t="n"/>
       <c r="L150" s="3" t="n"/>
       <c r="M150" s="3" t="n"/>
       <c r="N150" s="3" t="n"/>
@@ -9433,9 +9520,9 @@
       <c r="F151" s="3" t="n"/>
       <c r="G151" s="3" t="n"/>
       <c r="H151" s="3" t="n"/>
-      <c r="I151" s="51" t="n"/>
-      <c r="J151" s="51" t="n"/>
-      <c r="K151" s="51" t="n"/>
+      <c r="I151" s="52" t="n"/>
+      <c r="J151" s="52" t="n"/>
+      <c r="K151" s="52" t="n"/>
       <c r="L151" s="3" t="n"/>
       <c r="M151" s="3" t="n"/>
       <c r="N151" s="3" t="n"/>
@@ -9450,9 +9537,9 @@
       <c r="F152" s="3" t="n"/>
       <c r="G152" s="3" t="n"/>
       <c r="H152" s="3" t="n"/>
-      <c r="I152" s="51" t="n"/>
-      <c r="J152" s="51" t="n"/>
-      <c r="K152" s="51" t="n"/>
+      <c r="I152" s="52" t="n"/>
+      <c r="J152" s="52" t="n"/>
+      <c r="K152" s="52" t="n"/>
       <c r="L152" s="3" t="n"/>
       <c r="M152" s="3" t="n"/>
       <c r="N152" s="3" t="n"/>
@@ -9467,9 +9554,9 @@
       <c r="F153" s="3" t="n"/>
       <c r="G153" s="3" t="n"/>
       <c r="H153" s="3" t="n"/>
-      <c r="I153" s="51" t="n"/>
-      <c r="J153" s="51" t="n"/>
-      <c r="K153" s="51" t="n"/>
+      <c r="I153" s="52" t="n"/>
+      <c r="J153" s="52" t="n"/>
+      <c r="K153" s="52" t="n"/>
       <c r="L153" s="3" t="n"/>
       <c r="M153" s="3" t="n"/>
       <c r="N153" s="3" t="n"/>
@@ -9484,9 +9571,9 @@
       <c r="F154" s="3" t="n"/>
       <c r="G154" s="3" t="n"/>
       <c r="H154" s="3" t="n"/>
-      <c r="I154" s="51" t="n"/>
-      <c r="J154" s="51" t="n"/>
-      <c r="K154" s="51" t="n"/>
+      <c r="I154" s="52" t="n"/>
+      <c r="J154" s="52" t="n"/>
+      <c r="K154" s="52" t="n"/>
       <c r="L154" s="3" t="n"/>
       <c r="M154" s="3" t="n"/>
       <c r="N154" s="3" t="n"/>
@@ -9501,9 +9588,9 @@
       <c r="F155" s="3" t="n"/>
       <c r="G155" s="3" t="n"/>
       <c r="H155" s="3" t="n"/>
-      <c r="I155" s="51" t="n"/>
-      <c r="J155" s="51" t="n"/>
-      <c r="K155" s="51" t="n"/>
+      <c r="I155" s="52" t="n"/>
+      <c r="J155" s="52" t="n"/>
+      <c r="K155" s="52" t="n"/>
       <c r="L155" s="3" t="n"/>
       <c r="M155" s="3" t="n"/>
       <c r="N155" s="3" t="n"/>
@@ -9518,9 +9605,9 @@
       <c r="F156" s="3" t="n"/>
       <c r="G156" s="3" t="n"/>
       <c r="H156" s="3" t="n"/>
-      <c r="I156" s="51" t="n"/>
-      <c r="J156" s="51" t="n"/>
-      <c r="K156" s="51" t="n"/>
+      <c r="I156" s="52" t="n"/>
+      <c r="J156" s="52" t="n"/>
+      <c r="K156" s="52" t="n"/>
       <c r="L156" s="3" t="n"/>
       <c r="M156" s="3" t="n"/>
       <c r="N156" s="3" t="n"/>
@@ -9535,9 +9622,9 @@
       <c r="F157" s="3" t="n"/>
       <c r="G157" s="3" t="n"/>
       <c r="H157" s="3" t="n"/>
-      <c r="I157" s="51" t="n"/>
-      <c r="J157" s="51" t="n"/>
-      <c r="K157" s="51" t="n"/>
+      <c r="I157" s="52" t="n"/>
+      <c r="J157" s="52" t="n"/>
+      <c r="K157" s="52" t="n"/>
       <c r="L157" s="3" t="n"/>
       <c r="M157" s="3" t="n"/>
       <c r="N157" s="3" t="n"/>
@@ -9552,9 +9639,9 @@
       <c r="F158" s="3" t="n"/>
       <c r="G158" s="3" t="n"/>
       <c r="H158" s="3" t="n"/>
-      <c r="I158" s="51" t="n"/>
-      <c r="J158" s="51" t="n"/>
-      <c r="K158" s="51" t="n"/>
+      <c r="I158" s="52" t="n"/>
+      <c r="J158" s="52" t="n"/>
+      <c r="K158" s="52" t="n"/>
       <c r="L158" s="3" t="n"/>
       <c r="M158" s="3" t="n"/>
       <c r="N158" s="3" t="n"/>
@@ -9569,9 +9656,9 @@
       <c r="F159" s="3" t="n"/>
       <c r="G159" s="3" t="n"/>
       <c r="H159" s="3" t="n"/>
-      <c r="I159" s="51" t="n"/>
-      <c r="J159" s="51" t="n"/>
-      <c r="K159" s="51" t="n"/>
+      <c r="I159" s="52" t="n"/>
+      <c r="J159" s="52" t="n"/>
+      <c r="K159" s="52" t="n"/>
       <c r="L159" s="3" t="n"/>
       <c r="M159" s="3" t="n"/>
       <c r="N159" s="3" t="n"/>
@@ -9586,9 +9673,9 @@
       <c r="F160" s="3" t="n"/>
       <c r="G160" s="3" t="n"/>
       <c r="H160" s="3" t="n"/>
-      <c r="I160" s="51" t="n"/>
-      <c r="J160" s="51" t="n"/>
-      <c r="K160" s="51" t="n"/>
+      <c r="I160" s="52" t="n"/>
+      <c r="J160" s="52" t="n"/>
+      <c r="K160" s="52" t="n"/>
       <c r="L160" s="3" t="n"/>
       <c r="M160" s="3" t="n"/>
       <c r="N160" s="3" t="n"/>
@@ -9603,9 +9690,9 @@
       <c r="F161" s="3" t="n"/>
       <c r="G161" s="3" t="n"/>
       <c r="H161" s="3" t="n"/>
-      <c r="I161" s="51" t="n"/>
-      <c r="J161" s="51" t="n"/>
-      <c r="K161" s="51" t="n"/>
+      <c r="I161" s="52" t="n"/>
+      <c r="J161" s="52" t="n"/>
+      <c r="K161" s="52" t="n"/>
       <c r="L161" s="3" t="n"/>
       <c r="M161" s="3" t="n"/>
       <c r="N161" s="3" t="n"/>
@@ -9620,9 +9707,9 @@
       <c r="F162" s="3" t="n"/>
       <c r="G162" s="3" t="n"/>
       <c r="H162" s="3" t="n"/>
-      <c r="I162" s="51" t="n"/>
-      <c r="J162" s="51" t="n"/>
-      <c r="K162" s="51" t="n"/>
+      <c r="I162" s="52" t="n"/>
+      <c r="J162" s="52" t="n"/>
+      <c r="K162" s="52" t="n"/>
       <c r="L162" s="3" t="n"/>
       <c r="M162" s="3" t="n"/>
       <c r="N162" s="3" t="n"/>
@@ -9637,9 +9724,9 @@
       <c r="F163" s="3" t="n"/>
       <c r="G163" s="3" t="n"/>
       <c r="H163" s="3" t="n"/>
-      <c r="I163" s="51" t="n"/>
-      <c r="J163" s="51" t="n"/>
-      <c r="K163" s="51" t="n"/>
+      <c r="I163" s="52" t="n"/>
+      <c r="J163" s="52" t="n"/>
+      <c r="K163" s="52" t="n"/>
       <c r="L163" s="3" t="n"/>
       <c r="M163" s="3" t="n"/>
       <c r="N163" s="3" t="n"/>
@@ -9654,9 +9741,9 @@
       <c r="F164" s="3" t="n"/>
       <c r="G164" s="3" t="n"/>
       <c r="H164" s="3" t="n"/>
-      <c r="I164" s="51" t="n"/>
-      <c r="J164" s="51" t="n"/>
-      <c r="K164" s="51" t="n"/>
+      <c r="I164" s="52" t="n"/>
+      <c r="J164" s="52" t="n"/>
+      <c r="K164" s="52" t="n"/>
       <c r="L164" s="3" t="n"/>
       <c r="M164" s="3" t="n"/>
       <c r="N164" s="3" t="n"/>
@@ -9671,9 +9758,9 @@
       <c r="F165" s="3" t="n"/>
       <c r="G165" s="3" t="n"/>
       <c r="H165" s="3" t="n"/>
-      <c r="I165" s="51" t="n"/>
-      <c r="J165" s="51" t="n"/>
-      <c r="K165" s="51" t="n"/>
+      <c r="I165" s="52" t="n"/>
+      <c r="J165" s="52" t="n"/>
+      <c r="K165" s="52" t="n"/>
       <c r="L165" s="3" t="n"/>
       <c r="M165" s="3" t="n"/>
       <c r="N165" s="3" t="n"/>
@@ -9688,9 +9775,9 @@
       <c r="F166" s="3" t="n"/>
       <c r="G166" s="3" t="n"/>
       <c r="H166" s="3" t="n"/>
-      <c r="I166" s="51" t="n"/>
-      <c r="J166" s="51" t="n"/>
-      <c r="K166" s="51" t="n"/>
+      <c r="I166" s="52" t="n"/>
+      <c r="J166" s="52" t="n"/>
+      <c r="K166" s="52" t="n"/>
       <c r="L166" s="3" t="n"/>
       <c r="M166" s="3" t="n"/>
       <c r="N166" s="3" t="n"/>
@@ -9705,9 +9792,9 @@
       <c r="F167" s="3" t="n"/>
       <c r="G167" s="3" t="n"/>
       <c r="H167" s="3" t="n"/>
-      <c r="I167" s="51" t="n"/>
-      <c r="J167" s="51" t="n"/>
-      <c r="K167" s="51" t="n"/>
+      <c r="I167" s="52" t="n"/>
+      <c r="J167" s="52" t="n"/>
+      <c r="K167" s="52" t="n"/>
       <c r="L167" s="3" t="n"/>
       <c r="M167" s="3" t="n"/>
       <c r="N167" s="3" t="n"/>
@@ -9722,9 +9809,9 @@
       <c r="F168" s="3" t="n"/>
       <c r="G168" s="3" t="n"/>
       <c r="H168" s="3" t="n"/>
-      <c r="I168" s="51" t="n"/>
-      <c r="J168" s="51" t="n"/>
-      <c r="K168" s="51" t="n"/>
+      <c r="I168" s="52" t="n"/>
+      <c r="J168" s="52" t="n"/>
+      <c r="K168" s="52" t="n"/>
       <c r="L168" s="3" t="n"/>
       <c r="M168" s="3" t="n"/>
       <c r="N168" s="3" t="n"/>
@@ -9739,9 +9826,9 @@
       <c r="F169" s="3" t="n"/>
       <c r="G169" s="3" t="n"/>
       <c r="H169" s="3" t="n"/>
-      <c r="I169" s="51" t="n"/>
-      <c r="J169" s="51" t="n"/>
-      <c r="K169" s="51" t="n"/>
+      <c r="I169" s="52" t="n"/>
+      <c r="J169" s="52" t="n"/>
+      <c r="K169" s="52" t="n"/>
       <c r="L169" s="3" t="n"/>
       <c r="M169" s="3" t="n"/>
       <c r="N169" s="3" t="n"/>
@@ -9756,9 +9843,9 @@
       <c r="F170" s="3" t="n"/>
       <c r="G170" s="3" t="n"/>
       <c r="H170" s="3" t="n"/>
-      <c r="I170" s="51" t="n"/>
-      <c r="J170" s="51" t="n"/>
-      <c r="K170" s="51" t="n"/>
+      <c r="I170" s="52" t="n"/>
+      <c r="J170" s="52" t="n"/>
+      <c r="K170" s="52" t="n"/>
       <c r="L170" s="3" t="n"/>
       <c r="M170" s="3" t="n"/>
       <c r="N170" s="3" t="n"/>
@@ -9773,9 +9860,9 @@
       <c r="F171" s="3" t="n"/>
       <c r="G171" s="3" t="n"/>
       <c r="H171" s="3" t="n"/>
-      <c r="I171" s="51" t="n"/>
-      <c r="J171" s="51" t="n"/>
-      <c r="K171" s="51" t="n"/>
+      <c r="I171" s="52" t="n"/>
+      <c r="J171" s="52" t="n"/>
+      <c r="K171" s="52" t="n"/>
       <c r="L171" s="3" t="n"/>
       <c r="M171" s="3" t="n"/>
       <c r="N171" s="3" t="n"/>
@@ -9790,9 +9877,9 @@
       <c r="F172" s="3" t="n"/>
       <c r="G172" s="3" t="n"/>
       <c r="H172" s="3" t="n"/>
-      <c r="I172" s="51" t="n"/>
-      <c r="J172" s="51" t="n"/>
-      <c r="K172" s="51" t="n"/>
+      <c r="I172" s="52" t="n"/>
+      <c r="J172" s="52" t="n"/>
+      <c r="K172" s="52" t="n"/>
       <c r="L172" s="3" t="n"/>
       <c r="M172" s="3" t="n"/>
       <c r="N172" s="3" t="n"/>
@@ -9807,9 +9894,9 @@
       <c r="F173" s="3" t="n"/>
       <c r="G173" s="3" t="n"/>
       <c r="H173" s="3" t="n"/>
-      <c r="I173" s="51" t="n"/>
-      <c r="J173" s="51" t="n"/>
-      <c r="K173" s="51" t="n"/>
+      <c r="I173" s="52" t="n"/>
+      <c r="J173" s="52" t="n"/>
+      <c r="K173" s="52" t="n"/>
       <c r="L173" s="3" t="n"/>
       <c r="M173" s="3" t="n"/>
       <c r="N173" s="3" t="n"/>
@@ -9824,9 +9911,9 @@
       <c r="F174" s="3" t="n"/>
       <c r="G174" s="3" t="n"/>
       <c r="H174" s="3" t="n"/>
-      <c r="I174" s="51" t="n"/>
-      <c r="J174" s="51" t="n"/>
-      <c r="K174" s="51" t="n"/>
+      <c r="I174" s="52" t="n"/>
+      <c r="J174" s="52" t="n"/>
+      <c r="K174" s="52" t="n"/>
       <c r="L174" s="3" t="n"/>
       <c r="M174" s="3" t="n"/>
       <c r="N174" s="3" t="n"/>
@@ -9841,9 +9928,9 @@
       <c r="F175" s="3" t="n"/>
       <c r="G175" s="3" t="n"/>
       <c r="H175" s="3" t="n"/>
-      <c r="I175" s="51" t="n"/>
-      <c r="J175" s="51" t="n"/>
-      <c r="K175" s="51" t="n"/>
+      <c r="I175" s="52" t="n"/>
+      <c r="J175" s="52" t="n"/>
+      <c r="K175" s="52" t="n"/>
       <c r="L175" s="3" t="n"/>
       <c r="M175" s="3" t="n"/>
       <c r="N175" s="3" t="n"/>
@@ -9858,9 +9945,9 @@
       <c r="F176" s="3" t="n"/>
       <c r="G176" s="3" t="n"/>
       <c r="H176" s="3" t="n"/>
-      <c r="I176" s="51" t="n"/>
-      <c r="J176" s="51" t="n"/>
-      <c r="K176" s="51" t="n"/>
+      <c r="I176" s="52" t="n"/>
+      <c r="J176" s="52" t="n"/>
+      <c r="K176" s="52" t="n"/>
       <c r="L176" s="3" t="n"/>
       <c r="M176" s="3" t="n"/>
       <c r="N176" s="3" t="n"/>
@@ -9875,9 +9962,9 @@
       <c r="F177" s="3" t="n"/>
       <c r="G177" s="3" t="n"/>
       <c r="H177" s="3" t="n"/>
-      <c r="I177" s="51" t="n"/>
-      <c r="J177" s="51" t="n"/>
-      <c r="K177" s="51" t="n"/>
+      <c r="I177" s="52" t="n"/>
+      <c r="J177" s="52" t="n"/>
+      <c r="K177" s="52" t="n"/>
       <c r="L177" s="3" t="n"/>
       <c r="M177" s="3" t="n"/>
       <c r="N177" s="3" t="n"/>
@@ -9892,9 +9979,9 @@
       <c r="F178" s="3" t="n"/>
       <c r="G178" s="3" t="n"/>
       <c r="H178" s="3" t="n"/>
-      <c r="I178" s="51" t="n"/>
-      <c r="J178" s="51" t="n"/>
-      <c r="K178" s="51" t="n"/>
+      <c r="I178" s="52" t="n"/>
+      <c r="J178" s="52" t="n"/>
+      <c r="K178" s="52" t="n"/>
       <c r="L178" s="3" t="n"/>
       <c r="M178" s="3" t="n"/>
       <c r="N178" s="3" t="n"/>
@@ -9909,9 +9996,9 @@
       <c r="F179" s="3" t="n"/>
       <c r="G179" s="3" t="n"/>
       <c r="H179" s="3" t="n"/>
-      <c r="I179" s="51" t="n"/>
-      <c r="J179" s="51" t="n"/>
-      <c r="K179" s="51" t="n"/>
+      <c r="I179" s="52" t="n"/>
+      <c r="J179" s="52" t="n"/>
+      <c r="K179" s="52" t="n"/>
       <c r="L179" s="3" t="n"/>
       <c r="M179" s="3" t="n"/>
       <c r="N179" s="3" t="n"/>
@@ -12386,1614 +12473,1614 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="inlineStr">
+      <c r="A1" s="53" t="inlineStr">
         <is>
           <t>鱼种</t>
         </is>
       </c>
-      <c r="B1" s="52" t="inlineStr">
+      <c r="B1" s="53" t="inlineStr">
         <is>
           <t>品质</t>
         </is>
       </c>
-      <c r="C1" s="52" t="inlineStr">
+      <c r="C1" s="53" t="inlineStr">
         <is>
           <t>钓场</t>
         </is>
       </c>
-      <c r="D1" s="52" t="inlineStr">
+      <c r="D1" s="53" t="inlineStr">
         <is>
           <t>等阶</t>
         </is>
       </c>
-      <c r="E1" s="52" t="inlineStr">
+      <c r="E1" s="53" t="inlineStr">
         <is>
           <t>随机权重</t>
         </is>
       </c>
-      <c r="F1" s="52" t="inlineStr">
+      <c r="F1" s="53" t="inlineStr">
         <is>
           <t>最小长度</t>
         </is>
       </c>
-      <c r="G1" s="52" t="inlineStr">
+      <c r="G1" s="53" t="inlineStr">
         <is>
           <t>最大长度</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="inlineStr">
+      <c r="A2" s="54" t="inlineStr">
         <is>
           <t>Alewife</t>
         </is>
       </c>
-      <c r="B2" s="53" t="inlineStr">
+      <c r="B2" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C2" s="53" t="n">
+      <c r="C2" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="n">
+      <c r="D2" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="53" t="n">
+      <c r="E2" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="53" t="inlineStr">
+      <c r="A3" s="54" t="inlineStr">
         <is>
           <t>Alewife</t>
         </is>
       </c>
-      <c r="B3" s="53" t="inlineStr">
+      <c r="B3" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C3" s="53" t="n">
+      <c r="C3" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="53" t="n">
+      <c r="D3" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="53" t="inlineStr">
+      <c r="A4" s="54" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B4" s="53" t="inlineStr">
+      <c r="B4" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C4" s="53" t="n">
+      <c r="C4" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="53" t="n">
+      <c r="D4" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="53" t="n">
+      <c r="E4" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="53" t="inlineStr">
+      <c r="A5" s="54" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B5" s="53" t="inlineStr">
+      <c r="B5" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C5" s="53" t="n">
+      <c r="C5" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="53" t="n">
+      <c r="D5" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="53" t="n">
+      <c r="E5" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="53" t="inlineStr">
+      <c r="A6" s="54" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
         </is>
       </c>
-      <c r="B6" s="53" t="inlineStr">
+      <c r="B6" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C6" s="53" t="n">
+      <c r="C6" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="53" t="n">
+      <c r="D6" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="53" t="n">
+      <c r="E6" s="54" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="53" t="inlineStr">
+      <c r="A7" s="54" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
         </is>
       </c>
-      <c r="B7" s="53" t="inlineStr">
+      <c r="B7" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C7" s="53" t="n">
+      <c r="C7" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="53" t="n">
+      <c r="D7" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="54" t="n">
         <v>600</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="53" t="inlineStr">
+      <c r="A8" s="54" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
-      <c r="B8" s="53" t="inlineStr">
+      <c r="B8" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C8" s="53" t="n">
+      <c r="C8" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="53" t="n">
+      <c r="D8" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="53" t="n">
+      <c r="E8" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="53" t="inlineStr">
+      <c r="A9" s="54" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
-      <c r="B9" s="53" t="inlineStr">
+      <c r="B9" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C9" s="53" t="n">
+      <c r="C9" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="53" t="n">
+      <c r="D9" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="53" t="n">
+      <c r="E9" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="53" t="inlineStr">
+      <c r="A10" s="54" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B10" s="53" t="inlineStr">
+      <c r="B10" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C10" s="53" t="n">
+      <c r="C10" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="53" t="n">
+      <c r="D10" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="53" t="n">
+      <c r="E10" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="53" t="inlineStr">
+      <c r="A11" s="54" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B11" s="53" t="inlineStr">
+      <c r="B11" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C11" s="53" t="n">
+      <c r="C11" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="53" t="n">
+      <c r="D11" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="53" t="n">
+      <c r="E11" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="53" t="inlineStr">
+      <c r="A12" s="54" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B12" s="53" t="inlineStr">
+      <c r="B12" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C12" s="53" t="n">
+      <c r="C12" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="53" t="n">
+      <c r="D12" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="53" t="n">
+      <c r="E12" s="54" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="53" t="inlineStr">
+      <c r="A13" s="54" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B13" s="53" t="inlineStr">
+      <c r="B13" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C13" s="53" t="n">
+      <c r="C13" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="53" t="n">
+      <c r="D13" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="53" t="n">
+      <c r="E13" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="53" t="inlineStr">
+      <c r="A14" s="54" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B14" s="53" t="inlineStr">
+      <c r="B14" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C14" s="53" t="n">
+      <c r="C14" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="53" t="n">
+      <c r="D14" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="53" t="n">
+      <c r="E14" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="53" t="inlineStr">
+      <c r="A15" s="54" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B15" s="53" t="inlineStr">
+      <c r="B15" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C15" s="53" t="n">
+      <c r="C15" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="53" t="n">
+      <c r="D15" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="53" t="n">
+      <c r="E15" s="54" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="53" t="inlineStr">
+      <c r="A16" s="54" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B16" s="53" t="inlineStr">
+      <c r="B16" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C16" s="53" t="n">
+      <c r="C16" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="53" t="n">
+      <c r="D16" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E16" s="53" t="n">
+      <c r="E16" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="53" t="inlineStr">
+      <c r="A17" s="54" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B17" s="53" t="inlineStr">
+      <c r="B17" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C17" s="53" t="n">
+      <c r="C17" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="53" t="n">
+      <c r="D17" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="53" t="n">
+      <c r="E17" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="53" t="inlineStr">
+      <c r="A18" s="54" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B18" s="53" t="inlineStr">
+      <c r="B18" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C18" s="53" t="n">
+      <c r="C18" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="53" t="n">
+      <c r="D18" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="53" t="n">
+      <c r="E18" s="54" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="53" t="inlineStr">
+      <c r="A19" s="54" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
         </is>
       </c>
-      <c r="B19" s="53" t="inlineStr">
+      <c r="B19" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C19" s="53" t="n">
+      <c r="C19" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="53" t="n">
+      <c r="D19" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="53" t="n">
+      <c r="E19" s="54" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="53" t="inlineStr">
+      <c r="A20" s="54" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B20" s="53" t="inlineStr">
+      <c r="B20" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C20" s="53" t="n">
+      <c r="C20" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="53" t="n">
+      <c r="D20" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="53" t="n">
+      <c r="E20" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="inlineStr">
+      <c r="A21" s="54" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B21" s="53" t="inlineStr">
+      <c r="B21" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C21" s="53" t="n">
+      <c r="C21" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="53" t="n">
+      <c r="D21" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="53" t="n">
+      <c r="E21" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="inlineStr">
+      <c r="A22" s="54" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B22" s="53" t="inlineStr">
+      <c r="B22" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C22" s="53" t="n">
+      <c r="C22" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="53" t="n">
+      <c r="D22" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E22" s="53" t="n">
+      <c r="E22" s="54" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="53" t="inlineStr">
+      <c r="A23" s="54" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
       </c>
-      <c r="B23" s="53" t="inlineStr">
+      <c r="B23" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C23" s="53" t="n">
+      <c r="C23" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="53" t="n">
+      <c r="D23" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E23" s="53" t="n">
+      <c r="E23" s="54" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="53" t="inlineStr">
+      <c r="A24" s="54" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B24" s="53" t="inlineStr">
+      <c r="B24" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C24" s="53" t="n">
+      <c r="C24" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="53" t="n">
+      <c r="D24" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="53" t="n">
+      <c r="E24" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="53" t="inlineStr">
+      <c r="A25" s="54" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B25" s="53" t="inlineStr">
+      <c r="B25" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C25" s="53" t="n">
+      <c r="C25" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="53" t="n">
+      <c r="D25" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="53" t="n">
+      <c r="E25" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="53" t="inlineStr">
+      <c r="A26" s="54" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B26" s="53" t="inlineStr">
+      <c r="B26" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C26" s="53" t="n">
+      <c r="C26" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="53" t="n">
+      <c r="D26" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E26" s="53" t="n">
+      <c r="E26" s="54" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="53" t="inlineStr">
+      <c r="A27" s="54" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
         </is>
       </c>
-      <c r="B27" s="53" t="inlineStr">
+      <c r="B27" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C27" s="53" t="n">
+      <c r="C27" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="53" t="n">
+      <c r="D27" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E27" s="53" t="n">
+      <c r="E27" s="54" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="53" t="inlineStr">
+      <c r="A28" s="54" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B28" s="53" t="inlineStr">
+      <c r="B28" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C28" s="53" t="n">
+      <c r="C28" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="53" t="n">
+      <c r="D28" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="53" t="n">
+      <c r="E28" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="53" t="inlineStr">
+      <c r="A29" s="54" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B29" s="53" t="inlineStr">
+      <c r="B29" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C29" s="53" t="n">
+      <c r="C29" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="53" t="n">
+      <c r="D29" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E29" s="53" t="n">
+      <c r="E29" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="53" t="inlineStr">
+      <c r="A30" s="54" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B30" s="53" t="inlineStr">
+      <c r="B30" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C30" s="53" t="n">
+      <c r="C30" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="53" t="n">
+      <c r="D30" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="53" t="n">
+      <c r="E30" s="54" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="53" t="inlineStr">
+      <c r="A31" s="54" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B31" s="53" t="inlineStr">
+      <c r="B31" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C31" s="53" t="n">
+      <c r="C31" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="53" t="n">
+      <c r="D31" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E31" s="53" t="n">
+      <c r="E31" s="54" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="53" t="inlineStr">
+      <c r="A32" s="54" t="inlineStr">
         <is>
           <t>Tench</t>
         </is>
       </c>
-      <c r="B32" s="53" t="inlineStr">
+      <c r="B32" s="54" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C32" s="53" t="n">
+      <c r="C32" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="53" t="n">
+      <c r="D32" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E32" s="53" t="n">
+      <c r="E32" s="54" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="53" t="inlineStr">
+      <c r="A33" s="54" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B33" s="53" t="inlineStr">
+      <c r="B33" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C33" s="53" t="n">
+      <c r="C33" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="53" t="n">
+      <c r="D33" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E33" s="53" t="n">
+      <c r="E33" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="53" t="inlineStr">
+      <c r="A34" s="54" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B34" s="53" t="inlineStr">
+      <c r="B34" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C34" s="53" t="n">
+      <c r="C34" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="53" t="n">
+      <c r="D34" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E34" s="53" t="n">
+      <c r="E34" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="53" t="inlineStr">
+      <c r="A35" s="54" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B35" s="53" t="inlineStr">
+      <c r="B35" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C35" s="53" t="n">
+      <c r="C35" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="53" t="n">
+      <c r="D35" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E35" s="53" t="n">
+      <c r="E35" s="54" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="53" t="inlineStr">
+      <c r="A36" s="54" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B36" s="53" t="inlineStr">
+      <c r="B36" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C36" s="53" t="n">
+      <c r="C36" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="53" t="n">
+      <c r="D36" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E36" s="53" t="n">
+      <c r="E36" s="54" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="53" t="inlineStr">
+      <c r="A37" s="54" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
         </is>
       </c>
-      <c r="B37" s="53" t="inlineStr">
+      <c r="B37" s="54" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C37" s="53" t="n">
+      <c r="C37" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="53" t="n">
+      <c r="D37" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E37" s="53" t="n">
+      <c r="E37" s="54" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="inlineStr">
+      <c r="A38" s="54" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B38" s="53" t="inlineStr">
+      <c r="B38" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C38" s="53" t="n">
+      <c r="C38" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="53" t="n">
+      <c r="D38" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E38" s="53" t="n">
+      <c r="E38" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="53" t="inlineStr">
+      <c r="A39" s="54" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
         </is>
       </c>
-      <c r="B39" s="53" t="inlineStr">
+      <c r="B39" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C39" s="53" t="n">
+      <c r="C39" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="53" t="n">
+      <c r="D39" s="54" t="n">
         <v>1</v>
       </c>
-      <c r="E39" s="53" t="n">
+      <c r="E39" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="53" t="inlineStr">
+      <c r="A40" s="54" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B40" s="53" t="inlineStr">
+      <c r="B40" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C40" s="53" t="n">
+      <c r="C40" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="53" t="n">
+      <c r="D40" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="53" t="n">
+      <c r="E40" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="inlineStr">
+      <c r="A41" s="54" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B41" s="53" t="inlineStr">
+      <c r="B41" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C41" s="53" t="n">
+      <c r="C41" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="53" t="n">
+      <c r="D41" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E41" s="53" t="n">
+      <c r="E41" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="53" t="inlineStr">
+      <c r="A42" s="54" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
         </is>
       </c>
-      <c r="B42" s="53" t="inlineStr">
+      <c r="B42" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C42" s="53" t="n">
+      <c r="C42" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D42" s="53" t="n">
+      <c r="D42" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E42" s="53" t="n">
+      <c r="E42" s="54" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="53" t="inlineStr">
+      <c r="A43" s="54" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B43" s="53" t="inlineStr">
+      <c r="B43" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C43" s="53" t="n">
+      <c r="C43" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="53" t="n">
+      <c r="D43" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E43" s="53" t="n">
+      <c r="E43" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="53" t="inlineStr">
+      <c r="A44" s="54" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B44" s="53" t="inlineStr">
+      <c r="B44" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C44" s="53" t="n">
+      <c r="C44" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="53" t="n">
+      <c r="D44" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E44" s="53" t="n">
+      <c r="E44" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="inlineStr">
+      <c r="A45" s="54" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
         </is>
       </c>
-      <c r="B45" s="53" t="inlineStr">
+      <c r="B45" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C45" s="53" t="n">
+      <c r="C45" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D45" s="53" t="n">
+      <c r="D45" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E45" s="53" t="n">
+      <c r="E45" s="54" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="53" t="inlineStr">
+      <c r="A46" s="54" t="inlineStr">
         <is>
           <t>American_Shad</t>
         </is>
       </c>
-      <c r="B46" s="53" t="inlineStr">
+      <c r="B46" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C46" s="53" t="n">
+      <c r="C46" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="53" t="n">
+      <c r="D46" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E46" s="53" t="n">
+      <c r="E46" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="inlineStr">
+      <c r="A47" s="54" t="inlineStr">
         <is>
           <t>American_Shad</t>
         </is>
       </c>
-      <c r="B47" s="53" t="inlineStr">
+      <c r="B47" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C47" s="53" t="n">
+      <c r="C47" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D47" s="53" t="n">
+      <c r="D47" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E47" s="53" t="n">
+      <c r="E47" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="53" t="inlineStr">
+      <c r="A48" s="54" t="inlineStr">
         <is>
           <t>Rock_Bass</t>
         </is>
       </c>
-      <c r="B48" s="53" t="inlineStr">
+      <c r="B48" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C48" s="53" t="n">
+      <c r="C48" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D48" s="53" t="n">
+      <c r="D48" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="53" t="n">
+      <c r="E48" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="inlineStr">
+      <c r="A49" s="54" t="inlineStr">
         <is>
           <t>Rock_Bass</t>
         </is>
       </c>
-      <c r="B49" s="53" t="inlineStr">
+      <c r="B49" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C49" s="53" t="n">
+      <c r="C49" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="53" t="n">
+      <c r="D49" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E49" s="53" t="n">
+      <c r="E49" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="53" t="inlineStr">
+      <c r="A50" s="54" t="inlineStr">
         <is>
           <t>Bowfin</t>
         </is>
       </c>
-      <c r="B50" s="53" t="inlineStr">
+      <c r="B50" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C50" s="53" t="n">
+      <c r="C50" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="53" t="n">
+      <c r="D50" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="53" t="n">
+      <c r="E50" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="inlineStr">
+      <c r="A51" s="54" t="inlineStr">
         <is>
           <t>Bowfin</t>
         </is>
       </c>
-      <c r="B51" s="53" t="inlineStr">
+      <c r="B51" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C51" s="53" t="n">
+      <c r="C51" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D51" s="53" t="n">
+      <c r="D51" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E51" s="53" t="n">
+      <c r="E51" s="54" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="53" t="inlineStr">
+      <c r="A52" s="54" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
         </is>
       </c>
-      <c r="B52" s="53" t="inlineStr">
+      <c r="B52" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C52" s="53" t="n">
+      <c r="C52" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D52" s="53" t="n">
+      <c r="D52" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E52" s="53" t="n">
+      <c r="E52" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="53" t="inlineStr">
+      <c r="A53" s="54" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
         </is>
       </c>
-      <c r="B53" s="53" t="inlineStr">
+      <c r="B53" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C53" s="53" t="n">
+      <c r="C53" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D53" s="53" t="n">
+      <c r="D53" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E53" s="53" t="n">
+      <c r="E53" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="53" t="inlineStr">
+      <c r="A54" s="54" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
         </is>
       </c>
-      <c r="B54" s="53" t="inlineStr">
+      <c r="B54" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C54" s="53" t="n">
+      <c r="C54" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D54" s="53" t="n">
+      <c r="D54" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="53" t="n">
+      <c r="E54" s="54" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="53" t="inlineStr">
+      <c r="A55" s="54" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
         </is>
       </c>
-      <c r="B55" s="53" t="inlineStr">
+      <c r="B55" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C55" s="53" t="n">
+      <c r="C55" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D55" s="53" t="n">
+      <c r="D55" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E55" s="53" t="n">
+      <c r="E55" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="53" t="inlineStr">
+      <c r="A56" s="54" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
         </is>
       </c>
-      <c r="B56" s="53" t="inlineStr">
+      <c r="B56" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C56" s="53" t="n">
+      <c r="C56" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D56" s="53" t="n">
+      <c r="D56" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E56" s="53" t="n">
+      <c r="E56" s="54" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="53" t="inlineStr">
+      <c r="A57" s="54" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
         </is>
       </c>
-      <c r="B57" s="53" t="inlineStr">
+      <c r="B57" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C57" s="53" t="n">
+      <c r="C57" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D57" s="53" t="n">
+      <c r="D57" s="54" t="n">
         <v>3</v>
       </c>
-      <c r="E57" s="53" t="n">
+      <c r="E57" s="54" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="53" t="inlineStr">
+      <c r="A58" s="54" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B58" s="53" t="inlineStr">
+      <c r="B58" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C58" s="53" t="n">
+      <c r="C58" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="53" t="n">
+      <c r="D58" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E58" s="53" t="n">
+      <c r="E58" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="53" t="inlineStr">
+      <c r="A59" s="54" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B59" s="53" t="inlineStr">
+      <c r="B59" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C59" s="53" t="n">
+      <c r="C59" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D59" s="53" t="n">
+      <c r="D59" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E59" s="53" t="n">
+      <c r="E59" s="54" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="53" t="inlineStr">
+      <c r="A60" s="54" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B60" s="53" t="inlineStr">
+      <c r="B60" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C60" s="53" t="n">
+      <c r="C60" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D60" s="53" t="n">
+      <c r="D60" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E60" s="53" t="n">
+      <c r="E60" s="54" t="n">
         <v>181</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="53" t="inlineStr">
+      <c r="A61" s="54" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
         </is>
       </c>
-      <c r="B61" s="53" t="inlineStr">
+      <c r="B61" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C61" s="53" t="n">
+      <c r="C61" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D61" s="53" t="n">
+      <c r="D61" s="54" t="n">
         <v>4</v>
       </c>
-      <c r="E61" s="53" t="n">
+      <c r="E61" s="54" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="53" t="inlineStr">
+      <c r="A62" s="54" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B62" s="53" t="inlineStr">
+      <c r="B62" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C62" s="53" t="n">
+      <c r="C62" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D62" s="53" t="n">
+      <c r="D62" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E62" s="53" t="n">
+      <c r="E62" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="53" t="inlineStr">
+      <c r="A63" s="54" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B63" s="53" t="inlineStr">
+      <c r="B63" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C63" s="53" t="n">
+      <c r="C63" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="53" t="n">
+      <c r="D63" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E63" s="53" t="n">
+      <c r="E63" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="53" t="inlineStr">
+      <c r="A64" s="54" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B64" s="53" t="inlineStr">
+      <c r="B64" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C64" s="53" t="n">
+      <c r="C64" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="53" t="n">
+      <c r="D64" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E64" s="53" t="n">
+      <c r="E64" s="54" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="53" t="inlineStr">
+      <c r="A65" s="54" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B65" s="53" t="inlineStr">
+      <c r="B65" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C65" s="53" t="n">
+      <c r="C65" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D65" s="53" t="n">
+      <c r="D65" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="53" t="n">
+      <c r="E65" s="54" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="inlineStr">
+      <c r="A66" s="54" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
         </is>
       </c>
-      <c r="B66" s="53" t="inlineStr">
+      <c r="B66" s="54" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C66" s="53" t="n">
+      <c r="C66" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="53" t="n">
+      <c r="D66" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="53" t="n">
+      <c r="E66" s="54" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="53" t="inlineStr">
+      <c r="A67" s="54" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B67" s="53" t="inlineStr">
+      <c r="B67" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C67" s="53" t="n">
+      <c r="C67" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D67" s="53" t="n">
+      <c r="D67" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E67" s="53" t="n">
+      <c r="E67" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="53" t="inlineStr">
+      <c r="A68" s="54" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B68" s="53" t="inlineStr">
+      <c r="B68" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C68" s="53" t="n">
+      <c r="C68" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D68" s="53" t="n">
+      <c r="D68" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E68" s="53" t="n">
+      <c r="E68" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="inlineStr">
+      <c r="A69" s="54" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B69" s="53" t="inlineStr">
+      <c r="B69" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C69" s="53" t="n">
+      <c r="C69" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D69" s="53" t="n">
+      <c r="D69" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E69" s="53" t="n">
+      <c r="E69" s="54" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="53" t="inlineStr">
+      <c r="A70" s="54" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B70" s="53" t="inlineStr">
+      <c r="B70" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C70" s="53" t="n">
+      <c r="C70" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="53" t="n">
+      <c r="D70" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E70" s="53" t="n">
+      <c r="E70" s="54" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="53" t="inlineStr">
+      <c r="A71" s="54" t="inlineStr">
         <is>
           <t>American_Eel</t>
         </is>
       </c>
-      <c r="B71" s="53" t="inlineStr">
+      <c r="B71" s="54" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C71" s="53" t="n">
+      <c r="C71" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D71" s="53" t="n">
+      <c r="D71" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="53" t="n">
+      <c r="E71" s="54" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="53" t="inlineStr">
+      <c r="A72" s="54" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B72" s="53" t="inlineStr">
+      <c r="B72" s="54" t="inlineStr">
         <is>
           <t>_Young</t>
         </is>
       </c>
-      <c r="C72" s="53" t="n">
+      <c r="C72" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D72" s="53" t="n">
+      <c r="D72" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="53" t="n">
+      <c r="E72" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="53" t="inlineStr">
+      <c r="A73" s="54" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B73" s="53" t="inlineStr">
+      <c r="B73" s="54" t="inlineStr">
         <is>
           <t>_Common</t>
         </is>
       </c>
-      <c r="C73" s="53" t="n">
+      <c r="C73" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D73" s="53" t="n">
+      <c r="D73" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E73" s="53" t="n">
+      <c r="E73" s="54" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="53" t="inlineStr">
+      <c r="A74" s="54" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B74" s="53" t="inlineStr">
+      <c r="B74" s="54" t="inlineStr">
         <is>
           <t>_Trophy</t>
         </is>
       </c>
-      <c r="C74" s="53" t="n">
+      <c r="C74" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D74" s="53" t="n">
+      <c r="D74" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E74" s="53" t="n">
+      <c r="E74" s="54" t="n">
         <v>175</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="53" t="inlineStr">
+      <c r="A75" s="54" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B75" s="53" t="inlineStr">
+      <c r="B75" s="54" t="inlineStr">
         <is>
           <t>_Unique</t>
         </is>
       </c>
-      <c r="C75" s="53" t="n">
+      <c r="C75" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="53" t="n">
+      <c r="D75" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E75" s="53" t="n">
+      <c r="E75" s="54" t="n">
         <v>87</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="53" t="inlineStr">
+      <c r="A76" s="54" t="inlineStr">
         <is>
           <t>Walleye</t>
         </is>
       </c>
-      <c r="B76" s="53" t="inlineStr">
+      <c r="B76" s="54" t="inlineStr">
         <is>
           <t>_Apex</t>
         </is>
       </c>
-      <c r="C76" s="53" t="n">
+      <c r="C76" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="D76" s="53" t="n">
+      <c r="D76" s="54" t="n">
         <v>5</v>
       </c>
-      <c r="E76" s="53" t="n">
+      <c r="E76" s="54" t="n">
         <v>35</v>
       </c>
     </row>

--- a/intermediateTables/鱼单价工具.xlsx
+++ b/intermediateTables/鱼单价工具.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1905" yWindow="0" windowWidth="41055" windowHeight="20985" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="鱼单价工具" sheetId="1" state="visible" r:id="rId1"/>
@@ -159,12 +159,14 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="3"/>
       <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
+      <family val="3"/>
       <color rgb="FF990099"/>
       <sz val="10"/>
     </font>
@@ -516,6 +518,9 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,9 +529,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1759,22 +1761,22 @@
   <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
     <col width="14" customWidth="1" style="37" min="2" max="2"/>
-    <col width="19" customWidth="1" style="48" min="3" max="3"/>
-    <col width="20" customWidth="1" style="48" min="4" max="4"/>
-    <col width="14" customWidth="1" style="48" min="5" max="5"/>
-    <col width="8" customWidth="1" style="48" min="6" max="7"/>
-    <col width="14" customWidth="1" style="48" min="8" max="14"/>
-    <col width="15" customWidth="1" style="48" min="15" max="16"/>
+    <col width="19" customWidth="1" style="49" min="3" max="3"/>
+    <col width="20" customWidth="1" style="49" min="4" max="4"/>
+    <col width="14" customWidth="1" style="49" min="5" max="5"/>
+    <col width="8" customWidth="1" style="49" min="6" max="7"/>
+    <col width="14" customWidth="1" style="49" min="8" max="14"/>
+    <col width="15" customWidth="1" style="49" min="15" max="16"/>
     <col width="14" customWidth="1" style="43" min="22" max="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="48">
+    <row r="1" ht="30" customHeight="1" s="49">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>填写绿色格子，勿动白色、蓝色单元格！</t>
@@ -1809,7 +1811,7 @@
       <c r="L1" s="5" t="n"/>
       <c r="M1" s="5" t="n"/>
       <c r="N1" s="5" t="n"/>
-      <c r="O1" s="47" t="inlineStr">
+      <c r="O1" s="48" t="inlineStr">
         <is>
           <t>主要用于同鱼种的加权</t>
         </is>
@@ -1916,7 +1918,7 @@
           <t>本阶段期望gold/条</t>
         </is>
       </c>
-      <c r="R2" s="49" t="inlineStr">
+      <c r="R2" s="45" t="inlineStr">
         <is>
           <t>本阶段期望重量</t>
         </is>
@@ -1970,11 +1972,11 @@
       <c r="T3" s="13" t="n"/>
       <c r="U3" s="13" t="n"/>
       <c r="V3" s="40" t="n">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="W3" s="13" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="48">
+    <row r="4" ht="13.5" customHeight="1" s="49">
       <c r="A4" s="11">
         <f>VLOOKUP(C4,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2001,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>28</v>
@@ -2055,10 +2057,10 @@
         <v/>
       </c>
       <c r="W4" s="12" t="n">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1" s="48">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1" s="49">
       <c r="A5" s="11">
         <f>VLOOKUP(C5,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2139,10 +2141,10 @@
         <v/>
       </c>
       <c r="W5" s="12" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1" s="48">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1" s="49">
       <c r="A6" s="11">
         <f>VLOOKUP(C6,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2223,10 +2225,10 @@
         <v/>
       </c>
       <c r="W6" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1" s="48">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1" s="49">
       <c r="A7" s="11">
         <f>VLOOKUP(C7,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2307,10 +2309,10 @@
         <v/>
       </c>
       <c r="W7" s="12" t="n">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1" s="48">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1" s="49">
       <c r="A8" s="11">
         <f>VLOOKUP(C8,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2337,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H8" s="9" t="n">
         <v>23</v>
@@ -2391,10 +2393,10 @@
         <v/>
       </c>
       <c r="W8" s="12" t="n">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1" s="48">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1" s="49">
       <c r="A9" s="11">
         <f>VLOOKUP(C9,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2475,10 +2477,10 @@
         <v/>
       </c>
       <c r="W9" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1" s="48">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1" s="49">
       <c r="A10" s="11">
         <f>VLOOKUP(C10,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2505,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H10" s="9" t="n">
         <v>28</v>
@@ -2559,10 +2561,10 @@
         <v/>
       </c>
       <c r="W10" s="12" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1" s="48">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" customHeight="1" s="49">
       <c r="A11" s="11">
         <f>VLOOKUP(C11,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2643,10 +2645,10 @@
         <v/>
       </c>
       <c r="W11" s="12" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1" s="48">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" customHeight="1" s="49">
       <c r="A12" s="11">
         <f>VLOOKUP(C12,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2673,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>22</v>
@@ -2727,10 +2729,10 @@
         <v/>
       </c>
       <c r="W12" s="12" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1" s="48">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" ht="13.5" customHeight="1" s="49">
       <c r="A13" s="11">
         <f>VLOOKUP(C13,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2811,10 +2813,10 @@
         <v/>
       </c>
       <c r="W13" s="12" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1" s="48">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1" s="49">
       <c r="A14" s="11">
         <f>VLOOKUP(C14,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2895,10 +2897,10 @@
         <v/>
       </c>
       <c r="W14" s="12" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1" s="48">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" customHeight="1" s="49">
       <c r="A15" s="11">
         <f>VLOOKUP(C15,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -2925,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H15" s="9" t="n">
         <v>25</v>
@@ -2979,10 +2981,10 @@
         <v/>
       </c>
       <c r="W15" s="12" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1" s="48">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" customHeight="1" s="49">
       <c r="A16" s="11">
         <f>VLOOKUP(C16,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3063,10 +3065,10 @@
         <v/>
       </c>
       <c r="W16" s="12" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1" s="48">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" customHeight="1" s="49">
       <c r="A17" s="11">
         <f>VLOOKUP(C17,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3147,10 +3149,10 @@
         <v/>
       </c>
       <c r="W17" s="12" t="n">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1" s="48">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" customHeight="1" s="49">
       <c r="A18" s="11">
         <f>VLOOKUP(C18,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3177,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>26</v>
@@ -3231,10 +3233,10 @@
         <v/>
       </c>
       <c r="W18" s="12" t="n">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1" s="48">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="19" ht="13.5" customHeight="1" s="49">
       <c r="A19" s="11">
         <f>VLOOKUP(C19,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3315,10 +3317,10 @@
         <v/>
       </c>
       <c r="W19" s="12" t="n">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1" s="48">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" customHeight="1" s="49">
       <c r="A20" s="11">
         <f>VLOOKUP(C20,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3399,10 +3401,10 @@
         <v/>
       </c>
       <c r="W20" s="12" t="n">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1" s="48">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" customHeight="1" s="49">
       <c r="A21" s="11">
         <f>VLOOKUP(C21,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3483,10 +3485,10 @@
         <v/>
       </c>
       <c r="W21" s="12" t="n">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1" s="48">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" customHeight="1" s="49">
       <c r="A22" s="11">
         <f>VLOOKUP(C22,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3567,7 +3569,7 @@
         <v/>
       </c>
       <c r="W22" s="12" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="X22" s="0" t="inlineStr">
         <is>
@@ -3575,7 +3577,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1" s="48">
+    <row r="23" ht="13.5" customHeight="1" s="49">
       <c r="A23" s="11">
         <f>VLOOKUP(C23,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3656,10 +3658,10 @@
         <v/>
       </c>
       <c r="W23" s="12" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1" s="48">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" customHeight="1" s="49">
       <c r="A24" s="11">
         <f>VLOOKUP(C24,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3740,10 +3742,10 @@
         <v/>
       </c>
       <c r="W24" s="12" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1" s="48">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" customHeight="1" s="49">
       <c r="A25" s="11">
         <f>VLOOKUP(C25,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3824,10 +3826,10 @@
         <v/>
       </c>
       <c r="W25" s="12" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1" s="48">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" customHeight="1" s="49">
       <c r="A26" s="11">
         <f>VLOOKUP(C26,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3908,10 +3910,10 @@
         <v/>
       </c>
       <c r="W26" s="12" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1" s="48">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" s="49">
       <c r="A27" s="11">
         <f>VLOOKUP(C27,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -3992,10 +3994,10 @@
         <v/>
       </c>
       <c r="W27" s="12" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1" s="48">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" s="49">
       <c r="A28" s="11">
         <f>VLOOKUP(C28,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4076,10 +4078,10 @@
         <v/>
       </c>
       <c r="W28" s="12" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" s="48">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" s="49">
       <c r="A29" s="11">
         <f>VLOOKUP(C29,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4160,10 +4162,10 @@
         <v/>
       </c>
       <c r="W29" s="12" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" s="48">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" s="49">
       <c r="A30" s="11">
         <f>VLOOKUP(C30,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4190,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="9" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H30" s="9" t="n">
         <v>28</v>
@@ -4244,7 +4246,7 @@
         <v/>
       </c>
       <c r="W30" s="12" t="n">
-        <v>672</v>
+        <v>1184</v>
       </c>
       <c r="X30" s="0" t="inlineStr">
         <is>
@@ -4252,7 +4254,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1" s="48">
+    <row r="31" ht="13.5" customHeight="1" s="49">
       <c r="A31" s="11">
         <f>VLOOKUP(C31,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4333,10 +4335,10 @@
         <v/>
       </c>
       <c r="W31" s="12" t="n">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" s="48">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" s="49">
       <c r="A32" s="11">
         <f>VLOOKUP(C32,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4417,10 +4419,10 @@
         <v/>
       </c>
       <c r="W32" s="12" t="n">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1" s="48">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" s="49">
       <c r="A33" s="11">
         <f>VLOOKUP(C33,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4501,10 +4503,10 @@
         <v/>
       </c>
       <c r="W33" s="12" t="n">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" s="48">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" s="49">
       <c r="A34" s="11">
         <f>VLOOKUP(C34,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4585,10 +4587,10 @@
         <v/>
       </c>
       <c r="W34" s="12" t="n">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" s="48">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" s="49">
       <c r="A35" s="11">
         <f>VLOOKUP(C35,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4615,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H35" s="9" t="n">
         <v>47</v>
@@ -4669,10 +4671,10 @@
         <v/>
       </c>
       <c r="W35" s="12" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" s="48">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" s="49">
       <c r="A36" s="11">
         <f>VLOOKUP(C36,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4753,10 +4755,10 @@
         <v/>
       </c>
       <c r="W36" s="12" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" s="48">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" s="49">
       <c r="A37" s="11">
         <f>VLOOKUP(C37,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4837,10 +4839,10 @@
         <v/>
       </c>
       <c r="W37" s="12" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" s="48">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1" s="49">
       <c r="A38" s="11">
         <f>VLOOKUP(C38,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -4921,10 +4923,10 @@
         <v/>
       </c>
       <c r="W38" s="12" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" s="48">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" s="49">
       <c r="A39" s="11">
         <f>VLOOKUP(C39,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5005,10 +5007,10 @@
         <v/>
       </c>
       <c r="W39" s="12" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" s="48">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" s="49">
       <c r="A40" s="11">
         <f>VLOOKUP(C40,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5089,10 +5091,10 @@
         <v/>
       </c>
       <c r="W40" s="12" t="n">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" s="48">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" s="49">
       <c r="A41" s="11">
         <f>VLOOKUP(C41,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5173,10 +5175,10 @@
         <v/>
       </c>
       <c r="W41" s="12" t="n">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" s="48">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" s="49">
       <c r="A42" s="11">
         <f>VLOOKUP(C42,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5203,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H42" s="9" t="n">
         <v>22</v>
@@ -5257,10 +5259,10 @@
         <v/>
       </c>
       <c r="W42" s="12" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" s="48">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" s="49">
       <c r="A43" s="11">
         <f>VLOOKUP(C43,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5341,10 +5343,10 @@
         <v/>
       </c>
       <c r="W43" s="12" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" s="48">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1" s="49">
       <c r="A44" s="11">
         <f>VLOOKUP(C44,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5425,10 +5427,10 @@
         <v/>
       </c>
       <c r="W44" s="12" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" s="48">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1" s="49">
       <c r="A45" s="11">
         <f>VLOOKUP(C45,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5455,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H45" s="9" t="n">
         <v>25</v>
@@ -5509,10 +5511,10 @@
         <v/>
       </c>
       <c r="W45" s="12" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" s="48">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1" s="49">
       <c r="A46" s="11">
         <f>VLOOKUP(C46,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5593,10 +5595,10 @@
         <v/>
       </c>
       <c r="W46" s="12" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" s="48">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1" s="49">
       <c r="A47" s="11">
         <f>VLOOKUP(C47,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5677,10 +5679,10 @@
         <v/>
       </c>
       <c r="W47" s="12" t="n">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" s="48">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1" s="49">
       <c r="A48" s="11">
         <f>VLOOKUP(C48,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5707,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H48" s="9" t="n">
         <v>35</v>
@@ -5761,10 +5763,10 @@
         <v/>
       </c>
       <c r="W48" s="12" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" s="48">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" s="49">
       <c r="A49" s="11">
         <f>VLOOKUP(C49,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5845,10 +5847,10 @@
         <v/>
       </c>
       <c r="W49" s="12" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" s="48">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1" s="49">
       <c r="A50" s="11">
         <f>VLOOKUP(C50,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -5875,7 +5877,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H50" s="9" t="n">
         <v>30</v>
@@ -5929,10 +5931,10 @@
         <v/>
       </c>
       <c r="W50" s="12" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" s="48">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1" s="49">
       <c r="A51" s="11">
         <f>VLOOKUP(C51,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6013,10 +6015,10 @@
         <v/>
       </c>
       <c r="W51" s="12" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" s="48">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1" s="49">
       <c r="A52" s="11">
         <f>VLOOKUP(C52,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6097,10 +6099,10 @@
         <v/>
       </c>
       <c r="W52" s="12" t="n">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" s="48">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1" s="49">
       <c r="A53" s="11">
         <f>VLOOKUP(C53,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6181,10 +6183,10 @@
         <v/>
       </c>
       <c r="W53" s="12" t="n">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" s="48">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1" s="49">
       <c r="A54" s="11">
         <f>VLOOKUP(C54,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6211,7 +6213,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H54" s="9" t="n">
         <v>26</v>
@@ -6265,10 +6267,10 @@
         <v/>
       </c>
       <c r="W54" s="12" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" s="48">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1" s="49">
       <c r="A55" s="11">
         <f>VLOOKUP(C55,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6349,10 +6351,10 @@
         <v/>
       </c>
       <c r="W55" s="12" t="n">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" s="48">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1" s="49">
       <c r="A56" s="11">
         <f>VLOOKUP(C56,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6433,10 +6435,10 @@
         <v/>
       </c>
       <c r="W56" s="12" t="n">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" s="48">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1" s="49">
       <c r="A57" s="11">
         <f>VLOOKUP(C57,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6463,7 +6465,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H57" s="9" t="n">
         <v>22</v>
@@ -6517,10 +6519,10 @@
         <v/>
       </c>
       <c r="W57" s="12" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" s="48">
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1" s="49">
       <c r="A58" s="11">
         <f>VLOOKUP(C58,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6601,10 +6603,10 @@
         <v/>
       </c>
       <c r="W58" s="12" t="n">
-        <v>3780</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" s="48">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1" s="49">
       <c r="A59" s="11">
         <f>VLOOKUP(C59,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6685,10 +6687,10 @@
         <v/>
       </c>
       <c r="W59" s="12" t="n">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" s="48">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1" s="49">
       <c r="A60" s="11">
         <f>VLOOKUP(C60,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6715,7 +6717,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="9" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H60" s="9" t="n">
         <v>30</v>
@@ -6769,7 +6771,7 @@
         <v/>
       </c>
       <c r="W60" s="12" t="n">
-        <v>714</v>
+        <v>1258</v>
       </c>
       <c r="X60" s="0" t="inlineStr">
         <is>
@@ -6777,7 +6779,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="13.5" customHeight="1" s="48">
+    <row r="61" ht="13.5" customHeight="1" s="49">
       <c r="A61" s="11">
         <f>VLOOKUP(C61,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6858,10 +6860,10 @@
         <v/>
       </c>
       <c r="W61" s="12" t="n">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" s="48">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1" s="49">
       <c r="A62" s="11">
         <f>VLOOKUP(C62,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -6942,10 +6944,10 @@
         <v/>
       </c>
       <c r="W62" s="12" t="n">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" s="48">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1" s="49">
       <c r="A63" s="11">
         <f>VLOOKUP(C63,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7026,10 +7028,10 @@
         <v/>
       </c>
       <c r="W63" s="12" t="n">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" s="48">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1" s="49">
       <c r="A64" s="11">
         <f>VLOOKUP(C64,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7056,7 +7058,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="9" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H64" s="9" t="n">
         <v>40</v>
@@ -7110,10 +7112,10 @@
         <v/>
       </c>
       <c r="W64" s="12" t="n">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" s="48">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1" s="49">
       <c r="A65" s="11">
         <f>VLOOKUP(C65,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7194,10 +7196,10 @@
         <v/>
       </c>
       <c r="W65" s="12" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" s="48">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1" s="49">
       <c r="A66" s="11">
         <f>VLOOKUP(C66,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7278,10 +7280,10 @@
         <v/>
       </c>
       <c r="W66" s="12" t="n">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" s="48">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1" s="49">
       <c r="A67" s="11">
         <f>VLOOKUP(C67,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7362,10 +7364,10 @@
         <v/>
       </c>
       <c r="W67" s="12" t="n">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" s="48">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" customHeight="1" s="49">
       <c r="A68" s="11">
         <f>VLOOKUP(C68,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7446,10 +7448,10 @@
         <v/>
       </c>
       <c r="W68" s="12" t="n">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1" s="48">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1" s="49">
       <c r="A69" s="11">
         <f>VLOOKUP(C69,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7476,7 +7478,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="9" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H69" s="9" t="n">
         <v>60</v>
@@ -7530,10 +7532,10 @@
         <v/>
       </c>
       <c r="W69" s="12" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1" s="48">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" customHeight="1" s="49">
       <c r="A70" s="11">
         <f>VLOOKUP(C70,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7614,10 +7616,10 @@
         <v/>
       </c>
       <c r="W70" s="12" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1" s="48">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" customHeight="1" s="49">
       <c r="A71" s="11">
         <f>VLOOKUP(C71,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7698,10 +7700,10 @@
         <v/>
       </c>
       <c r="W71" s="12" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1" s="48">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" customHeight="1" s="49">
       <c r="A72" s="11">
         <f>VLOOKUP(C72,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7782,10 +7784,10 @@
         <v/>
       </c>
       <c r="W72" s="12" t="n">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1" s="48">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" customHeight="1" s="49">
       <c r="A73" s="11">
         <f>VLOOKUP(C73,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7866,10 +7868,10 @@
         <v/>
       </c>
       <c r="W73" s="12" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1" s="48">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" customHeight="1" s="49">
       <c r="A74" s="11">
         <f>VLOOKUP(C74,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -7896,7 +7898,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="9" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H74" s="9" t="n">
         <v>46</v>
@@ -7950,10 +7952,10 @@
         <v/>
       </c>
       <c r="W74" s="12" t="n">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="75" ht="13.5" customHeight="1" s="48">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" ht="13.5" customHeight="1" s="49">
       <c r="A75" s="11">
         <f>VLOOKUP(C75,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -8034,10 +8036,10 @@
         <v/>
       </c>
       <c r="W75" s="12" t="n">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1" s="48">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" customHeight="1" s="49">
       <c r="A76" s="11">
         <f>VLOOKUP(C76,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -8118,10 +8120,10 @@
         <v/>
       </c>
       <c r="W76" s="12" t="n">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" s="48">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="77" ht="13.5" customHeight="1" s="49">
       <c r="A77" s="11">
         <f>VLOOKUP(C77,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -8202,10 +8204,10 @@
         <v/>
       </c>
       <c r="W77" s="12" t="n">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1" s="48">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" customHeight="1" s="49">
       <c r="A78" s="11">
         <f>VLOOKUP(C78,[1]鱼种设计表!$B$2:$L$55,4,FALSE)</f>
         <v/>
@@ -8286,7 +8288,7 @@
         <v/>
       </c>
       <c r="W78" s="12" t="n">
-        <v>420</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79">
@@ -10134,11 +10136,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col width="19" customWidth="1" style="48" min="1" max="2"/>
-    <col width="22.5703125" bestFit="1" customWidth="1" style="48" min="3" max="3"/>
+    <col width="19" customWidth="1" style="49" min="1" max="2"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" style="49" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" s="48">
+    <row r="1" ht="13.5" customHeight="1" s="49">
       <c r="A1" s="17" t="inlineStr">
         <is>
           <t>手调鱼种string</t>
@@ -10170,7 +10172,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="48">
+    <row r="2" ht="13.5" customHeight="1" s="49">
       <c r="A2" s="19" t="inlineStr">
         <is>
           <t>Redear_Sunfish</t>
@@ -10198,7 +10200,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1" s="48">
+    <row r="3" ht="13.5" customHeight="1" s="49">
       <c r="A3" s="19" t="inlineStr">
         <is>
           <t>Buffalo</t>
@@ -10226,7 +10228,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="48">
+    <row r="4" ht="13.5" customHeight="1" s="49">
       <c r="A4" s="19" t="inlineStr">
         <is>
           <t>Bowfin</t>
@@ -10254,7 +10256,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="48">
+    <row r="5" ht="13.5" customHeight="1" s="49">
       <c r="A5" s="19" t="inlineStr">
         <is>
           <t>Yellow_Perch</t>
@@ -10282,7 +10284,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="48">
+    <row r="6" ht="13.5" customHeight="1" s="49">
       <c r="A6" s="19" t="inlineStr">
         <is>
           <t>Channel_Catfish</t>
@@ -10310,7 +10312,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="48">
+    <row r="7" ht="13.5" customHeight="1" s="49">
       <c r="A7" s="19" t="inlineStr">
         <is>
           <t>Muskellunge</t>
@@ -10338,7 +10340,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="48">
+    <row r="8" ht="13.5" customHeight="1" s="49">
       <c r="A8" s="19" t="inlineStr">
         <is>
           <t>Alewife</t>
@@ -10366,7 +10368,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="48">
+    <row r="9" ht="13.5" customHeight="1" s="49">
       <c r="A9" s="19" t="inlineStr">
         <is>
           <t>Striped_Bass</t>
@@ -10394,7 +10396,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="48">
+    <row r="10" ht="13.5" customHeight="1" s="49">
       <c r="A10" s="19" t="inlineStr">
         <is>
           <t>Blacktail_Shiner</t>
@@ -10422,7 +10424,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="48">
+    <row r="11" ht="13.5" customHeight="1" s="49">
       <c r="A11" s="19" t="inlineStr">
         <is>
           <t>Brook_Trout</t>
@@ -10450,7 +10452,7 @@
         <v>3.01</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="48">
+    <row r="12" ht="13.5" customHeight="1" s="49">
       <c r="A12" s="19" t="inlineStr">
         <is>
           <t>Tench</t>
@@ -10478,7 +10480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="48">
+    <row r="13" ht="13.5" customHeight="1" s="49">
       <c r="A13" s="19" t="inlineStr">
         <is>
           <t>Freshwater_Drum</t>
@@ -10506,7 +10508,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="48">
+    <row r="14" ht="13.5" customHeight="1" s="49">
       <c r="A14" s="19" t="inlineStr">
         <is>
           <t>Largemouth_Bass</t>
@@ -10534,7 +10536,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="48">
+    <row r="15" ht="13.5" customHeight="1" s="49">
       <c r="A15" s="19" t="inlineStr">
         <is>
           <t>Spotted_Bass</t>
@@ -10562,7 +10564,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="48">
+    <row r="16" ht="13.5" customHeight="1" s="49">
       <c r="A16" s="19" t="inlineStr">
         <is>
           <t>White_Crappie</t>
@@ -10590,7 +10592,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1" s="48">
+    <row r="17" ht="13.5" customHeight="1" s="49">
       <c r="A17" s="19" t="inlineStr">
         <is>
           <t>Rock_Bass</t>
@@ -10618,7 +10620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1" s="48">
+    <row r="18" ht="13.5" customHeight="1" s="49">
       <c r="A18" s="19" t="inlineStr">
         <is>
           <t>Smallmouth_Bass</t>
@@ -10646,7 +10648,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1" s="48">
+    <row r="19" ht="13.5" customHeight="1" s="49">
       <c r="A19" s="19" t="inlineStr">
         <is>
           <t>Black_Crappie</t>
@@ -10674,7 +10676,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="48">
+    <row r="20" ht="13.5" customHeight="1" s="49">
       <c r="A20" s="19" t="inlineStr">
         <is>
           <t>Pumpkinseed_Sunfish</t>
@@ -10702,7 +10704,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="21" ht="13.5" customHeight="1" s="48">
+    <row r="21" ht="13.5" customHeight="1" s="49">
       <c r="A21" s="19" t="inlineStr">
         <is>
           <t>Green_Sunfish</t>
@@ -10730,7 +10732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="13.5" customHeight="1" s="48">
+    <row r="22" ht="13.5" customHeight="1" s="49">
       <c r="A22" s="19" t="inlineStr">
         <is>
           <t>Redspotted_Sunfish</t>
@@ -10758,7 +10760,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1" s="48">
+    <row r="23" ht="13.5" customHeight="1" s="49">
       <c r="A23" s="19" t="inlineStr">
         <is>
           <t>Chain_Pickerel</t>
@@ -10786,7 +10788,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1" s="48">
+    <row r="24" ht="13.5" customHeight="1" s="49">
       <c r="A24" s="19" t="inlineStr">
         <is>
           <t>Sauger</t>
@@ -10814,7 +10816,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1" s="48">
+    <row r="25" ht="13.5" customHeight="1" s="49">
       <c r="A25" s="19" t="inlineStr">
         <is>
           <t>Walleye</t>
@@ -10842,7 +10844,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1" s="48">
+    <row r="26" ht="13.5" customHeight="1" s="49">
       <c r="A26" s="19" t="inlineStr">
         <is>
           <t>Rainbow_Trout</t>
@@ -10870,7 +10872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="13.5" customHeight="1" s="48">
+    <row r="27" ht="13.5" customHeight="1" s="49">
       <c r="A27" s="19" t="inlineStr">
         <is>
           <t>Golden_Trout</t>
@@ -10898,7 +10900,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1" s="48">
+    <row r="28" ht="13.5" customHeight="1" s="49">
       <c r="A28" s="19" t="inlineStr">
         <is>
           <t>Bluegill_Sunfish</t>
@@ -10926,7 +10928,7 @@
         <v>3.16</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1" s="48">
+    <row r="29" ht="13.5" customHeight="1" s="49">
       <c r="A29" s="19" t="inlineStr">
         <is>
           <t>American_Eel</t>
@@ -10954,7 +10956,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1" s="48">
+    <row r="30" ht="13.5" customHeight="1" s="49">
       <c r="A30" s="19" t="inlineStr">
         <is>
           <t>Common_Shiner</t>
@@ -10982,7 +10984,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1" s="48">
+    <row r="31" ht="13.5" customHeight="1" s="49">
       <c r="A31" s="19" t="inlineStr">
         <is>
           <t>Golden_Shiner</t>
@@ -11010,7 +11012,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1" s="48">
+    <row r="32" ht="13.5" customHeight="1" s="49">
       <c r="A32" s="19" t="inlineStr">
         <is>
           <t>Longback_Dace</t>
@@ -11038,7 +11040,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1" s="48">
+    <row r="33" ht="13.5" customHeight="1" s="49">
       <c r="A33" s="25" t="inlineStr">
         <is>
           <t>Tench</t>
@@ -11065,7 +11067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="48">
+    <row r="34" ht="14.25" customHeight="1" s="49">
       <c r="A34" s="26" t="inlineStr">
         <is>
           <t>Black_Crappie</t>
@@ -11092,7 +11094,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="48">
+    <row r="35" ht="14.25" customHeight="1" s="49">
       <c r="A35" s="28" t="inlineStr">
         <is>
           <t>White_Crappie</t>
@@ -11119,7 +11121,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="48">
+    <row r="36" ht="14.25" customHeight="1" s="49">
       <c r="A36" s="25" t="inlineStr">
         <is>
           <t>White_Channel_Catfish</t>
@@ -11146,7 +11148,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="48">
+    <row r="37" ht="14.25" customHeight="1" s="49">
       <c r="A37" s="25" t="inlineStr">
         <is>
           <t>Yaqui_Sucker</t>
@@ -11173,7 +11175,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="48">
+    <row r="38" ht="14.25" customHeight="1" s="49">
       <c r="A38" s="25" t="inlineStr">
         <is>
           <t>Bigmouth_Buffalo</t>
@@ -11200,7 +11202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="48">
+    <row r="39" ht="14.25" customHeight="1" s="49">
       <c r="A39" s="25" t="inlineStr">
         <is>
           <t>American_Shad</t>
@@ -11227,7 +11229,7 @@
         <v>3.08</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="48">
+    <row r="40" ht="14.25" customHeight="1" s="49">
       <c r="A40" s="25" t="inlineStr">
         <is>
           <t>Redfin_Pickerel</t>
@@ -11274,7 +11276,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
   <cols>
-    <col width="22.5703125" bestFit="1" customWidth="1" style="48" min="3" max="3"/>
+    <col width="22.5703125" bestFit="1" customWidth="1" style="49" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11337,7 +11339,7 @@
       <c r="E3" s="13" t="n"/>
       <c r="F3" s="13" t="n"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1" s="48">
+    <row r="4" ht="13.5" customHeight="1" s="49">
       <c r="A4" s="1">
         <f>鱼单价工具!A4</f>
         <v/>
@@ -11368,7 +11370,7 @@
       <c r="J4" s="8" t="n"/>
       <c r="K4" s="8" t="n"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1" s="48">
+    <row r="5" ht="13.5" customHeight="1" s="49">
       <c r="A5" s="1">
         <f>鱼单价工具!A5</f>
         <v/>
@@ -11399,7 +11401,7 @@
       <c r="J5" s="8" t="n"/>
       <c r="K5" s="8" t="n"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1" s="48">
+    <row r="6" ht="13.5" customHeight="1" s="49">
       <c r="A6" s="1">
         <f>鱼单价工具!A6</f>
         <v/>
@@ -11430,7 +11432,7 @@
       <c r="J6" s="8" t="n"/>
       <c r="K6" s="8" t="n"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="48">
+    <row r="7" ht="13.5" customHeight="1" s="49">
       <c r="A7" s="1">
         <f>鱼单价工具!A7</f>
         <v/>
@@ -11461,7 +11463,7 @@
       <c r="J7" s="8" t="n"/>
       <c r="K7" s="8" t="n"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1" s="48">
+    <row r="8" ht="13.5" customHeight="1" s="49">
       <c r="A8" s="1">
         <f>鱼单价工具!A8</f>
         <v/>
@@ -11492,7 +11494,7 @@
       <c r="J8" s="8" t="n"/>
       <c r="K8" s="8" t="n"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1" s="48">
+    <row r="9" ht="13.5" customHeight="1" s="49">
       <c r="A9" s="1">
         <f>鱼单价工具!A9</f>
         <v/>
@@ -11523,7 +11525,7 @@
       <c r="J9" s="8" t="n"/>
       <c r="K9" s="8" t="n"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1" s="48">
+    <row r="10" ht="13.5" customHeight="1" s="49">
       <c r="A10" s="1">
         <f>鱼单价工具!A10</f>
         <v/>
@@ -11554,7 +11556,7 @@
       <c r="J10" s="8" t="n"/>
       <c r="K10" s="8" t="n"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1" s="48">
+    <row r="11" ht="13.5" customHeight="1" s="49">
       <c r="A11" s="1">
         <f>鱼单价工具!A11</f>
         <v/>
@@ -11585,7 +11587,7 @@
       <c r="J11" s="8" t="n"/>
       <c r="K11" s="8" t="n"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1" s="48">
+    <row r="12" ht="13.5" customHeight="1" s="49">
       <c r="A12" s="1">
         <f>鱼单价工具!A12</f>
         <v/>
@@ -11616,7 +11618,7 @@
       <c r="J12" s="8" t="n"/>
       <c r="K12" s="8" t="n"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1" s="48">
+    <row r="13" ht="13.5" customHeight="1" s="49">
       <c r="A13" s="1">
         <f>鱼单价工具!A13</f>
         <v/>
@@ -11647,7 +11649,7 @@
       <c r="J13" s="8" t="n"/>
       <c r="K13" s="8" t="n"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1" s="48">
+    <row r="14" ht="13.5" customHeight="1" s="49">
       <c r="A14" s="1">
         <f>鱼单价工具!A14</f>
         <v/>
@@ -11678,7 +11680,7 @@
       <c r="J14" s="8" t="n"/>
       <c r="K14" s="8" t="n"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1" s="48">
+    <row r="15" ht="13.5" customHeight="1" s="49">
       <c r="A15" s="1">
         <f>鱼单价工具!A15</f>
         <v/>
@@ -11709,7 +11711,7 @@
       <c r="J15" s="8" t="n"/>
       <c r="K15" s="8" t="n"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1" s="48">
+    <row r="16" ht="13.5" customHeight="1" s="49">
       <c r="A16" s="1">
         <f>鱼单价工具!A16</f>
         <v/>
@@ -11740,7 +11742,7 @@
       <c r="J16" s="8" t="n"/>
       <c r="K16" s="8" t="n"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" s="48">
+    <row r="17" ht="13.5" customHeight="1" s="49">
       <c r="A17" s="1">
         <f>鱼单价工具!A17</f>
         <v/>
@@ -11771,7 +11773,7 @@
       <c r="J17" s="8" t="n"/>
       <c r="K17" s="8" t="n"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1" s="48">
+    <row r="18" ht="13.5" customHeight="1" s="49">
       <c r="A18" s="1">
         <f>鱼单价工具!A18</f>
         <v/>
@@ -11802,7 +11804,7 @@
       <c r="J18" s="8" t="n"/>
       <c r="K18" s="8" t="n"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1" s="48">
+    <row r="19" ht="13.5" customHeight="1" s="49">
       <c r="A19" s="1">
         <f>鱼单价工具!A19</f>
         <v/>
@@ -11833,7 +11835,7 @@
       <c r="J19" s="8" t="n"/>
       <c r="K19" s="8" t="n"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1" s="48">
+    <row r="20" ht="13.5" customHeight="1" s="49">
       <c r="A20" s="1">
         <f>鱼单价工具!A20</f>
         <v/>
@@ -11864,7 +11866,7 @@
       <c r="J20" s="8" t="n"/>
       <c r="K20" s="8" t="n"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1" s="48">
+    <row r="21" ht="13.5" customHeight="1" s="49">
       <c r="A21" s="1">
         <f>鱼单价工具!A21</f>
         <v/>
@@ -11895,7 +11897,7 @@
       <c r="J21" s="8" t="n"/>
       <c r="K21" s="8" t="n"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1" s="48">
+    <row r="22" ht="13.5" customHeight="1" s="49">
       <c r="A22" s="1">
         <f>鱼单价工具!A22</f>
         <v/>
@@ -11926,7 +11928,7 @@
       <c r="J22" s="8" t="n"/>
       <c r="K22" s="8" t="n"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1" s="48">
+    <row r="23" ht="13.5" customHeight="1" s="49">
       <c r="A23" s="1">
         <f>鱼单价工具!A23</f>
         <v/>
@@ -11957,7 +11959,7 @@
       <c r="J23" s="8" t="n"/>
       <c r="K23" s="8" t="n"/>
     </row>
-    <row r="24" ht="13.5" customHeight="1" s="48">
+    <row r="24" ht="13.5" customHeight="1" s="49">
       <c r="A24" s="1">
         <f>鱼单价工具!A24</f>
         <v/>
@@ -11988,7 +11990,7 @@
       <c r="J24" s="8" t="n"/>
       <c r="K24" s="8" t="n"/>
     </row>
-    <row r="25" ht="13.5" customHeight="1" s="48">
+    <row r="25" ht="13.5" customHeight="1" s="49">
       <c r="A25" s="1">
         <f>鱼单价工具!A25</f>
         <v/>
@@ -12019,7 +12021,7 @@
       <c r="J25" s="8" t="n"/>
       <c r="K25" s="8" t="n"/>
     </row>
-    <row r="26" ht="13.5" customHeight="1" s="48">
+    <row r="26" ht="13.5" customHeight="1" s="49">
       <c r="A26" s="1">
         <f>鱼单价工具!A26</f>
         <v/>
@@ -12050,7 +12052,7 @@
       <c r="J26" s="8" t="n"/>
       <c r="K26" s="8" t="n"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1" s="48">
+    <row r="27" ht="13.5" customHeight="1" s="49">
       <c r="A27" s="1">
         <f>鱼单价工具!A27</f>
         <v/>
@@ -12081,7 +12083,7 @@
       <c r="J27" s="8" t="n"/>
       <c r="K27" s="8" t="n"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1" s="48">
+    <row r="28" ht="13.5" customHeight="1" s="49">
       <c r="A28" s="1">
         <f>鱼单价工具!A28</f>
         <v/>
@@ -12112,7 +12114,7 @@
       <c r="J28" s="8" t="n"/>
       <c r="K28" s="8" t="n"/>
     </row>
-    <row r="29" ht="13.5" customHeight="1" s="48">
+    <row r="29" ht="13.5" customHeight="1" s="49">
       <c r="A29" s="1">
         <f>鱼单价工具!A29</f>
         <v/>
@@ -12143,7 +12145,7 @@
       <c r="J29" s="8" t="n"/>
       <c r="K29" s="8" t="n"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1" s="48">
+    <row r="30" ht="13.5" customHeight="1" s="49">
       <c r="A30" s="1">
         <f>鱼单价工具!A30</f>
         <v/>
@@ -12174,7 +12176,7 @@
       <c r="J30" s="8" t="n"/>
       <c r="K30" s="8" t="n"/>
     </row>
-    <row r="31" ht="13.5" customHeight="1" s="48">
+    <row r="31" ht="13.5" customHeight="1" s="49">
       <c r="A31" s="1">
         <f>鱼单价工具!A31</f>
         <v/>
@@ -12205,7 +12207,7 @@
       <c r="J31" s="8" t="n"/>
       <c r="K31" s="8" t="n"/>
     </row>
-    <row r="32" ht="13.5" customHeight="1" s="48">
+    <row r="32" ht="13.5" customHeight="1" s="49">
       <c r="A32" s="1">
         <f>鱼单价工具!A32</f>
         <v/>
@@ -12236,7 +12238,7 @@
       <c r="J32" s="8" t="n"/>
       <c r="K32" s="8" t="n"/>
     </row>
-    <row r="33" ht="13.5" customHeight="1" s="48">
+    <row r="33" ht="13.5" customHeight="1" s="49">
       <c r="A33" s="1">
         <f>鱼单价工具!A33</f>
         <v/>
@@ -12267,7 +12269,7 @@
       <c r="J33" s="8" t="n"/>
       <c r="K33" s="8" t="n"/>
     </row>
-    <row r="34" ht="13.5" customHeight="1" s="48">
+    <row r="34" ht="13.5" customHeight="1" s="49">
       <c r="A34" s="1">
         <f>鱼单价工具!A34</f>
         <v/>
@@ -12298,7 +12300,7 @@
       <c r="J34" s="8" t="n"/>
       <c r="K34" s="8" t="n"/>
     </row>
-    <row r="35" ht="13.5" customHeight="1" s="48">
+    <row r="35" ht="13.5" customHeight="1" s="49">
       <c r="A35" s="1">
         <f>鱼单价工具!A35</f>
         <v/>
@@ -12329,7 +12331,7 @@
       <c r="J35" s="8" t="n"/>
       <c r="K35" s="8" t="n"/>
     </row>
-    <row r="36" ht="13.5" customHeight="1" s="48">
+    <row r="36" ht="13.5" customHeight="1" s="49">
       <c r="A36" s="1">
         <f>鱼单价工具!A36</f>
         <v/>
@@ -12360,7 +12362,7 @@
       <c r="J36" s="8" t="n"/>
       <c r="K36" s="8" t="n"/>
     </row>
-    <row r="37" ht="13.5" customHeight="1" s="48">
+    <row r="37" ht="13.5" customHeight="1" s="49">
       <c r="A37" s="1">
         <f>鱼单价工具!A37</f>
         <v/>
@@ -12391,7 +12393,7 @@
       <c r="J37" s="8" t="n"/>
       <c r="K37" s="8" t="n"/>
     </row>
-    <row r="38" ht="13.5" customHeight="1" s="48">
+    <row r="38" ht="13.5" customHeight="1" s="49">
       <c r="A38" s="1">
         <f>鱼单价工具!A38</f>
         <v/>
@@ -12422,7 +12424,7 @@
       <c r="J38" s="8" t="n"/>
       <c r="K38" s="8" t="n"/>
     </row>
-    <row r="39" ht="13.5" customHeight="1" s="48">
+    <row r="39" ht="13.5" customHeight="1" s="49">
       <c r="A39" s="1">
         <f>鱼单价工具!A39</f>
         <v/>
@@ -12467,7 +12469,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G76" sqref="F2:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -12527,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="54" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3">
@@ -12548,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="54" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4">
@@ -12569,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="54" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -12590,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="54" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
@@ -13283,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="54" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39">
@@ -13304,7 +13306,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="54" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="40">
@@ -13325,7 +13327,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="54" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
@@ -13346,7 +13348,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="54" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
@@ -13367,7 +13369,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="54" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
@@ -13388,7 +13390,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="54" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44">
@@ -13409,7 +13411,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="54" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
@@ -13430,7 +13432,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="54" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46">

--- a/intermediateTables/鱼单价工具.xlsx
+++ b/intermediateTables/鱼单价工具.xlsx
@@ -12466,7 +12466,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G76" sqref="F2:G76"/>
@@ -13270,7 +13270,7 @@
     <row r="38">
       <c r="A38" s="54" t="inlineStr">
         <is>
-          <t>Common_Shiner</t>
+          <t>Alewife</t>
         </is>
       </c>
       <c r="B38" s="54" t="inlineStr">
@@ -13285,13 +13285,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="54" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="54" t="inlineStr">
         <is>
-          <t>Common_Shiner</t>
+          <t>Alewife</t>
         </is>
       </c>
       <c r="B39" s="54" t="inlineStr">
@@ -13306,13 +13306,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="54" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="54" t="inlineStr">
         <is>
-          <t>Bluegill_Sunfish</t>
+          <t>Common_Shiner</t>
         </is>
       </c>
       <c r="B40" s="54" t="inlineStr">
@@ -13324,16 +13324,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="54" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="54" t="inlineStr">
         <is>
-          <t>Bluegill_Sunfish</t>
+          <t>Common_Shiner</t>
         </is>
       </c>
       <c r="B41" s="54" t="inlineStr">
@@ -13345,49 +13345,49 @@
         <v>2</v>
       </c>
       <c r="D41" s="54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="54" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="54" t="inlineStr">
         <is>
-          <t>Bluegill_Sunfish</t>
+          <t>Green_Sunfish</t>
         </is>
       </c>
       <c r="B42" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C42" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="54" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="54" t="inlineStr">
         <is>
-          <t>Redear_Sunfish</t>
+          <t>Green_Sunfish</t>
         </is>
       </c>
       <c r="B43" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C43" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D43" s="54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="54" t="n">
         <v>600</v>
@@ -13396,49 +13396,49 @@
     <row r="44">
       <c r="A44" s="54" t="inlineStr">
         <is>
-          <t>Redear_Sunfish</t>
+          <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
       <c r="B44" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C44" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D44" s="54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="54" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="54" t="inlineStr">
         <is>
-          <t>Redear_Sunfish</t>
+          <t>Pumpkinseed_Sunfish</t>
         </is>
       </c>
       <c r="B45" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C45" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D45" s="54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="54" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="54" t="inlineStr">
         <is>
-          <t>American_Shad</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B46" s="54" t="inlineStr">
@@ -13453,13 +13453,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="54" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="54" t="inlineStr">
         <is>
-          <t>American_Shad</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B47" s="54" t="inlineStr">
@@ -13474,18 +13474,18 @@
         <v>2</v>
       </c>
       <c r="E47" s="54" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="54" t="inlineStr">
         <is>
-          <t>Rock_Bass</t>
+          <t>Bluegill_Sunfish</t>
         </is>
       </c>
       <c r="B48" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C48" s="54" t="n">
@@ -13495,18 +13495,18 @@
         <v>2</v>
       </c>
       <c r="E48" s="54" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="54" t="inlineStr">
         <is>
-          <t>Rock_Bass</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B49" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C49" s="54" t="n">
@@ -13516,18 +13516,18 @@
         <v>2</v>
       </c>
       <c r="E49" s="54" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="54" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B50" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C50" s="54" t="n">
@@ -13537,18 +13537,18 @@
         <v>2</v>
       </c>
       <c r="E50" s="54" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="54" t="inlineStr">
         <is>
-          <t>Bowfin</t>
+          <t>Redear_Sunfish</t>
         </is>
       </c>
       <c r="B51" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C51" s="54" t="n">
@@ -13558,13 +13558,13 @@
         <v>2</v>
       </c>
       <c r="E51" s="54" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="54" t="inlineStr">
         <is>
-          <t>Yellow_Perch</t>
+          <t>American_Shad</t>
         </is>
       </c>
       <c r="B52" s="54" t="inlineStr">
@@ -13576,16 +13576,16 @@
         <v>2</v>
       </c>
       <c r="D52" s="54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="54" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="54" t="inlineStr">
         <is>
-          <t>Yellow_Perch</t>
+          <t>American_Shad</t>
         </is>
       </c>
       <c r="B53" s="54" t="inlineStr">
@@ -13597,100 +13597,100 @@
         <v>2</v>
       </c>
       <c r="D53" s="54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="54" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="54" t="inlineStr">
         <is>
-          <t>Yellow_Perch</t>
+          <t>Rock_Bass</t>
         </is>
       </c>
       <c r="B54" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C54" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D54" s="54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E54" s="54" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="54" t="inlineStr">
         <is>
-          <t>Redfin_Pickerel</t>
+          <t>Rock_Bass</t>
         </is>
       </c>
       <c r="B55" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C55" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D55" s="54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="54" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="54" t="inlineStr">
         <is>
-          <t>Redfin_Pickerel</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B56" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C56" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D56" s="54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E56" s="54" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="54" t="inlineStr">
         <is>
-          <t>Redfin_Pickerel</t>
+          <t>Bowfin</t>
         </is>
       </c>
       <c r="B57" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C57" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D57" s="54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="54" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="54" t="inlineStr">
         <is>
-          <t>Spotted_Bass</t>
+          <t>Yellow_Perch</t>
         </is>
       </c>
       <c r="B58" s="54" t="inlineStr">
@@ -13702,16 +13702,16 @@
         <v>2</v>
       </c>
       <c r="D58" s="54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="54" t="n">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="54" t="inlineStr">
         <is>
-          <t>Spotted_Bass</t>
+          <t>Yellow_Perch</t>
         </is>
       </c>
       <c r="B59" s="54" t="inlineStr">
@@ -13723,16 +13723,16 @@
         <v>2</v>
       </c>
       <c r="D59" s="54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E59" s="54" t="n">
-        <v>363</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="54" t="inlineStr">
         <is>
-          <t>Spotted_Bass</t>
+          <t>Yellow_Perch</t>
         </is>
       </c>
       <c r="B60" s="54" t="inlineStr">
@@ -13744,168 +13744,168 @@
         <v>2</v>
       </c>
       <c r="D60" s="54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60" s="54" t="n">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="54" t="inlineStr">
         <is>
-          <t>Spotted_Bass</t>
+          <t>Redfin_Pickerel</t>
         </is>
       </c>
       <c r="B61" s="54" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C61" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D61" s="54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="54" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="54" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Redfin_Pickerel</t>
         </is>
       </c>
       <c r="B62" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C62" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D62" s="54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="54" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="54" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Redfin_Pickerel</t>
         </is>
       </c>
       <c r="B63" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C63" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D63" s="54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="54" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="54" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Spotted_Bass</t>
         </is>
       </c>
       <c r="B64" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C64" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D64" s="54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" s="54" t="n">
-        <v>175</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="54" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Spotted_Bass</t>
         </is>
       </c>
       <c r="B65" s="54" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C65" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D65" s="54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" s="54" t="n">
-        <v>87</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="54" t="inlineStr">
         <is>
-          <t>Largemouth_Bass</t>
+          <t>Spotted_Bass</t>
         </is>
       </c>
       <c r="B66" s="54" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C66" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D66" s="54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="54" t="n">
-        <v>35</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="54" t="inlineStr">
         <is>
-          <t>American_Eel</t>
+          <t>Spotted_Bass</t>
         </is>
       </c>
       <c r="B67" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C67" s="54" t="n">
         <v>2</v>
       </c>
       <c r="D67" s="54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" s="54" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="54" t="inlineStr">
         <is>
-          <t>American_Eel</t>
+          <t>Largemouth_Bass</t>
         </is>
       </c>
       <c r="B68" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C68" s="54" t="n">
@@ -13921,12 +13921,12 @@
     <row r="69">
       <c r="A69" s="54" t="inlineStr">
         <is>
-          <t>American_Eel</t>
+          <t>Largemouth_Bass</t>
         </is>
       </c>
       <c r="B69" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C69" s="54" t="n">
@@ -13936,18 +13936,18 @@
         <v>5</v>
       </c>
       <c r="E69" s="54" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="54" t="inlineStr">
         <is>
-          <t>American_Eel</t>
+          <t>Largemouth_Bass</t>
         </is>
       </c>
       <c r="B70" s="54" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C70" s="54" t="n">
@@ -13957,18 +13957,18 @@
         <v>5</v>
       </c>
       <c r="E70" s="54" t="n">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="54" t="inlineStr">
         <is>
-          <t>American_Eel</t>
+          <t>Largemouth_Bass</t>
         </is>
       </c>
       <c r="B71" s="54" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C71" s="54" t="n">
@@ -13978,18 +13978,18 @@
         <v>5</v>
       </c>
       <c r="E71" s="54" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="54" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>Largemouth_Bass</t>
         </is>
       </c>
       <c r="B72" s="54" t="inlineStr">
         <is>
-          <t>_Young</t>
+          <t>_Apex</t>
         </is>
       </c>
       <c r="C72" s="54" t="n">
@@ -13999,18 +13999,18 @@
         <v>5</v>
       </c>
       <c r="E72" s="54" t="n">
-        <v>350</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="54" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>American_Eel</t>
         </is>
       </c>
       <c r="B73" s="54" t="inlineStr">
         <is>
-          <t>_Common</t>
+          <t>_Young</t>
         </is>
       </c>
       <c r="C73" s="54" t="n">
@@ -14026,12 +14026,12 @@
     <row r="74">
       <c r="A74" s="54" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>American_Eel</t>
         </is>
       </c>
       <c r="B74" s="54" t="inlineStr">
         <is>
-          <t>_Trophy</t>
+          <t>_Common</t>
         </is>
       </c>
       <c r="C74" s="54" t="n">
@@ -14041,18 +14041,18 @@
         <v>5</v>
       </c>
       <c r="E74" s="54" t="n">
-        <v>175</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="54" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>American_Eel</t>
         </is>
       </c>
       <c r="B75" s="54" t="inlineStr">
         <is>
-          <t>_Unique</t>
+          <t>_Trophy</t>
         </is>
       </c>
       <c r="C75" s="54" t="n">
@@ -14062,18 +14062,18 @@
         <v>5</v>
       </c>
       <c r="E75" s="54" t="n">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="54" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>American_Eel</t>
         </is>
       </c>
       <c r="B76" s="54" t="inlineStr">
         <is>
-          <t>_Apex</t>
+          <t>_Unique</t>
         </is>
       </c>
       <c r="C76" s="54" t="n">
@@ -14083,6 +14083,132 @@
         <v>5</v>
       </c>
       <c r="E76" s="54" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="54" t="inlineStr">
+        <is>
+          <t>American_Eel</t>
+        </is>
+      </c>
+      <c r="B77" s="54" t="inlineStr">
+        <is>
+          <t>_Apex</t>
+        </is>
+      </c>
+      <c r="C77" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" s="54" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="54" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B78" s="54" t="inlineStr">
+        <is>
+          <t>_Young</t>
+        </is>
+      </c>
+      <c r="C78" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" s="54" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="54" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B79" s="54" t="inlineStr">
+        <is>
+          <t>_Common</t>
+        </is>
+      </c>
+      <c r="C79" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" s="54" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="54" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B80" s="54" t="inlineStr">
+        <is>
+          <t>_Trophy</t>
+        </is>
+      </c>
+      <c r="C80" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" s="54" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="54" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B81" s="54" t="inlineStr">
+        <is>
+          <t>_Unique</t>
+        </is>
+      </c>
+      <c r="C81" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" s="54" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="54" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B82" s="54" t="inlineStr">
+        <is>
+          <t>_Apex</t>
+        </is>
+      </c>
+      <c r="C82" s="54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" s="54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" s="54" t="n">
         <v>35</v>
       </c>
     </row>
